--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry of Education</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1109,42 +1106,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,11 +1157,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -730,7 +730,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -712,13 +712,16 @@
     <t>Name: uganda-primary-educ-funding</t>
   </si>
   <si>
-    <t>Description: Total spending per child in government primary education on district government budgets</t>
+    <t>Description: Primary Education Spending Per Child</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry of Education</t>
+    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.budget.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -736,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1106,42 +1112,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -1157,6 +1163,16 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -712,13 +712,13 @@
     <t>Name: uganda-primary-educ-funding</t>
   </si>
   <si>
-    <t>Description: Primary Education Spending Per Child</t>
+    <t>Description: Primary education spending per child</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -712,7 +712,7 @@
     <t>Name: uganda-primary-educ-funding</t>
   </si>
   <si>
-    <t>Description: Primary education spending per child</t>
+    <t>Description: Primary education spending, per child</t>
   </si>
   <si>
     <t>Units of measure: USD</t>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -1217,7 +1217,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>62.3996992060935</v>
+        <v>62.3996992061</v>
       </c>
       <c r="E2" t="n">
         <v>211065.8674</v>
@@ -1234,7 +1234,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>53.5489331441359</v>
+        <v>53.5489331441</v>
       </c>
       <c r="E3" t="n">
         <v>198026.8188</v>
@@ -1251,7 +1251,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>51.1402127547064</v>
+        <v>51.1402127547</v>
       </c>
       <c r="E4" t="n">
         <v>172980.8557</v>
@@ -1268,7 +1268,7 @@
         <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>47.1339874166006</v>
+        <v>47.1339874166</v>
       </c>
       <c r="E5" t="n">
         <v>174304.0064</v>
@@ -1285,7 +1285,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>33.7706426979323</v>
+        <v>33.7706426979</v>
       </c>
       <c r="E6" t="n">
         <v>114228.5954</v>
@@ -1302,7 +1302,7 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7293108373703</v>
+        <v>31.7293108374</v>
       </c>
       <c r="E7" t="n">
         <v>117336.6885</v>
@@ -1319,7 +1319,7 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>30.4958429861884</v>
+        <v>30.4958429862</v>
       </c>
       <c r="E8" t="n">
         <v>103151.6439</v>
@@ -1336,7 +1336,7 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7181288297161</v>
+        <v>27.7181288297</v>
       </c>
       <c r="E9" t="n">
         <v>102503.1229</v>
@@ -1353,7 +1353,7 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>38.2642644590335</v>
+        <v>38.264264459</v>
       </c>
       <c r="E10" t="n">
         <v>129428.1907</v>
@@ -1370,7 +1370,7 @@
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>34.9990045427159</v>
+        <v>34.9990045427</v>
       </c>
       <c r="E11" t="n">
         <v>129428.1907</v>
@@ -1387,7 +1387,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>77.1044155084144</v>
+        <v>77.1044155084</v>
       </c>
       <c r="E12" t="n">
         <v>260804.3075</v>
@@ -1404,7 +1404,7 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>73.0399507305243</v>
+        <v>73.0399507305</v>
       </c>
       <c r="E13" t="n">
         <v>270105.6443</v>
@@ -1421,7 +1421,7 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>26.8204782312447</v>
+        <v>26.8204782312</v>
       </c>
       <c r="E14" t="n">
         <v>90719.7883</v>
@@ -1438,7 +1438,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6580251406501</v>
+        <v>24.6580251407</v>
       </c>
       <c r="E15" t="n">
         <v>91186.69579</v>
@@ -1455,7 +1455,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>48.6136357397025</v>
+        <v>48.6136357397</v>
       </c>
       <c r="E16" t="n">
         <v>164434.7541</v>
@@ -1472,7 +1472,7 @@
         <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7069811026674</v>
+        <v>34.7069811027</v>
       </c>
       <c r="E17" t="n">
         <v>128348.2724</v>
@@ -1489,7 +1489,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>32.3500539062728</v>
+        <v>32.3500539063</v>
       </c>
       <c r="E18" t="n">
         <v>109423.4792</v>
@@ -1506,7 +1506,7 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0378617704584</v>
+        <v>29.0378617705</v>
       </c>
       <c r="E19" t="n">
         <v>107383.5659</v>
@@ -1523,7 +1523,7 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>31.2956643295316</v>
+        <v>31.2956643295</v>
       </c>
       <c r="E20" t="n">
         <v>105857.0253</v>
@@ -1540,7 +1540,7 @@
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>28.560266379411</v>
+        <v>28.5602663794</v>
       </c>
       <c r="E21" t="n">
         <v>105617.3926</v>
@@ -1557,7 +1557,7 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>29.2048916865592</v>
+        <v>29.2048916866</v>
       </c>
       <c r="E22" t="n">
         <v>98785.0242</v>
@@ -1574,7 +1574,7 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>26.7127129411476</v>
+        <v>26.7127129411</v>
       </c>
       <c r="E23" t="n">
         <v>98785.04117</v>
@@ -1591,7 +1591,7 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>40.7310081645623</v>
+        <v>40.7310081646</v>
       </c>
       <c r="E24" t="n">
         <v>137771.9072</v>
@@ -1608,7 +1608,7 @@
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>34.4084142742926</v>
+        <v>34.4084142743</v>
       </c>
       <c r="E25" t="n">
         <v>127244.1563</v>
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>28.4454870977764</v>
+        <v>28.4454870978</v>
       </c>
       <c r="E26" t="n">
         <v>96216.35175</v>
@@ -1655,7 +1655,7 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>47.877470608516</v>
+        <v>47.8774706085</v>
       </c>
       <c r="E28" t="n">
         <v>161944.6887</v>
@@ -1672,7 +1672,7 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>50.7737074359974</v>
+        <v>50.773707436</v>
       </c>
       <c r="E29" t="n">
         <v>187763.8857</v>
@@ -1689,7 +1689,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>48.745433213581</v>
+        <v>48.7454332136</v>
       </c>
       <c r="E30" t="n">
         <v>164880.5567</v>
@@ -1706,7 +1706,7 @@
         <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>44.5975603098677</v>
+        <v>44.5975603099</v>
       </c>
       <c r="E31" t="n">
         <v>164924.1633</v>
@@ -1723,7 +1723,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>41.9055783910555</v>
+        <v>41.9055783911</v>
       </c>
       <c r="E32" t="n">
         <v>141744.87</v>
@@ -1740,7 +1740,7 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>38.3268260444566</v>
+        <v>38.3268260445</v>
       </c>
       <c r="E33" t="n">
         <v>141734.6526</v>
@@ -1757,7 +1757,7 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>26.9976911971068</v>
+        <v>26.9976911971</v>
       </c>
       <c r="E34" t="n">
         <v>91319.20799</v>
@@ -1774,7 +1774,7 @@
         <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>30.6554396733258</v>
+        <v>30.6554396733</v>
       </c>
       <c r="E35" t="n">
         <v>113365.4555</v>
@@ -1791,7 +1791,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>53.9879213111864</v>
+        <v>53.9879213112</v>
       </c>
       <c r="E36" t="n">
         <v>182613.179</v>
@@ -1808,7 +1808,7 @@
         <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>49.1984659949092</v>
+        <v>49.1984659949</v>
       </c>
       <c r="E37" t="n">
         <v>181938.5586</v>
@@ -1825,7 +1825,7 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>32.2922377545357</v>
+        <v>32.2922377545</v>
       </c>
       <c r="E38" t="n">
         <v>109227.9171</v>
@@ -1842,7 +1842,7 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>30.0369145736635</v>
+        <v>30.0369145737</v>
       </c>
       <c r="E39" t="n">
         <v>111078.1166</v>
@@ -1859,7 +1859,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>43.4775774135796</v>
+        <v>43.4775774136</v>
       </c>
       <c r="E40" t="n">
         <v>147062.1286</v>
@@ -1876,7 +1876,7 @@
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>35.1471054564288</v>
+        <v>35.1471054564</v>
       </c>
       <c r="E41" t="n">
         <v>129975.8758</v>
@@ -1893,7 +1893,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>66.3730882998654</v>
+        <v>66.3730882999</v>
       </c>
       <c r="E42" t="n">
         <v>224505.785</v>
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>59.7753789749177</v>
+        <v>59.7753789749</v>
       </c>
       <c r="E43" t="n">
         <v>221052.5485</v>
@@ -1927,7 +1927,7 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>62.4865022959043</v>
+        <v>62.4865022959</v>
       </c>
       <c r="E44" t="n">
         <v>211359.4773</v>
@@ -1944,7 +1944,7 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>57.3907619764938</v>
+        <v>57.3907619765</v>
       </c>
       <c r="E45" t="n">
         <v>212234.1073</v>
@@ -1961,7 +1961,7 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>31.5423421147367</v>
+        <v>31.5423421147</v>
       </c>
       <c r="E46" t="n">
         <v>106691.4085</v>
@@ -1978,7 +1978,7 @@
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>28.8950503421687</v>
+        <v>28.8950503422</v>
       </c>
       <c r="E47" t="n">
         <v>106855.4416</v>
@@ -1995,7 +1995,7 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>32.0488684864415</v>
+        <v>32.0488684864</v>
       </c>
       <c r="E48" t="n">
         <v>108404.7249</v>
@@ -2012,7 +2012,7 @@
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>29.313992687522</v>
+        <v>29.3139926875</v>
       </c>
       <c r="E49" t="n">
         <v>108404.7128</v>
@@ -2029,7 +2029,7 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>53.2001209034914</v>
+        <v>53.2001209035</v>
       </c>
       <c r="E50" t="n">
         <v>179948.4582</v>
@@ -2046,7 +2046,7 @@
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>49.6911729034714</v>
+        <v>49.6911729035</v>
       </c>
       <c r="E51" t="n">
         <v>183760.6151</v>
@@ -2063,7 +2063,7 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>44.4397484986533</v>
+        <v>44.4397484987</v>
       </c>
       <c r="E52" t="n">
         <v>150316.6551</v>
@@ -2080,7 +2080,7 @@
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>39.8483949519168</v>
+        <v>39.8483949519</v>
       </c>
       <c r="E53" t="n">
         <v>147361.4958</v>
@@ -2097,7 +2097,7 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>33.5265103215934</v>
+        <v>33.5265103216</v>
       </c>
       <c r="E54" t="n">
         <v>113402.822</v>
@@ -2114,7 +2114,7 @@
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>30.5910920371968</v>
+        <v>30.5910920372</v>
       </c>
       <c r="E55" t="n">
         <v>113127.4945</v>
@@ -2131,7 +2131,7 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>37.7001536589149</v>
+        <v>37.7001536589</v>
       </c>
       <c r="E56" t="n">
         <v>127520.096</v>
@@ -2148,7 +2148,7 @@
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>35.0900445997133</v>
+        <v>35.0900445997</v>
       </c>
       <c r="E57" t="n">
         <v>129764.8617</v>
@@ -2165,7 +2165,7 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>42.1149329931078</v>
+        <v>42.1149329931</v>
       </c>
       <c r="E58" t="n">
         <v>142453.0082</v>
@@ -2182,7 +2182,7 @@
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>37.8249898195819</v>
+        <v>37.8249898196</v>
       </c>
       <c r="E59" t="n">
         <v>139878.8354</v>
@@ -2199,7 +2199,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>52.9602658003056</v>
+        <v>52.9602658003</v>
       </c>
       <c r="E60" t="n">
         <v>179137.1526</v>
@@ -2216,7 +2216,7 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>43.3579515483049</v>
+        <v>43.3579515483</v>
       </c>
       <c r="E61" t="n">
         <v>160340.0238</v>
@@ -2233,7 +2233,7 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>38.839055049503</v>
+        <v>38.8390550495</v>
       </c>
       <c r="E62" t="n">
         <v>131372.4096</v>
@@ -2250,7 +2250,7 @@
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>35.3720508239058</v>
+        <v>35.3720508239</v>
       </c>
       <c r="E63" t="n">
         <v>130807.7358</v>
@@ -2267,7 +2267,7 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>51.0707125501063</v>
+        <v>51.0707125501</v>
       </c>
       <c r="E64" t="n">
         <v>172745.7725</v>
@@ -2284,7 +2284,7 @@
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>46.4147847032775</v>
+        <v>46.4147847033</v>
       </c>
       <c r="E65" t="n">
         <v>171644.3563</v>
@@ -2301,7 +2301,7 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>57.8944718847833</v>
+        <v>57.8944718848</v>
       </c>
       <c r="E66" t="n">
         <v>195827.0165</v>
@@ -2318,7 +2318,7 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>52.401964957255</v>
+        <v>52.4019649573</v>
       </c>
       <c r="E67" t="n">
         <v>193785.2691</v>
@@ -2335,7 +2335,7 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>42.4084167610133</v>
+        <v>42.408416761</v>
       </c>
       <c r="E68" t="n">
         <v>143445.7118</v>
@@ -2352,7 +2352,7 @@
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>39.4894396243108</v>
+        <v>39.4894396243</v>
       </c>
       <c r="E69" t="n">
         <v>146034.0598</v>
@@ -2369,7 +2369,7 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>66.690790821007</v>
+        <v>66.690790821</v>
       </c>
       <c r="E70" t="n">
         <v>225580.4081</v>
@@ -2386,7 +2386,7 @@
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>58.4424661004061</v>
+        <v>58.4424661004</v>
       </c>
       <c r="E71" t="n">
         <v>216123.3654</v>
@@ -2403,7 +2403,7 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>50.170133482987</v>
+        <v>50.170133483</v>
       </c>
       <c r="E72" t="n">
         <v>169699.5799</v>
@@ -2420,7 +2420,7 @@
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>45.7109452344936</v>
+        <v>45.7109452345</v>
       </c>
       <c r="E73" t="n">
         <v>169041.5203</v>
@@ -2437,7 +2437,7 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>47.1401353602826</v>
+        <v>47.1401353603</v>
       </c>
       <c r="E74" t="n">
         <v>159450.6654</v>
@@ -2454,7 +2454,7 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>43.2355988830696</v>
+        <v>43.2355988831</v>
       </c>
       <c r="E75" t="n">
         <v>159887.5571</v>
@@ -2471,7 +2471,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>37.2318788418606</v>
+        <v>37.2318788419</v>
       </c>
       <c r="E76" t="n">
         <v>125936.1648</v>
@@ -2488,7 +2488,7 @@
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>34.1816707716539</v>
+        <v>34.1816707717</v>
       </c>
       <c r="E77" t="n">
         <v>126405.6467</v>
@@ -2505,7 +2505,7 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>28.6562165363609</v>
+        <v>28.6562165364</v>
       </c>
       <c r="E78" t="n">
         <v>96929.14031</v>
@@ -2522,7 +2522,7 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>26.1353532114946</v>
+        <v>26.1353532115</v>
       </c>
       <c r="E79" t="n">
         <v>96649.93401</v>
@@ -2539,7 +2539,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>153.942627393057</v>
+        <v>153.9426273931</v>
       </c>
       <c r="E80" t="n">
         <v>520708.186</v>
@@ -2556,7 +2556,7 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>137.137548993884</v>
+        <v>137.1375489939</v>
       </c>
       <c r="E81" t="n">
         <v>507141.9909</v>
@@ -2573,7 +2573,7 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>39.3227551956544</v>
+        <v>39.3227551957</v>
       </c>
       <c r="E82" t="n">
         <v>133008.5167</v>
@@ -2590,7 +2590,7 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>35.9922001564316</v>
+        <v>35.9922001564</v>
       </c>
       <c r="E83" t="n">
         <v>133101.0812</v>
@@ -2607,7 +2607,7 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>39.9658532867137</v>
+        <v>39.9658532867</v>
       </c>
       <c r="E84" t="n">
         <v>135183.7845</v>
@@ -2624,7 +2624,7 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>36.9229126824974</v>
+        <v>36.9229126825</v>
       </c>
       <c r="E85" t="n">
         <v>136542.9059</v>
@@ -2667,7 +2667,7 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>38.5309006054159</v>
+        <v>38.5309006054</v>
       </c>
       <c r="E88" t="n">
         <v>130330.0827</v>
@@ -2684,7 +2684,7 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>35.3034750985765</v>
+        <v>35.3034750986</v>
       </c>
       <c r="E89" t="n">
         <v>130554.1391</v>
@@ -2701,7 +2701,7 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>34.240478587536</v>
+        <v>34.2404785875</v>
       </c>
       <c r="E90" t="n">
         <v>115817.8069</v>
@@ -2718,7 +2718,7 @@
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>31.3015776781098</v>
+        <v>31.3015776781</v>
       </c>
       <c r="E91" t="n">
         <v>115754.9084</v>
@@ -2735,7 +2735,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>51.9865852087457</v>
+        <v>51.9865852087</v>
       </c>
       <c r="E92" t="n">
         <v>175843.6954</v>
@@ -2752,7 +2752,7 @@
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>50.0234232630674</v>
+        <v>50.0234232631</v>
       </c>
       <c r="E93" t="n">
         <v>184989.2947</v>
@@ -2769,7 +2769,7 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>44.0868696497519</v>
+        <v>44.0868696498</v>
       </c>
       <c r="E94" t="n">
         <v>149123.0487</v>
@@ -2786,7 +2786,7 @@
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>39.8384648088957</v>
+        <v>39.8384648089</v>
       </c>
       <c r="E95" t="n">
         <v>147324.7736</v>
@@ -2803,7 +2803,7 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>42.9861015870257</v>
+        <v>42.986101587</v>
       </c>
       <c r="E96" t="n">
         <v>145399.7204</v>
@@ -2820,7 +2820,7 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>41.3955059723827</v>
+        <v>41.3955059724</v>
       </c>
       <c r="E97" t="n">
         <v>153082.7951</v>
@@ -2837,7 +2837,7 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>28.8191525073527</v>
+        <v>28.8191525074</v>
       </c>
       <c r="E98" t="n">
         <v>97480.26832</v>
@@ -2854,7 +2854,7 @@
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>26.3240053288697</v>
+        <v>26.3240053289</v>
       </c>
       <c r="E99" t="n">
         <v>97347.57963</v>
@@ -2871,7 +2871,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>42.1759486295984</v>
+        <v>42.1759486296</v>
       </c>
       <c r="E100" t="n">
         <v>142659.3925</v>
@@ -2888,7 +2888,7 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>38.5198198188866</v>
+        <v>38.5198198189</v>
       </c>
       <c r="E101" t="n">
         <v>142448.3539</v>
@@ -2905,7 +2905,7 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>35.3583151809458</v>
+        <v>35.3583151809</v>
       </c>
       <c r="E102" t="n">
         <v>119598.8692</v>
@@ -2922,7 +2922,7 @@
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>32.297358814193</v>
+        <v>32.2973588142</v>
       </c>
       <c r="E103" t="n">
         <v>119437.3603</v>
@@ -2939,7 +2939,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>57.5171663288495</v>
+        <v>57.5171663288</v>
       </c>
       <c r="E104" t="n">
         <v>194550.7872</v>
@@ -2956,7 +2956,7 @@
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>52.794826933461</v>
+        <v>52.7948269335</v>
       </c>
       <c r="E105" t="n">
         <v>195238.0937</v>
@@ -2973,7 +2973,7 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>42.030076668941</v>
+        <v>42.0300766689</v>
       </c>
       <c r="E106" t="n">
         <v>142165.9832</v>
@@ -2990,7 +2990,7 @@
         <v>2016</v>
       </c>
       <c r="D107" t="n">
-        <v>38.0060323606979</v>
+        <v>38.0060323607</v>
       </c>
       <c r="E107" t="n">
         <v>140548.3404</v>
@@ -3007,7 +3007,7 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>36.672518192486</v>
+        <v>36.6725181925</v>
       </c>
       <c r="E108" t="n">
         <v>124044.1374</v>
@@ -3024,7 +3024,7 @@
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>39.1361917858175</v>
+        <v>39.1361917858</v>
       </c>
       <c r="E109" t="n">
         <v>144727.7304</v>
@@ -3041,7 +3041,7 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>35.157788031298</v>
+        <v>35.1577880313</v>
       </c>
       <c r="E110" t="n">
         <v>118920.5897</v>
@@ -3058,7 +3058,7 @@
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>30.5115471627811</v>
+        <v>30.5115471628</v>
       </c>
       <c r="E111" t="n">
         <v>112833.3333</v>
@@ -3075,7 +3075,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>50.399062172198</v>
+        <v>50.3990621722</v>
       </c>
       <c r="E112" t="n">
         <v>170473.9271</v>
@@ -3092,7 +3092,7 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>45.5620006336861</v>
+        <v>45.5620006337</v>
       </c>
       <c r="E113" t="n">
         <v>168490.7152</v>
@@ -3109,7 +3109,7 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>35.6107584955042</v>
+        <v>35.6107584955</v>
       </c>
       <c r="E114" t="n">
         <v>120452.7542</v>
@@ -3126,7 +3126,7 @@
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>32.8519865416306</v>
+        <v>32.8519865416</v>
       </c>
       <c r="E115" t="n">
         <v>121488.4033</v>
@@ -3143,7 +3143,7 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>33.9096310154205</v>
+        <v>33.9096310154</v>
       </c>
       <c r="E116" t="n">
         <v>114698.7209</v>
@@ -3160,7 +3160,7 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>31.8666338377382</v>
+        <v>31.8666338377</v>
       </c>
       <c r="E117" t="n">
         <v>117844.5163</v>
@@ -3177,7 +3177,7 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>42.9912107640568</v>
+        <v>42.9912107641</v>
       </c>
       <c r="E118" t="n">
         <v>145417.0021</v>
@@ -3194,7 +3194,7 @@
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>38.2923441472808</v>
+        <v>38.2923441473</v>
       </c>
       <c r="E119" t="n">
         <v>141607.1367</v>
@@ -3211,7 +3211,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>52.798919197652</v>
+        <v>52.7989191977</v>
       </c>
       <c r="E120" t="n">
         <v>178591.4006</v>
@@ -3228,7 +3228,7 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>53.7233078530791</v>
+        <v>53.7233078531</v>
       </c>
       <c r="E121" t="n">
         <v>198671.6658</v>
@@ -3245,7 +3245,7 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>31.7743580929866</v>
+        <v>31.774358093</v>
       </c>
       <c r="E122" t="n">
         <v>107476.1984</v>
@@ -3262,7 +3262,7 @@
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>27.9845106719889</v>
+        <v>27.984510672</v>
       </c>
       <c r="E123" t="n">
         <v>103488.2172</v>
@@ -3279,7 +3279,7 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>43.4346117468086</v>
+        <v>43.4346117468</v>
       </c>
       <c r="E124" t="n">
         <v>146916.798</v>
@@ -3296,7 +3296,7 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>34.4755372083028</v>
+        <v>34.4755372083</v>
       </c>
       <c r="E125" t="n">
         <v>127492.3805</v>
@@ -3313,7 +3313,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>51.422123453336</v>
+        <v>51.4221234533</v>
       </c>
       <c r="E126" t="n">
         <v>173934.4136</v>
@@ -3330,7 +3330,7 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>47.1966998681586</v>
+        <v>47.1966998682</v>
       </c>
       <c r="E127" t="n">
         <v>174535.9204</v>
@@ -3347,7 +3347,7 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>33.3495880268901</v>
+        <v>33.3495880269</v>
       </c>
       <c r="E128" t="n">
         <v>112804.3855</v>
@@ -3364,7 +3364,7 @@
         <v>2016</v>
       </c>
       <c r="D129" t="n">
-        <v>33.5400226965234</v>
+        <v>33.5400226965</v>
       </c>
       <c r="E129" t="n">
         <v>124032.7978</v>
@@ -3381,7 +3381,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>33.5952910249789</v>
+        <v>33.595291025</v>
       </c>
       <c r="E130" t="n">
         <v>113635.4715</v>
@@ -3398,7 +3398,7 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>22.1759332702375</v>
+        <v>22.1759332702</v>
       </c>
       <c r="E131" t="n">
         <v>82007.7873</v>
@@ -3415,7 +3415,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>53.000101339674</v>
+        <v>53.0001013397</v>
       </c>
       <c r="E132" t="n">
         <v>179271.8956</v>
@@ -3432,7 +3432,7 @@
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>39.3053881759287</v>
+        <v>39.3053881759</v>
       </c>
       <c r="E133" t="n">
         <v>145353.4277</v>
@@ -3449,7 +3449,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>36.8794590049927</v>
+        <v>36.879459005</v>
       </c>
       <c r="E134" t="n">
         <v>124744.111</v>
@@ -3466,7 +3466,7 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>33.8830701417128</v>
+        <v>33.8830701417</v>
       </c>
       <c r="E135" t="n">
         <v>125301.4056</v>
@@ -3509,7 +3509,7 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>46.3403961164124</v>
+        <v>46.3403961164</v>
       </c>
       <c r="E138" t="n">
         <v>156745.5617</v>
@@ -3526,7 +3526,7 @@
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>42.3563162243115</v>
+        <v>42.3563162243</v>
       </c>
       <c r="E139" t="n">
         <v>156635.9228</v>
@@ -3543,7 +3543,7 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>38.1865768941026</v>
+        <v>38.1865768941</v>
       </c>
       <c r="E140" t="n">
         <v>129165.4139</v>
@@ -3560,7 +3560,7 @@
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>34.7378410673708</v>
+        <v>34.7378410674</v>
       </c>
       <c r="E141" t="n">
         <v>128462.3942</v>
@@ -3577,7 +3577,7 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>38.3736187101212</v>
+        <v>38.3736187101</v>
       </c>
       <c r="E142" t="n">
         <v>129798.0795</v>
@@ -3594,7 +3594,7 @@
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>35.0990271090632</v>
+        <v>35.0990271091</v>
       </c>
       <c r="E143" t="n">
         <v>129798.0795</v>
@@ -3611,7 +3611,7 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>33.7185272710672</v>
+        <v>33.7185272711</v>
       </c>
       <c r="E144" t="n">
         <v>114052.3159</v>
@@ -3628,7 +3628,7 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>30.6452351697514</v>
+        <v>30.6452351698</v>
       </c>
       <c r="E145" t="n">
         <v>113327.7187</v>
@@ -3645,7 +3645,7 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>30.1755158539884</v>
+        <v>30.175515854</v>
       </c>
       <c r="E146" t="n">
         <v>102068.1431</v>
@@ -3662,7 +3662,7 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>26.9865540508745</v>
+        <v>26.9865540509</v>
       </c>
       <c r="E147" t="n">
         <v>99797.72024</v>
@@ -3679,7 +3679,7 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>55.5047631169384</v>
+        <v>55.5047631169</v>
       </c>
       <c r="E148" t="n">
         <v>187743.8693</v>
@@ -3696,7 +3696,7 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>50.9644728489301</v>
+        <v>50.9644728489</v>
       </c>
       <c r="E149" t="n">
         <v>188469.3464</v>
@@ -3713,7 +3713,7 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>53.6034598563952</v>
+        <v>53.6034598564</v>
       </c>
       <c r="E150" t="n">
         <v>181312.745</v>
@@ -3730,7 +3730,7 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>47.6012439631285</v>
+        <v>47.6012439631</v>
       </c>
       <c r="E151" t="n">
         <v>176031.9461</v>
@@ -3747,7 +3747,7 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>30.893764379057</v>
+        <v>30.8937643791</v>
       </c>
       <c r="E152" t="n">
         <v>104497.6059</v>
@@ -3764,7 +3764,7 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>28.2587200376121</v>
+        <v>28.2587200376</v>
       </c>
       <c r="E153" t="n">
         <v>104502.2581</v>
@@ -3781,7 +3781,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>39.5089108872573</v>
+        <v>39.5089108873</v>
       </c>
       <c r="E154" t="n">
         <v>133638.185</v>
@@ -3798,7 +3798,7 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>35.4770512252351</v>
+        <v>35.4770512252</v>
       </c>
       <c r="E155" t="n">
         <v>131196.0329</v>
@@ -3815,7 +3815,7 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>64.1448167486044</v>
+        <v>64.1448167486</v>
       </c>
       <c r="E156" t="n">
         <v>216968.6963</v>
@@ -3832,7 +3832,7 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>57.7290584357729</v>
+        <v>57.7290584358</v>
       </c>
       <c r="E157" t="n">
         <v>213485.1457</v>
@@ -3849,7 +3849,7 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>50.7087240891427</v>
+        <v>50.7087240891</v>
       </c>
       <c r="E158" t="n">
         <v>171521.353</v>
@@ -3866,7 +3866,7 @@
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>45.354567398003</v>
+        <v>45.354567398</v>
       </c>
       <c r="E159" t="n">
         <v>167723.616</v>
@@ -3935,7 +3935,7 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>47.2455985634654</v>
+        <v>47.2455985635</v>
       </c>
       <c r="E164" t="n">
         <v>159807.3928</v>
@@ -3952,7 +3952,7 @@
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>43.5944543473281</v>
+        <v>43.5944543473</v>
       </c>
       <c r="E165" t="n">
         <v>161214.6238</v>
@@ -3969,7 +3969,7 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>49.7137533333601</v>
+        <v>49.7137533334</v>
       </c>
       <c r="E166" t="n">
         <v>168155.8822</v>
@@ -3986,7 +3986,7 @@
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>45.1264783766959</v>
+        <v>45.1264783767</v>
       </c>
       <c r="E167" t="n">
         <v>166880.1306</v>
@@ -4029,7 +4029,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>50.5149695399488</v>
+        <v>50.5149695399</v>
       </c>
       <c r="E170" t="n">
         <v>170865.9817</v>
@@ -4059,7 +4059,7 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>80.0730628856884</v>
+        <v>80.0730628857</v>
       </c>
       <c r="E172" t="n">
         <v>270845.7042</v>
@@ -4076,7 +4076,7 @@
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>69.5159998047343</v>
+        <v>69.5159998047</v>
       </c>
       <c r="E173" t="n">
         <v>257073.8853</v>
@@ -4093,7 +4093,7 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>36.0794271653416</v>
+        <v>36.0794271653</v>
       </c>
       <c r="E174" t="n">
         <v>122038.0176</v>
@@ -4110,7 +4110,7 @@
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>32.6731289608009</v>
+        <v>32.6731289608</v>
       </c>
       <c r="E175" t="n">
         <v>120826.9784</v>
@@ -4127,7 +4127,7 @@
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>48.3174512627754</v>
+        <v>48.3174512628</v>
       </c>
       <c r="E176" t="n">
         <v>163432.9154</v>
@@ -4144,7 +4144,7 @@
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>44.5080855358021</v>
+        <v>44.5080855358</v>
       </c>
       <c r="E177" t="n">
         <v>164593.2808</v>
@@ -4161,7 +4161,7 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>35.1680709237648</v>
+        <v>35.1680709238</v>
       </c>
       <c r="E178" t="n">
         <v>118955.3714</v>
@@ -4178,7 +4178,7 @@
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>31.9076881114636</v>
+        <v>31.9076881115</v>
       </c>
       <c r="E179" t="n">
         <v>117996.3372</v>
@@ -4195,7 +4195,7 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>34.9881255827863</v>
+        <v>34.9881255828</v>
       </c>
       <c r="E180" t="n">
         <v>118346.7095</v>
@@ -4212,7 +4212,7 @@
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>32.1761959370498</v>
+        <v>32.176195937</v>
       </c>
       <c r="E181" t="n">
         <v>118989.2935</v>
@@ -4229,7 +4229,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>45.4487614276663</v>
+        <v>45.4487614277</v>
       </c>
       <c r="E182" t="n">
         <v>153729.6233</v>
@@ -4246,7 +4246,7 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>41.720468876534</v>
+        <v>41.7204688765</v>
       </c>
       <c r="E183" t="n">
         <v>154284.5253</v>
@@ -4263,7 +4263,7 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>32.4061903447745</v>
+        <v>32.4061903448</v>
       </c>
       <c r="E184" t="n">
         <v>109613.3597</v>
@@ -4280,7 +4280,7 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>29.6693382241782</v>
+        <v>29.6693382242</v>
       </c>
       <c r="E185" t="n">
         <v>109718.7996</v>
@@ -4297,7 +4297,7 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>33.7346240301715</v>
+        <v>33.7346240302</v>
       </c>
       <c r="E186" t="n">
         <v>114106.7629</v>
@@ -4314,7 +4314,7 @@
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>30.5331931990911</v>
+        <v>30.5331931991</v>
       </c>
       <c r="E187" t="n">
         <v>112913.3815</v>
@@ -4331,7 +4331,7 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>77.4218403932037</v>
+        <v>77.4218403932</v>
       </c>
       <c r="E188" t="n">
         <v>261877.9915</v>
@@ -4348,7 +4348,7 @@
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>72.937583254879</v>
+        <v>72.9375832549</v>
       </c>
       <c r="E189" t="n">
         <v>269727.0839</v>
@@ -4365,7 +4365,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>50.9744222261345</v>
+        <v>50.9744222261</v>
       </c>
       <c r="E190" t="n">
         <v>172420.0722</v>
@@ -4382,7 +4382,7 @@
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>46.5751263810007</v>
+        <v>46.575126381</v>
       </c>
       <c r="E191" t="n">
         <v>172237.3084</v>
@@ -4399,7 +4399,7 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>58.6924892865925</v>
+        <v>58.6924892866</v>
       </c>
       <c r="E192" t="n">
         <v>198526.2961</v>
@@ -4416,7 +4416,7 @@
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>37.3013863324598</v>
+        <v>37.3013863325</v>
       </c>
       <c r="E193" t="n">
         <v>137942.5217</v>
@@ -4433,7 +4433,7 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>40.4965852851994</v>
+        <v>40.4965852852</v>
       </c>
       <c r="E194" t="n">
         <v>136978.976</v>
@@ -4450,7 +4450,7 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>36.9569237373754</v>
+        <v>36.9569237374</v>
       </c>
       <c r="E195" t="n">
         <v>136668.6806</v>
@@ -4467,7 +4467,7 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>34.6598403597595</v>
+        <v>34.6598403598</v>
       </c>
       <c r="E196" t="n">
         <v>117236.2906</v>
@@ -4484,7 +4484,7 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>28.7985205863106</v>
+        <v>28.7985205863</v>
       </c>
       <c r="E197" t="n">
         <v>106498.4694</v>
@@ -4501,7 +4501,7 @@
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>33.7585027077009</v>
+        <v>33.7585027077</v>
       </c>
       <c r="E198" t="n">
         <v>114187.5321</v>
@@ -4518,7 +4518,7 @@
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>30.3083227629262</v>
+        <v>30.3083227629</v>
       </c>
       <c r="E199" t="n">
         <v>112081.7986</v>
@@ -4535,7 +4535,7 @@
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>31.2925012381706</v>
+        <v>31.2925012382</v>
       </c>
       <c r="E200" t="n">
         <v>105846.3262</v>
@@ -4552,7 +4552,7 @@
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>28.9683682109186</v>
+        <v>28.9683682109</v>
       </c>
       <c r="E201" t="n">
         <v>107126.575</v>
@@ -4569,7 +4569,7 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>48.3574821616386</v>
+        <v>48.3574821616</v>
       </c>
       <c r="E202" t="n">
         <v>163568.3192</v>
@@ -4586,7 +4586,7 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>44.1199613223337</v>
+        <v>44.1199613223</v>
       </c>
       <c r="E203" t="n">
         <v>163157.9767</v>
@@ -4603,7 +4603,7 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>53.00959294932</v>
+        <v>53.0095929493</v>
       </c>
       <c r="E204" t="n">
         <v>179304.0008</v>
@@ -4620,7 +4620,7 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>48.5600923451085</v>
+        <v>48.5600923451</v>
       </c>
       <c r="E205" t="n">
         <v>179577.8187</v>
@@ -4637,7 +4637,7 @@
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>61.2576228985091</v>
+        <v>61.2576228985</v>
       </c>
       <c r="E206" t="n">
         <v>207202.8147</v>
@@ -4654,7 +4654,7 @@
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>55.8267235913307</v>
+        <v>55.8267235913</v>
       </c>
       <c r="E207" t="n">
         <v>206450.2097</v>
@@ -4671,7 +4671,7 @@
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>30.4253469448412</v>
+        <v>30.4253469448</v>
       </c>
       <c r="E208" t="n">
         <v>102913.1923</v>
@@ -4688,7 +4688,7 @@
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>27.5929114141345</v>
+        <v>27.5929114141</v>
       </c>
       <c r="E209" t="n">
         <v>102040.0622</v>
@@ -4705,7 +4705,7 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>55.9339982598788</v>
+        <v>55.9339982599</v>
       </c>
       <c r="E210" t="n">
         <v>189195.7495</v>
@@ -4722,7 +4722,7 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>51.1601623929162</v>
+        <v>51.1601623929</v>
       </c>
       <c r="E211" t="n">
         <v>189193.0168</v>
@@ -4739,7 +4739,7 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>39.6179519068305</v>
+        <v>39.6179519068</v>
       </c>
       <c r="E212" t="n">
         <v>134007.0143</v>
@@ -4756,7 +4756,7 @@
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>36.1057249071606</v>
+        <v>36.1057249072</v>
       </c>
       <c r="E213" t="n">
         <v>133520.9018</v>
@@ -4773,7 +4773,7 @@
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>38.3233222137829</v>
+        <v>38.3233222138</v>
       </c>
       <c r="E214" t="n">
         <v>129627.9525</v>
@@ -4790,7 +4790,7 @@
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>34.2208979219944</v>
+        <v>34.220897922</v>
       </c>
       <c r="E215" t="n">
         <v>126550.7108</v>
@@ -4807,7 +4807,7 @@
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>49.0275158865117</v>
+        <v>49.0275158865</v>
       </c>
       <c r="E216" t="n">
         <v>165834.6963</v>
@@ -4824,7 +4824,7 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>45.7926728788542</v>
+        <v>45.7926728789</v>
       </c>
       <c r="E217" t="n">
         <v>169343.7535</v>
@@ -4841,7 +4841,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>26.4038677433284</v>
+        <v>26.4038677433</v>
       </c>
       <c r="E218" t="n">
         <v>89310.61077</v>
@@ -4858,7 +4858,7 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>24.1957836432766</v>
+        <v>24.1957836433</v>
       </c>
       <c r="E219" t="n">
         <v>89477.30201</v>
@@ -4875,7 +4875,7 @@
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>60.8680706851137</v>
+        <v>60.8680706851</v>
       </c>
       <c r="E220" t="n">
         <v>205885.1613</v>
@@ -4892,7 +4892,7 @@
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>61.871491168179</v>
+        <v>61.8714911682</v>
       </c>
       <c r="E221" t="n">
         <v>228804.0835</v>
@@ -4909,7 +4909,7 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>43.3292664452095</v>
+        <v>43.3292664452</v>
       </c>
       <c r="E222" t="n">
         <v>146560.4694</v>
@@ -4926,7 +4926,7 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>39.2838282660096</v>
+        <v>39.283828266</v>
       </c>
       <c r="E223" t="n">
         <v>145273.698</v>
@@ -4943,7 +4943,7 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>36.1553945438004</v>
+        <v>36.1553945438</v>
       </c>
       <c r="E224" t="n">
         <v>122294.9759</v>
@@ -4960,7 +4960,7 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>32.638141987101</v>
+        <v>32.6381419871</v>
       </c>
       <c r="E225" t="n">
         <v>120697.5947</v>
@@ -5002,10 +5002,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>62.3996992060935</v>
+        <v>62.3996992061</v>
       </c>
       <c r="D2" t="n">
-        <v>53.5489331441359</v>
+        <v>53.5489331441</v>
       </c>
     </row>
     <row r="3">
@@ -5016,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>51.1402127547064</v>
+        <v>51.1402127547</v>
       </c>
       <c r="D3" t="n">
-        <v>47.1339874166006</v>
+        <v>47.1339874166</v>
       </c>
     </row>
     <row r="4">
@@ -5030,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>33.7706426979323</v>
+        <v>33.7706426979</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7293108373703</v>
+        <v>31.7293108374</v>
       </c>
     </row>
     <row r="5">
@@ -5044,10 +5044,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4958429861884</v>
+        <v>30.4958429862</v>
       </c>
       <c r="D5" t="n">
-        <v>27.7181288297161</v>
+        <v>27.7181288297</v>
       </c>
     </row>
     <row r="6">
@@ -5058,10 +5058,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>38.2642644590335</v>
+        <v>38.264264459</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9990045427159</v>
+        <v>34.9990045427</v>
       </c>
     </row>
     <row r="7">
@@ -5072,10 +5072,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>77.1044155084144</v>
+        <v>77.1044155084</v>
       </c>
       <c r="D7" t="n">
-        <v>73.0399507305243</v>
+        <v>73.0399507305</v>
       </c>
     </row>
     <row r="8">
@@ -5086,10 +5086,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>26.8204782312447</v>
+        <v>26.8204782312</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6580251406501</v>
+        <v>24.6580251407</v>
       </c>
     </row>
     <row r="9">
@@ -5100,10 +5100,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>48.6136357397025</v>
+        <v>48.6136357397</v>
       </c>
       <c r="D9" t="n">
-        <v>34.7069811026674</v>
+        <v>34.7069811027</v>
       </c>
     </row>
     <row r="10">
@@ -5114,10 +5114,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>32.3500539062728</v>
+        <v>32.3500539063</v>
       </c>
       <c r="D10" t="n">
-        <v>29.0378617704584</v>
+        <v>29.0378617705</v>
       </c>
     </row>
     <row r="11">
@@ -5128,10 +5128,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>31.2956643295316</v>
+        <v>31.2956643295</v>
       </c>
       <c r="D11" t="n">
-        <v>28.560266379411</v>
+        <v>28.5602663794</v>
       </c>
     </row>
     <row r="12">
@@ -5142,10 +5142,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2048916865592</v>
+        <v>29.2048916866</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7127129411476</v>
+        <v>26.7127129411</v>
       </c>
     </row>
     <row r="13">
@@ -5156,10 +5156,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>40.7310081645623</v>
+        <v>40.7310081646</v>
       </c>
       <c r="D13" t="n">
-        <v>34.4084142742926</v>
+        <v>34.4084142743</v>
       </c>
     </row>
     <row r="14">
@@ -5170,7 +5170,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4454870977764</v>
+        <v>28.4454870978</v>
       </c>
       <c r="D14"/>
     </row>
@@ -5182,10 +5182,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>47.877470608516</v>
+        <v>47.8774706085</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7737074359974</v>
+        <v>50.773707436</v>
       </c>
     </row>
     <row r="16">
@@ -5196,10 +5196,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>48.745433213581</v>
+        <v>48.7454332136</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5975603098677</v>
+        <v>44.5975603099</v>
       </c>
     </row>
     <row r="17">
@@ -5210,10 +5210,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>41.9055783910555</v>
+        <v>41.9055783911</v>
       </c>
       <c r="D17" t="n">
-        <v>38.3268260444566</v>
+        <v>38.3268260445</v>
       </c>
     </row>
     <row r="18">
@@ -5224,10 +5224,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>26.9976911971068</v>
+        <v>26.9976911971</v>
       </c>
       <c r="D18" t="n">
-        <v>30.6554396733258</v>
+        <v>30.6554396733</v>
       </c>
     </row>
     <row r="19">
@@ -5238,10 +5238,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>53.9879213111864</v>
+        <v>53.9879213112</v>
       </c>
       <c r="D19" t="n">
-        <v>49.1984659949092</v>
+        <v>49.1984659949</v>
       </c>
     </row>
     <row r="20">
@@ -5252,10 +5252,10 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>32.2922377545357</v>
+        <v>32.2922377545</v>
       </c>
       <c r="D20" t="n">
-        <v>30.0369145736635</v>
+        <v>30.0369145737</v>
       </c>
     </row>
     <row r="21">
@@ -5266,10 +5266,10 @@
         <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>43.4775774135796</v>
+        <v>43.4775774136</v>
       </c>
       <c r="D21" t="n">
-        <v>35.1471054564288</v>
+        <v>35.1471054564</v>
       </c>
     </row>
     <row r="22">
@@ -5280,10 +5280,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>66.3730882998654</v>
+        <v>66.3730882999</v>
       </c>
       <c r="D22" t="n">
-        <v>59.7753789749177</v>
+        <v>59.7753789749</v>
       </c>
     </row>
     <row r="23">
@@ -5294,10 +5294,10 @@
         <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>62.4865022959043</v>
+        <v>62.4865022959</v>
       </c>
       <c r="D23" t="n">
-        <v>57.3907619764938</v>
+        <v>57.3907619765</v>
       </c>
     </row>
     <row r="24">
@@ -5308,10 +5308,10 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>31.5423421147367</v>
+        <v>31.5423421147</v>
       </c>
       <c r="D24" t="n">
-        <v>28.8950503421687</v>
+        <v>28.8950503422</v>
       </c>
     </row>
     <row r="25">
@@ -5322,10 +5322,10 @@
         <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>32.0488684864415</v>
+        <v>32.0488684864</v>
       </c>
       <c r="D25" t="n">
-        <v>29.313992687522</v>
+        <v>29.3139926875</v>
       </c>
     </row>
     <row r="26">
@@ -5336,10 +5336,10 @@
         <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>53.2001209034914</v>
+        <v>53.2001209035</v>
       </c>
       <c r="D26" t="n">
-        <v>49.6911729034714</v>
+        <v>49.6911729035</v>
       </c>
     </row>
     <row r="27">
@@ -5350,10 +5350,10 @@
         <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>44.4397484986533</v>
+        <v>44.4397484987</v>
       </c>
       <c r="D27" t="n">
-        <v>39.8483949519168</v>
+        <v>39.8483949519</v>
       </c>
     </row>
     <row r="28">
@@ -5364,10 +5364,10 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>33.5265103215934</v>
+        <v>33.5265103216</v>
       </c>
       <c r="D28" t="n">
-        <v>30.5910920371968</v>
+        <v>30.5910920372</v>
       </c>
     </row>
     <row r="29">
@@ -5378,10 +5378,10 @@
         <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>37.7001536589149</v>
+        <v>37.7001536589</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0900445997133</v>
+        <v>35.0900445997</v>
       </c>
     </row>
     <row r="30">
@@ -5392,10 +5392,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>42.1149329931078</v>
+        <v>42.1149329931</v>
       </c>
       <c r="D30" t="n">
-        <v>37.8249898195819</v>
+        <v>37.8249898196</v>
       </c>
     </row>
     <row r="31">
@@ -5406,10 +5406,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>52.9602658003056</v>
+        <v>52.9602658003</v>
       </c>
       <c r="D31" t="n">
-        <v>43.3579515483049</v>
+        <v>43.3579515483</v>
       </c>
     </row>
     <row r="32">
@@ -5420,10 +5420,10 @@
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>38.839055049503</v>
+        <v>38.8390550495</v>
       </c>
       <c r="D32" t="n">
-        <v>35.3720508239058</v>
+        <v>35.3720508239</v>
       </c>
     </row>
     <row r="33">
@@ -5434,10 +5434,10 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>51.0707125501063</v>
+        <v>51.0707125501</v>
       </c>
       <c r="D33" t="n">
-        <v>46.4147847032775</v>
+        <v>46.4147847033</v>
       </c>
     </row>
     <row r="34">
@@ -5448,10 +5448,10 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>57.8944718847833</v>
+        <v>57.8944718848</v>
       </c>
       <c r="D34" t="n">
-        <v>52.401964957255</v>
+        <v>52.4019649573</v>
       </c>
     </row>
     <row r="35">
@@ -5462,10 +5462,10 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>42.4084167610133</v>
+        <v>42.408416761</v>
       </c>
       <c r="D35" t="n">
-        <v>39.4894396243108</v>
+        <v>39.4894396243</v>
       </c>
     </row>
     <row r="36">
@@ -5476,10 +5476,10 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>66.690790821007</v>
+        <v>66.690790821</v>
       </c>
       <c r="D36" t="n">
-        <v>58.4424661004061</v>
+        <v>58.4424661004</v>
       </c>
     </row>
     <row r="37">
@@ -5490,10 +5490,10 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>50.170133482987</v>
+        <v>50.170133483</v>
       </c>
       <c r="D37" t="n">
-        <v>45.7109452344936</v>
+        <v>45.7109452345</v>
       </c>
     </row>
     <row r="38">
@@ -5504,10 +5504,10 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>47.1401353602826</v>
+        <v>47.1401353603</v>
       </c>
       <c r="D38" t="n">
-        <v>43.2355988830696</v>
+        <v>43.2355988831</v>
       </c>
     </row>
     <row r="39">
@@ -5518,10 +5518,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2318788418606</v>
+        <v>37.2318788419</v>
       </c>
       <c r="D39" t="n">
-        <v>34.1816707716539</v>
+        <v>34.1816707717</v>
       </c>
     </row>
     <row r="40">
@@ -5532,10 +5532,10 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>28.6562165363609</v>
+        <v>28.6562165364</v>
       </c>
       <c r="D40" t="n">
-        <v>26.1353532114946</v>
+        <v>26.1353532115</v>
       </c>
     </row>
     <row r="41">
@@ -5546,10 +5546,10 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>153.942627393057</v>
+        <v>153.9426273931</v>
       </c>
       <c r="D41" t="n">
-        <v>137.137548993884</v>
+        <v>137.1375489939</v>
       </c>
     </row>
     <row r="42">
@@ -5560,10 +5560,10 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>39.3227551956544</v>
+        <v>39.3227551957</v>
       </c>
       <c r="D42" t="n">
-        <v>35.9922001564316</v>
+        <v>35.9922001564</v>
       </c>
     </row>
     <row r="43">
@@ -5574,10 +5574,10 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>39.9658532867137</v>
+        <v>39.9658532867</v>
       </c>
       <c r="D43" t="n">
-        <v>36.9229126824974</v>
+        <v>36.9229126825</v>
       </c>
     </row>
     <row r="44">
@@ -5598,10 +5598,10 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>38.5309006054159</v>
+        <v>38.5309006054</v>
       </c>
       <c r="D45" t="n">
-        <v>35.3034750985765</v>
+        <v>35.3034750986</v>
       </c>
     </row>
     <row r="46">
@@ -5612,10 +5612,10 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>34.240478587536</v>
+        <v>34.2404785875</v>
       </c>
       <c r="D46" t="n">
-        <v>31.3015776781098</v>
+        <v>31.3015776781</v>
       </c>
     </row>
     <row r="47">
@@ -5626,10 +5626,10 @@
         <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>51.9865852087457</v>
+        <v>51.9865852087</v>
       </c>
       <c r="D47" t="n">
-        <v>50.0234232630674</v>
+        <v>50.0234232631</v>
       </c>
     </row>
     <row r="48">
@@ -5640,10 +5640,10 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>44.0868696497519</v>
+        <v>44.0868696498</v>
       </c>
       <c r="D48" t="n">
-        <v>39.8384648088957</v>
+        <v>39.8384648089</v>
       </c>
     </row>
     <row r="49">
@@ -5654,10 +5654,10 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>42.9861015870257</v>
+        <v>42.986101587</v>
       </c>
       <c r="D49" t="n">
-        <v>41.3955059723827</v>
+        <v>41.3955059724</v>
       </c>
     </row>
     <row r="50">
@@ -5668,10 +5668,10 @@
         <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>28.8191525073527</v>
+        <v>28.8191525074</v>
       </c>
       <c r="D50" t="n">
-        <v>26.3240053288697</v>
+        <v>26.3240053289</v>
       </c>
     </row>
     <row r="51">
@@ -5682,10 +5682,10 @@
         <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>42.1759486295984</v>
+        <v>42.1759486296</v>
       </c>
       <c r="D51" t="n">
-        <v>38.5198198188866</v>
+        <v>38.5198198189</v>
       </c>
     </row>
     <row r="52">
@@ -5696,10 +5696,10 @@
         <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>35.3583151809458</v>
+        <v>35.3583151809</v>
       </c>
       <c r="D52" t="n">
-        <v>32.297358814193</v>
+        <v>32.2973588142</v>
       </c>
     </row>
     <row r="53">
@@ -5710,10 +5710,10 @@
         <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>57.5171663288495</v>
+        <v>57.5171663288</v>
       </c>
       <c r="D53" t="n">
-        <v>52.794826933461</v>
+        <v>52.7948269335</v>
       </c>
     </row>
     <row r="54">
@@ -5724,10 +5724,10 @@
         <v>110</v>
       </c>
       <c r="C54" t="n">
-        <v>42.030076668941</v>
+        <v>42.0300766689</v>
       </c>
       <c r="D54" t="n">
-        <v>38.0060323606979</v>
+        <v>38.0060323607</v>
       </c>
     </row>
     <row r="55">
@@ -5738,10 +5738,10 @@
         <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>36.672518192486</v>
+        <v>36.6725181925</v>
       </c>
       <c r="D55" t="n">
-        <v>39.1361917858175</v>
+        <v>39.1361917858</v>
       </c>
     </row>
     <row r="56">
@@ -5752,10 +5752,10 @@
         <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>35.157788031298</v>
+        <v>35.1577880313</v>
       </c>
       <c r="D56" t="n">
-        <v>30.5115471627811</v>
+        <v>30.5115471628</v>
       </c>
     </row>
     <row r="57">
@@ -5766,10 +5766,10 @@
         <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>50.399062172198</v>
+        <v>50.3990621722</v>
       </c>
       <c r="D57" t="n">
-        <v>45.5620006336861</v>
+        <v>45.5620006337</v>
       </c>
     </row>
     <row r="58">
@@ -5780,10 +5780,10 @@
         <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>35.6107584955042</v>
+        <v>35.6107584955</v>
       </c>
       <c r="D58" t="n">
-        <v>32.8519865416306</v>
+        <v>32.8519865416</v>
       </c>
     </row>
     <row r="59">
@@ -5794,10 +5794,10 @@
         <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>33.9096310154205</v>
+        <v>33.9096310154</v>
       </c>
       <c r="D59" t="n">
-        <v>31.8666338377382</v>
+        <v>31.8666338377</v>
       </c>
     </row>
     <row r="60">
@@ -5808,10 +5808,10 @@
         <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>42.9912107640568</v>
+        <v>42.9912107641</v>
       </c>
       <c r="D60" t="n">
-        <v>38.2923441472808</v>
+        <v>38.2923441473</v>
       </c>
     </row>
     <row r="61">
@@ -5822,10 +5822,10 @@
         <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>52.798919197652</v>
+        <v>52.7989191977</v>
       </c>
       <c r="D61" t="n">
-        <v>53.7233078530791</v>
+        <v>53.7233078531</v>
       </c>
     </row>
     <row r="62">
@@ -5836,10 +5836,10 @@
         <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>31.7743580929866</v>
+        <v>31.774358093</v>
       </c>
       <c r="D62" t="n">
-        <v>27.9845106719889</v>
+        <v>27.984510672</v>
       </c>
     </row>
     <row r="63">
@@ -5850,10 +5850,10 @@
         <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>43.4346117468086</v>
+        <v>43.4346117468</v>
       </c>
       <c r="D63" t="n">
-        <v>34.4755372083028</v>
+        <v>34.4755372083</v>
       </c>
     </row>
     <row r="64">
@@ -5864,10 +5864,10 @@
         <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>51.422123453336</v>
+        <v>51.4221234533</v>
       </c>
       <c r="D64" t="n">
-        <v>47.1966998681586</v>
+        <v>47.1966998682</v>
       </c>
     </row>
     <row r="65">
@@ -5878,10 +5878,10 @@
         <v>132</v>
       </c>
       <c r="C65" t="n">
-        <v>33.3495880268901</v>
+        <v>33.3495880269</v>
       </c>
       <c r="D65" t="n">
-        <v>33.5400226965234</v>
+        <v>33.5400226965</v>
       </c>
     </row>
     <row r="66">
@@ -5892,10 +5892,10 @@
         <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>33.5952910249789</v>
+        <v>33.595291025</v>
       </c>
       <c r="D66" t="n">
-        <v>22.1759332702375</v>
+        <v>22.1759332702</v>
       </c>
     </row>
     <row r="67">
@@ -5906,10 +5906,10 @@
         <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>53.000101339674</v>
+        <v>53.0001013397</v>
       </c>
       <c r="D67" t="n">
-        <v>39.3053881759287</v>
+        <v>39.3053881759</v>
       </c>
     </row>
     <row r="68">
@@ -5920,10 +5920,10 @@
         <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>36.8794590049927</v>
+        <v>36.879459005</v>
       </c>
       <c r="D68" t="n">
-        <v>33.8830701417128</v>
+        <v>33.8830701417</v>
       </c>
     </row>
     <row r="69">
@@ -5944,10 +5944,10 @@
         <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>46.3403961164124</v>
+        <v>46.3403961164</v>
       </c>
       <c r="D70" t="n">
-        <v>42.3563162243115</v>
+        <v>42.3563162243</v>
       </c>
     </row>
     <row r="71">
@@ -5958,10 +5958,10 @@
         <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>38.1865768941026</v>
+        <v>38.1865768941</v>
       </c>
       <c r="D71" t="n">
-        <v>34.7378410673708</v>
+        <v>34.7378410674</v>
       </c>
     </row>
     <row r="72">
@@ -5972,10 +5972,10 @@
         <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>38.3736187101212</v>
+        <v>38.3736187101</v>
       </c>
       <c r="D72" t="n">
-        <v>35.0990271090632</v>
+        <v>35.0990271091</v>
       </c>
     </row>
     <row r="73">
@@ -5986,10 +5986,10 @@
         <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>33.7185272710672</v>
+        <v>33.7185272711</v>
       </c>
       <c r="D73" t="n">
-        <v>30.6452351697514</v>
+        <v>30.6452351698</v>
       </c>
     </row>
     <row r="74">
@@ -6000,10 +6000,10 @@
         <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>30.1755158539884</v>
+        <v>30.175515854</v>
       </c>
       <c r="D74" t="n">
-        <v>26.9865540508745</v>
+        <v>26.9865540509</v>
       </c>
     </row>
     <row r="75">
@@ -6014,10 +6014,10 @@
         <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>55.5047631169384</v>
+        <v>55.5047631169</v>
       </c>
       <c r="D75" t="n">
-        <v>50.9644728489301</v>
+        <v>50.9644728489</v>
       </c>
     </row>
     <row r="76">
@@ -6028,10 +6028,10 @@
         <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>53.6034598563952</v>
+        <v>53.6034598564</v>
       </c>
       <c r="D76" t="n">
-        <v>47.6012439631285</v>
+        <v>47.6012439631</v>
       </c>
     </row>
     <row r="77">
@@ -6042,10 +6042,10 @@
         <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>30.893764379057</v>
+        <v>30.8937643791</v>
       </c>
       <c r="D77" t="n">
-        <v>28.2587200376121</v>
+        <v>28.2587200376</v>
       </c>
     </row>
     <row r="78">
@@ -6056,10 +6056,10 @@
         <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>39.5089108872573</v>
+        <v>39.5089108873</v>
       </c>
       <c r="D78" t="n">
-        <v>35.4770512252351</v>
+        <v>35.4770512252</v>
       </c>
     </row>
     <row r="79">
@@ -6070,10 +6070,10 @@
         <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>64.1448167486044</v>
+        <v>64.1448167486</v>
       </c>
       <c r="D79" t="n">
-        <v>57.7290584357729</v>
+        <v>57.7290584358</v>
       </c>
     </row>
     <row r="80">
@@ -6084,10 +6084,10 @@
         <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>50.7087240891427</v>
+        <v>50.7087240891</v>
       </c>
       <c r="D80" t="n">
-        <v>45.354567398003</v>
+        <v>45.354567398</v>
       </c>
     </row>
     <row r="81">
@@ -6118,10 +6118,10 @@
         <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>47.2455985634654</v>
+        <v>47.2455985635</v>
       </c>
       <c r="D83" t="n">
-        <v>43.5944543473281</v>
+        <v>43.5944543473</v>
       </c>
     </row>
     <row r="84">
@@ -6132,10 +6132,10 @@
         <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>49.7137533333601</v>
+        <v>49.7137533334</v>
       </c>
       <c r="D84" t="n">
-        <v>45.1264783766959</v>
+        <v>45.1264783767</v>
       </c>
     </row>
     <row r="85">
@@ -6156,7 +6156,7 @@
         <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>50.5149695399488</v>
+        <v>50.5149695399</v>
       </c>
       <c r="D86"/>
     </row>
@@ -6168,10 +6168,10 @@
         <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>80.0730628856884</v>
+        <v>80.0730628857</v>
       </c>
       <c r="D87" t="n">
-        <v>69.5159998047343</v>
+        <v>69.5159998047</v>
       </c>
     </row>
     <row r="88">
@@ -6182,10 +6182,10 @@
         <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>36.0794271653416</v>
+        <v>36.0794271653</v>
       </c>
       <c r="D88" t="n">
-        <v>32.6731289608009</v>
+        <v>32.6731289608</v>
       </c>
     </row>
     <row r="89">
@@ -6196,10 +6196,10 @@
         <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>48.3174512627754</v>
+        <v>48.3174512628</v>
       </c>
       <c r="D89" t="n">
-        <v>44.5080855358021</v>
+        <v>44.5080855358</v>
       </c>
     </row>
     <row r="90">
@@ -6210,10 +6210,10 @@
         <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>35.1680709237648</v>
+        <v>35.1680709238</v>
       </c>
       <c r="D90" t="n">
-        <v>31.9076881114636</v>
+        <v>31.9076881115</v>
       </c>
     </row>
     <row r="91">
@@ -6224,10 +6224,10 @@
         <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>34.9881255827863</v>
+        <v>34.9881255828</v>
       </c>
       <c r="D91" t="n">
-        <v>32.1761959370498</v>
+        <v>32.176195937</v>
       </c>
     </row>
     <row r="92">
@@ -6238,10 +6238,10 @@
         <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>45.4487614276663</v>
+        <v>45.4487614277</v>
       </c>
       <c r="D92" t="n">
-        <v>41.720468876534</v>
+        <v>41.7204688765</v>
       </c>
     </row>
     <row r="93">
@@ -6252,10 +6252,10 @@
         <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>32.4061903447745</v>
+        <v>32.4061903448</v>
       </c>
       <c r="D93" t="n">
-        <v>29.6693382241782</v>
+        <v>29.6693382242</v>
       </c>
     </row>
     <row r="94">
@@ -6266,10 +6266,10 @@
         <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>33.7346240301715</v>
+        <v>33.7346240302</v>
       </c>
       <c r="D94" t="n">
-        <v>30.5331931990911</v>
+        <v>30.5331931991</v>
       </c>
     </row>
     <row r="95">
@@ -6280,10 +6280,10 @@
         <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>77.4218403932037</v>
+        <v>77.4218403932</v>
       </c>
       <c r="D95" t="n">
-        <v>72.937583254879</v>
+        <v>72.9375832549</v>
       </c>
     </row>
     <row r="96">
@@ -6294,10 +6294,10 @@
         <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>50.9744222261345</v>
+        <v>50.9744222261</v>
       </c>
       <c r="D96" t="n">
-        <v>46.5751263810007</v>
+        <v>46.575126381</v>
       </c>
     </row>
     <row r="97">
@@ -6308,10 +6308,10 @@
         <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>58.6924892865925</v>
+        <v>58.6924892866</v>
       </c>
       <c r="D97" t="n">
-        <v>37.3013863324598</v>
+        <v>37.3013863325</v>
       </c>
     </row>
     <row r="98">
@@ -6322,10 +6322,10 @@
         <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>40.4965852851994</v>
+        <v>40.4965852852</v>
       </c>
       <c r="D98" t="n">
-        <v>36.9569237373754</v>
+        <v>36.9569237374</v>
       </c>
     </row>
     <row r="99">
@@ -6336,10 +6336,10 @@
         <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>34.6598403597595</v>
+        <v>34.6598403598</v>
       </c>
       <c r="D99" t="n">
-        <v>28.7985205863106</v>
+        <v>28.7985205863</v>
       </c>
     </row>
     <row r="100">
@@ -6350,10 +6350,10 @@
         <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>33.7585027077009</v>
+        <v>33.7585027077</v>
       </c>
       <c r="D100" t="n">
-        <v>30.3083227629262</v>
+        <v>30.3083227629</v>
       </c>
     </row>
     <row r="101">
@@ -6364,10 +6364,10 @@
         <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>31.2925012381706</v>
+        <v>31.2925012382</v>
       </c>
       <c r="D101" t="n">
-        <v>28.9683682109186</v>
+        <v>28.9683682109</v>
       </c>
     </row>
     <row r="102">
@@ -6378,10 +6378,10 @@
         <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>48.3574821616386</v>
+        <v>48.3574821616</v>
       </c>
       <c r="D102" t="n">
-        <v>44.1199613223337</v>
+        <v>44.1199613223</v>
       </c>
     </row>
     <row r="103">
@@ -6392,10 +6392,10 @@
         <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>53.00959294932</v>
+        <v>53.0095929493</v>
       </c>
       <c r="D103" t="n">
-        <v>48.5600923451085</v>
+        <v>48.5600923451</v>
       </c>
     </row>
     <row r="104">
@@ -6406,10 +6406,10 @@
         <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>61.2576228985091</v>
+        <v>61.2576228985</v>
       </c>
       <c r="D104" t="n">
-        <v>55.8267235913307</v>
+        <v>55.8267235913</v>
       </c>
     </row>
     <row r="105">
@@ -6420,10 +6420,10 @@
         <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>30.4253469448412</v>
+        <v>30.4253469448</v>
       </c>
       <c r="D105" t="n">
-        <v>27.5929114141345</v>
+        <v>27.5929114141</v>
       </c>
     </row>
     <row r="106">
@@ -6434,10 +6434,10 @@
         <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>55.9339982598788</v>
+        <v>55.9339982599</v>
       </c>
       <c r="D106" t="n">
-        <v>51.1601623929162</v>
+        <v>51.1601623929</v>
       </c>
     </row>
     <row r="107">
@@ -6448,10 +6448,10 @@
         <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>39.6179519068305</v>
+        <v>39.6179519068</v>
       </c>
       <c r="D107" t="n">
-        <v>36.1057249071606</v>
+        <v>36.1057249072</v>
       </c>
     </row>
     <row r="108">
@@ -6462,10 +6462,10 @@
         <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>38.3233222137829</v>
+        <v>38.3233222138</v>
       </c>
       <c r="D108" t="n">
-        <v>34.2208979219944</v>
+        <v>34.220897922</v>
       </c>
     </row>
     <row r="109">
@@ -6476,10 +6476,10 @@
         <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>49.0275158865117</v>
+        <v>49.0275158865</v>
       </c>
       <c r="D109" t="n">
-        <v>45.7926728788542</v>
+        <v>45.7926728789</v>
       </c>
     </row>
     <row r="110">
@@ -6490,10 +6490,10 @@
         <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>26.4038677433284</v>
+        <v>26.4038677433</v>
       </c>
       <c r="D110" t="n">
-        <v>24.1957836432766</v>
+        <v>24.1957836433</v>
       </c>
     </row>
     <row r="111">
@@ -6504,10 +6504,10 @@
         <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>60.8680706851137</v>
+        <v>60.8680706851</v>
       </c>
       <c r="D111" t="n">
-        <v>61.871491168179</v>
+        <v>61.8714911682</v>
       </c>
     </row>
     <row r="112">
@@ -6518,10 +6518,10 @@
         <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>43.3292664452095</v>
+        <v>43.3292664452</v>
       </c>
       <c r="D112" t="n">
-        <v>39.2838282660096</v>
+        <v>39.283828266</v>
       </c>
     </row>
     <row r="113">
@@ -6532,10 +6532,10 @@
         <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>36.1553945438004</v>
+        <v>36.1553945438</v>
       </c>
       <c r="D113" t="n">
-        <v>32.638141987101</v>
+        <v>32.6381419871</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,337 +34,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +1206,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
@@ -885,7 +1223,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
@@ -898,9 +1238,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
@@ -909,9 +1251,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
@@ -920,9 +1264,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
@@ -935,9 +1281,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
@@ -950,9 +1298,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
@@ -965,9 +1315,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
@@ -980,9 +1332,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
@@ -995,9 +1349,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
@@ -1010,9 +1366,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
@@ -1025,9 +1383,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
@@ -1040,9 +1400,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
@@ -1051,9 +1413,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
@@ -1062,9 +1426,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
@@ -1077,9 +1443,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
@@ -1088,9 +1456,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
@@ -1103,9 +1473,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
@@ -1118,9 +1490,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
@@ -1133,9 +1507,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
@@ -1148,9 +1524,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
@@ -1163,9 +1541,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
@@ -1178,9 +1558,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
@@ -1193,9 +1575,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
@@ -1208,9 +1592,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
@@ -1223,9 +1609,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
@@ -1238,9 +1626,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
@@ -1253,9 +1643,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
@@ -1268,9 +1660,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
@@ -1279,9 +1673,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
@@ -1290,9 +1686,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
@@ -1305,9 +1703,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
@@ -1320,9 +1720,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
@@ -1335,9 +1737,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
@@ -1350,9 +1754,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
@@ -1365,9 +1771,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
@@ -1380,9 +1788,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
@@ -1395,9 +1805,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
@@ -1410,9 +1822,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
@@ -1425,9 +1839,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
@@ -1440,9 +1856,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
@@ -1455,9 +1873,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
@@ -1470,9 +1890,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
@@ -1485,9 +1907,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
@@ -1500,9 +1924,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
@@ -1515,9 +1941,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
@@ -1530,9 +1958,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
@@ -1545,9 +1975,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
@@ -1560,9 +1992,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
@@ -1575,9 +2009,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
@@ -1586,9 +2022,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
@@ -1601,9 +2039,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
@@ -1616,9 +2056,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
@@ -1631,9 +2073,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
@@ -1646,9 +2090,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
@@ -1661,9 +2107,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
@@ -1676,9 +2124,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
@@ -1691,9 +2141,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
@@ -1706,9 +2158,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
@@ -1721,9 +2175,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
@@ -1736,9 +2192,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
@@ -1751,9 +2209,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
@@ -1766,9 +2226,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
@@ -1781,9 +2243,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
@@ -1796,9 +2260,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
@@ -1811,9 +2277,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
@@ -1826,9 +2294,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
@@ -1841,9 +2311,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
@@ -1856,9 +2328,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
@@ -1871,9 +2345,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
@@ -1886,9 +2362,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
@@ -1901,9 +2379,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
@@ -1916,9 +2396,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
@@ -1931,9 +2413,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
@@ -1946,9 +2430,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
@@ -1961,9 +2447,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
@@ -1976,9 +2464,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
@@ -1991,9 +2481,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
@@ -2006,9 +2498,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
@@ -2021,9 +2515,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
@@ -2036,9 +2532,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
@@ -2051,9 +2549,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
@@ -2066,9 +2566,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
@@ -2081,9 +2583,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
@@ -2096,9 +2600,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
@@ -2111,9 +2617,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
@@ -2126,9 +2634,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
@@ -2141,9 +2651,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
@@ -2156,9 +2668,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
@@ -2171,9 +2685,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
@@ -2186,9 +2702,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
@@ -2201,9 +2719,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
@@ -2216,9 +2736,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
@@ -2231,9 +2753,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
@@ -2246,9 +2770,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
@@ -2261,9 +2787,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
@@ -2276,9 +2804,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
@@ -2291,9 +2821,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
@@ -2306,9 +2838,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
@@ -2321,9 +2855,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
@@ -2336,9 +2872,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
@@ -2351,9 +2889,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
@@ -2366,9 +2906,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
@@ -2381,9 +2923,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
@@ -2396,9 +2940,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
@@ -2407,9 +2953,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
@@ -2418,9 +2966,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
@@ -2433,9 +2983,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
@@ -2448,9 +3000,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
@@ -2463,9 +3017,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
@@ -2478,9 +3034,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
@@ -2493,9 +3051,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
@@ -2508,9 +3068,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
@@ -2523,9 +3085,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
@@ -2538,9 +3102,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
@@ -2553,9 +3119,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
@@ -2568,9 +3136,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
@@ -2583,9 +3153,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
@@ -2598,9 +3170,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
@@ -2613,9 +3187,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
@@ -2628,9 +3204,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
@@ -2643,9 +3221,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
@@ -2658,9 +3238,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
@@ -2673,9 +3255,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
@@ -2688,9 +3272,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
@@ -2703,9 +3289,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
@@ -2718,9 +3306,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
@@ -2729,9 +3319,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
@@ -2740,9 +3332,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
@@ -2755,9 +3349,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
@@ -2770,9 +3366,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
@@ -2785,9 +3383,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
@@ -2800,9 +3400,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
@@ -2815,9 +3417,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
@@ -2830,9 +3434,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
@@ -2845,9 +3451,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
@@ -2860,9 +3468,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
@@ -2875,9 +3485,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
@@ -2890,9 +3502,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
@@ -2905,9 +3519,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
@@ -2920,9 +3536,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
@@ -2935,9 +3553,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
@@ -2950,9 +3570,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
@@ -2965,9 +3587,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
@@ -2980,9 +3604,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
@@ -2995,9 +3621,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
@@ -3010,9 +3638,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
@@ -3025,9 +3655,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
@@ -3040,9 +3672,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
@@ -3055,9 +3689,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
@@ -3070,9 +3706,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
@@ -3085,9 +3723,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
@@ -3100,9 +3740,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
@@ -3115,9 +3757,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
@@ -3130,9 +3774,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
@@ -3145,9 +3791,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
@@ -3160,9 +3808,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
@@ -3175,9 +3825,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
@@ -3190,9 +3842,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
@@ -3205,9 +3859,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
@@ -3220,9 +3876,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
@@ -3235,9 +3893,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
@@ -3250,9 +3910,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
@@ -3265,9 +3927,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
@@ -3280,9 +3944,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
@@ -3295,9 +3961,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
@@ -3310,9 +3978,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
@@ -3325,9 +3995,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
@@ -3340,9 +4012,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
@@ -3355,9 +4029,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
@@ -3370,9 +4046,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
@@ -3385,9 +4063,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
@@ -3400,9 +4080,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
@@ -3415,9 +4097,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
@@ -3430,9 +4114,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
@@ -3445,9 +4131,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
@@ -3460,9 +4148,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
@@ -3475,9 +4165,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
@@ -3490,9 +4182,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
@@ -3505,9 +4199,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
@@ -3520,9 +4216,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
@@ -3535,9 +4233,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
@@ -3550,9 +4250,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
@@ -3565,9 +4267,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
@@ -3580,9 +4284,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
@@ -3595,9 +4301,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
@@ -3610,9 +4318,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
@@ -3625,9 +4335,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
@@ -3640,9 +4352,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
@@ -3655,9 +4369,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
@@ -3670,9 +4386,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
@@ -3685,9 +4403,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
@@ -3700,9 +4420,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
@@ -3715,9 +4437,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
@@ -3730,9 +4454,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
@@ -3745,9 +4471,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
@@ -3760,9 +4488,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
@@ -3775,9 +4505,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
@@ -3790,9 +4522,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
@@ -3805,9 +4539,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
@@ -3820,9 +4556,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
@@ -3835,9 +4573,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
@@ -3850,9 +4590,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
@@ -3865,9 +4607,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
@@ -3880,9 +4624,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
@@ -3895,9 +4641,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
@@ -3910,9 +4658,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
@@ -3925,9 +4675,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
@@ -3940,9 +4692,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
@@ -3955,9 +4709,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
@@ -3970,9 +4726,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
@@ -3985,9 +4743,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
@@ -4000,9 +4760,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
@@ -4015,9 +4777,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
@@ -4030,9 +4794,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
@@ -4045,9 +4811,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
@@ -4060,9 +4828,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
@@ -4075,9 +4845,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
@@ -4090,9 +4862,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
@@ -4105,9 +4879,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
@@ -4120,9 +4896,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
@@ -4135,9 +4913,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
@@ -4150,9 +4930,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
@@ -4165,9 +4947,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
@@ -4197,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -4216,14 +5000,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>57.5171663288</v>
@@ -4234,7 +5018,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>46.3403961164</v>
@@ -4245,7 +5029,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>55.5047631169</v>
@@ -4256,7 +5040,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>49.7137533334</v>
@@ -4267,14 +5051,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>50.5149695399</v>
@@ -4283,7 +5067,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>48.3174512628</v>
@@ -4294,7 +5078,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>48.3574821616</v>
@@ -4305,7 +5089,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>49.0275158865</v>
@@ -4316,7 +5100,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>42.1759486296</v>
@@ -4327,7 +5111,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
         <v>60.8680706851</v>
@@ -4338,7 +5122,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>38.3736187101</v>
@@ -4349,14 +5133,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>36.0794271653</v>
@@ -4367,7 +5151,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>48.7454332136</v>
@@ -4378,7 +5162,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>26.9976911971</v>
@@ -4389,7 +5173,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>53.2001209035</v>
@@ -4400,7 +5184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>44.4397484987</v>
@@ -4411,7 +5195,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>42.1149329931</v>
@@ -4422,7 +5206,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
         <v>39.9658532867</v>
@@ -4433,7 +5217,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n">
         <v>51.4221234533</v>
@@ -4444,7 +5228,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
         <v>38.1865768941</v>
@@ -4455,7 +5239,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
         <v>28.4454870978</v>
@@ -4464,7 +5248,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
         <v>31.5423421147</v>
@@ -4475,7 +5259,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B28" t="n">
         <v>57.8944718848</v>
@@ -4486,7 +5270,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
         <v>66.690790821</v>
@@ -4497,7 +5281,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>38.5309006054</v>
@@ -4508,7 +5292,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>44.0868696498</v>
@@ -4519,7 +5303,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>28.8191525074</v>
@@ -4530,7 +5314,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
         <v>31.774358093</v>
@@ -4541,7 +5325,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>39.5089108873</v>
@@ -4552,7 +5336,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B35" t="n">
         <v>31.2925012382</v>
@@ -4563,7 +5347,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B36" t="n">
         <v>38.3233222138</v>
@@ -4574,7 +5358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>26.4038677433</v>
@@ -4585,7 +5369,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
         <v>28.6562165364</v>
@@ -4596,7 +5380,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B39" t="n">
         <v>30.8937643791</v>
@@ -4607,7 +5391,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B40" t="n">
         <v>39.6179519068</v>
@@ -4618,7 +5402,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" t="n">
         <v>26.8204782312</v>
@@ -4629,7 +5413,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>29.2048916866</v>
@@ -4640,7 +5424,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
         <v>40.7310081646</v>
@@ -4651,7 +5435,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B44" t="n">
         <v>41.9055783911</v>
@@ -4662,7 +5446,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B45" t="n">
         <v>53.9879213112</v>
@@ -4673,7 +5457,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B46" t="n">
         <v>32.0488684864</v>
@@ -4684,7 +5468,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
         <v>39.3227551957</v>
@@ -4695,7 +5479,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
         <v>33.7185272711</v>
@@ -4706,7 +5490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B49" t="n">
         <v>34.9881255828</v>
@@ -4717,7 +5501,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B50" t="n">
         <v>32.2922377545</v>
@@ -4728,7 +5512,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B51" t="n">
         <v>33.5265103216</v>
@@ -4739,7 +5523,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B52" t="n">
         <v>42.0300766689</v>
@@ -4750,7 +5534,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B53" t="n">
         <v>43.4346117468</v>
@@ -4761,14 +5545,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B55" t="n">
         <v>35.1680709238</v>
@@ -4779,7 +5563,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B56" t="n">
         <v>33.7346240302</v>
@@ -4790,7 +5574,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B57" t="n">
         <v>30.4253469448</v>
@@ -4801,7 +5585,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B58" t="n">
         <v>51.1402127547</v>
@@ -4812,7 +5596,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
         <v>32.3500539063</v>
@@ -4823,7 +5607,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B60" t="n">
         <v>31.2956643295</v>
@@ -4834,7 +5618,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B61" t="n">
         <v>52.9602658003</v>
@@ -4845,7 +5629,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B62" t="n">
         <v>35.6107584955</v>
@@ -4856,7 +5640,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B63" t="n">
         <v>52.7989191977</v>
@@ -4867,7 +5651,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
         <v>36.879459005</v>
@@ -4878,14 +5662,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B66" t="n">
         <v>47.2455985635</v>
@@ -4896,7 +5680,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B67" t="n">
         <v>32.4061903448</v>
@@ -4907,7 +5691,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B68" t="n">
         <v>80.0730628857</v>
@@ -4918,7 +5702,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B69" t="n">
         <v>33.7585027077</v>
@@ -4929,7 +5713,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B70" t="n">
         <v>43.3292664452</v>
@@ -4940,7 +5724,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
         <v>62.3996992061</v>
@@ -4951,7 +5735,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B72" t="n">
         <v>38.264264459</v>
@@ -4962,7 +5746,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B73" t="n">
         <v>48.6136357397</v>
@@ -4973,7 +5757,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B74" t="n">
         <v>37.7001536589</v>
@@ -4984,7 +5768,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B75" t="n">
         <v>50.170133483</v>
@@ -4995,7 +5779,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B76" t="n">
         <v>33.9096310154</v>
@@ -5006,7 +5790,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B77" t="n">
         <v>30.175515854</v>
@@ -5017,7 +5801,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B78" t="n">
         <v>34.6598403598</v>
@@ -5028,7 +5812,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B79" t="n">
         <v>33.7706426979</v>
@@ -5039,7 +5823,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B80" t="n">
         <v>30.4958429862</v>
@@ -5050,7 +5834,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>77.1044155084</v>
@@ -5061,7 +5845,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B82" t="n">
         <v>42.9912107641</v>
@@ -5072,7 +5856,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B83" t="n">
         <v>53.0001013397</v>
@@ -5083,7 +5867,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B84" t="n">
         <v>45.4487614277</v>
@@ -5094,7 +5878,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>58.6924892866</v>
@@ -5105,7 +5889,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B86" t="n">
         <v>40.4965852852</v>
@@ -5116,7 +5900,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B87" t="n">
         <v>36.1553945438</v>
@@ -5127,7 +5911,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B88" t="n">
         <v>66.3730882999</v>
@@ -5138,7 +5922,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B89" t="n">
         <v>62.4865022959</v>
@@ -5149,7 +5933,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B90" t="n">
         <v>38.8390550495</v>
@@ -5160,7 +5944,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B91" t="n">
         <v>47.1401353603</v>
@@ -5171,7 +5955,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B92" t="n">
         <v>37.2318788419</v>
@@ -5182,7 +5966,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>42.986101587</v>
@@ -5193,7 +5977,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>35.3583151809</v>
@@ -5204,7 +5988,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>50.3990621722</v>
@@ -5215,7 +5999,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>53.6034598564</v>
@@ -5226,7 +6010,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>64.1448167486</v>
@@ -5237,7 +6021,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>50.9744222261</v>
@@ -5248,7 +6032,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>61.2576228985</v>
@@ -5259,7 +6043,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B100" t="n">
         <v>34.2404785875</v>
@@ -5270,7 +6054,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>51.9865852087</v>
@@ -5281,7 +6065,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B102" t="n">
         <v>33.595291025</v>
@@ -5292,7 +6076,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B103" t="n">
         <v>43.4775774136</v>
@@ -5303,7 +6087,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B104" t="n">
         <v>51.0707125501</v>
@@ -5314,7 +6098,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B105" t="n">
         <v>42.408416761</v>
@@ -5325,7 +6109,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B106" t="n">
         <v>36.6725181925</v>
@@ -5336,7 +6120,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B107" t="n">
         <v>47.8774706085</v>
@@ -5347,7 +6131,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B108" t="n">
         <v>35.1577880313</v>
@@ -5358,7 +6142,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B109" t="n">
         <v>33.3495880269</v>
@@ -5369,7 +6153,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B110" t="n">
         <v>50.7087240891</v>
@@ -5380,7 +6164,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B111" t="n">
         <v>77.4218403932</v>
@@ -5391,7 +6175,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B112" t="n">
         <v>53.0095929493</v>
@@ -5402,7 +6186,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>55.9339982599</v>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -31,36 +31,498 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -79,28 +541,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -109,598 +691,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -1213,10 +1213,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>153.9426273931</v>
+        <v>62.3996992061</v>
       </c>
       <c r="E2" t="n">
-        <v>520708.186</v>
+        <v>211065.8674</v>
       </c>
     </row>
     <row r="3">
@@ -1230,10 +1230,10 @@
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>137.1375489939</v>
+        <v>53.5489331441</v>
       </c>
       <c r="E3" t="n">
-        <v>507141.9909</v>
+        <v>198026.8188</v>
       </c>
     </row>
     <row r="4">
@@ -1246,8 +1246,12 @@
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>51.1402127547</v>
+      </c>
+      <c r="E4" t="n">
+        <v>172980.8557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1259,8 +1263,12 @@
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>47.1339874166</v>
+      </c>
+      <c r="E5" t="n">
+        <v>174304.0064</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1273,10 +1281,10 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>57.5171663288</v>
+        <v>33.7706426979</v>
       </c>
       <c r="E6" t="n">
-        <v>194550.7872</v>
+        <v>114228.5954</v>
       </c>
     </row>
     <row r="7">
@@ -1290,10 +1298,10 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7948269335</v>
+        <v>31.7293108374</v>
       </c>
       <c r="E7" t="n">
-        <v>195238.0937</v>
+        <v>117336.6885</v>
       </c>
     </row>
     <row r="8">
@@ -1307,10 +1315,10 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>46.3403961164</v>
+        <v>30.4958429862</v>
       </c>
       <c r="E8" t="n">
-        <v>156745.5617</v>
+        <v>103151.6439</v>
       </c>
     </row>
     <row r="9">
@@ -1324,10 +1332,10 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3563162243</v>
+        <v>27.7181288297</v>
       </c>
       <c r="E9" t="n">
-        <v>156635.9228</v>
+        <v>102503.1229</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1349,10 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5047631169</v>
+        <v>38.264264459</v>
       </c>
       <c r="E10" t="n">
-        <v>187743.8693</v>
+        <v>129428.1907</v>
       </c>
     </row>
     <row r="11">
@@ -1358,10 +1366,10 @@
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>50.9644728489</v>
+        <v>34.9990045427</v>
       </c>
       <c r="E11" t="n">
-        <v>188469.3464</v>
+        <v>129428.1907</v>
       </c>
     </row>
     <row r="12">
@@ -1375,10 +1383,10 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>49.7137533334</v>
+        <v>77.1044155084</v>
       </c>
       <c r="E12" t="n">
-        <v>168155.8822</v>
+        <v>260804.3075</v>
       </c>
     </row>
     <row r="13">
@@ -1392,10 +1400,10 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1264783767</v>
+        <v>73.0399507305</v>
       </c>
       <c r="E13" t="n">
-        <v>166880.1306</v>
+        <v>270105.6443</v>
       </c>
     </row>
     <row r="14">
@@ -1408,8 +1416,12 @@
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>26.8204782312</v>
+      </c>
+      <c r="E14" t="n">
+        <v>90719.7883</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1421,8 +1433,12 @@
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>24.6580251407</v>
+      </c>
+      <c r="E15" t="n">
+        <v>91186.69579</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1435,10 +1451,10 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5149695399</v>
+        <v>48.6136357397</v>
       </c>
       <c r="E16" t="n">
-        <v>170865.9817</v>
+        <v>164434.7541</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1467,12 @@
       <c r="C17" t="n">
         <v>2016</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" t="n">
+        <v>34.7069811027</v>
+      </c>
+      <c r="E17" t="n">
+        <v>128348.2724</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1465,10 +1485,10 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>48.3174512628</v>
+        <v>32.3500539063</v>
       </c>
       <c r="E18" t="n">
-        <v>163432.9154</v>
+        <v>109423.4792</v>
       </c>
     </row>
     <row r="19">
@@ -1482,10 +1502,10 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>44.5080855358</v>
+        <v>29.0378617705</v>
       </c>
       <c r="E19" t="n">
-        <v>164593.2808</v>
+        <v>107383.5659</v>
       </c>
     </row>
     <row r="20">
@@ -1499,10 +1519,10 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>48.3574821616</v>
+        <v>31.2956643295</v>
       </c>
       <c r="E20" t="n">
-        <v>163568.3192</v>
+        <v>105857.0253</v>
       </c>
     </row>
     <row r="21">
@@ -1516,10 +1536,10 @@
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>44.1199613223</v>
+        <v>28.5602663794</v>
       </c>
       <c r="E21" t="n">
-        <v>163157.9767</v>
+        <v>105617.3926</v>
       </c>
     </row>
     <row r="22">
@@ -1533,10 +1553,10 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>49.0275158865</v>
+        <v>29.2048916866</v>
       </c>
       <c r="E22" t="n">
-        <v>165834.6963</v>
+        <v>98785.0242</v>
       </c>
     </row>
     <row r="23">
@@ -1550,10 +1570,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>45.7926728789</v>
+        <v>26.7127129411</v>
       </c>
       <c r="E23" t="n">
-        <v>169343.7535</v>
+        <v>98785.04117</v>
       </c>
     </row>
     <row r="24">
@@ -1567,10 +1587,10 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>42.1759486296</v>
+        <v>40.7310081646</v>
       </c>
       <c r="E24" t="n">
-        <v>142659.3925</v>
+        <v>137771.9072</v>
       </c>
     </row>
     <row r="25">
@@ -1584,10 +1604,10 @@
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>38.5198198189</v>
+        <v>34.4084142743</v>
       </c>
       <c r="E25" t="n">
-        <v>142448.3539</v>
+        <v>127244.1563</v>
       </c>
     </row>
     <row r="26">
@@ -1601,10 +1621,10 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>60.8680706851</v>
+        <v>28.4454870978</v>
       </c>
       <c r="E26" t="n">
-        <v>205885.1613</v>
+        <v>96216.35175</v>
       </c>
     </row>
     <row r="27">
@@ -1617,12 +1637,8 @@
       <c r="C27" t="n">
         <v>2016</v>
       </c>
-      <c r="D27" t="n">
-        <v>61.8714911682</v>
-      </c>
-      <c r="E27" t="n">
-        <v>228804.0835</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1635,10 +1651,10 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>38.3736187101</v>
+        <v>47.8774706085</v>
       </c>
       <c r="E28" t="n">
-        <v>129798.0795</v>
+        <v>161944.6887</v>
       </c>
     </row>
     <row r="29">
@@ -1652,10 +1668,10 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0990271091</v>
+        <v>50.773707436</v>
       </c>
       <c r="E29" t="n">
-        <v>129798.0795</v>
+        <v>187763.8857</v>
       </c>
     </row>
     <row r="30">
@@ -1668,8 +1684,12 @@
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>48.7454332136</v>
+      </c>
+      <c r="E30" t="n">
+        <v>164880.5567</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1681,8 +1701,12 @@
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>44.5975603099</v>
+      </c>
+      <c r="E31" t="n">
+        <v>164924.1633</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1695,10 +1719,10 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>36.0794271653</v>
+        <v>41.9055783911</v>
       </c>
       <c r="E32" t="n">
-        <v>122038.0176</v>
+        <v>141744.87</v>
       </c>
     </row>
     <row r="33">
@@ -1712,10 +1736,10 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>32.6731289608</v>
+        <v>38.3268260445</v>
       </c>
       <c r="E33" t="n">
-        <v>120826.9784</v>
+        <v>141734.6526</v>
       </c>
     </row>
     <row r="34">
@@ -1729,10 +1753,10 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>48.7454332136</v>
+        <v>26.9976911971</v>
       </c>
       <c r="E34" t="n">
-        <v>164880.5567</v>
+        <v>91319.20799</v>
       </c>
     </row>
     <row r="35">
@@ -1746,10 +1770,10 @@
         <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>44.5975603099</v>
+        <v>30.6554396733</v>
       </c>
       <c r="E35" t="n">
-        <v>164924.1633</v>
+        <v>113365.4555</v>
       </c>
     </row>
     <row r="36">
@@ -1763,10 +1787,10 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>26.9976911971</v>
+        <v>53.9879213112</v>
       </c>
       <c r="E36" t="n">
-        <v>91319.20799</v>
+        <v>182613.179</v>
       </c>
     </row>
     <row r="37">
@@ -1780,10 +1804,10 @@
         <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>30.6554396733</v>
+        <v>49.1984659949</v>
       </c>
       <c r="E37" t="n">
-        <v>113365.4555</v>
+        <v>181938.5586</v>
       </c>
     </row>
     <row r="38">
@@ -1797,10 +1821,10 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>53.2001209035</v>
+        <v>32.2922377545</v>
       </c>
       <c r="E38" t="n">
-        <v>179948.4582</v>
+        <v>109227.9171</v>
       </c>
     </row>
     <row r="39">
@@ -1814,10 +1838,10 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>49.6911729035</v>
+        <v>30.0369145737</v>
       </c>
       <c r="E39" t="n">
-        <v>183760.6151</v>
+        <v>111078.1166</v>
       </c>
     </row>
     <row r="40">
@@ -1831,10 +1855,10 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>44.4397484987</v>
+        <v>43.4775774136</v>
       </c>
       <c r="E40" t="n">
-        <v>150316.6551</v>
+        <v>147062.1286</v>
       </c>
     </row>
     <row r="41">
@@ -1848,10 +1872,10 @@
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>39.8483949519</v>
+        <v>35.1471054564</v>
       </c>
       <c r="E41" t="n">
-        <v>147361.4958</v>
+        <v>129975.8758</v>
       </c>
     </row>
     <row r="42">
@@ -1865,10 +1889,10 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>42.1149329931</v>
+        <v>66.3730882999</v>
       </c>
       <c r="E42" t="n">
-        <v>142453.0082</v>
+        <v>224505.785</v>
       </c>
     </row>
     <row r="43">
@@ -1882,10 +1906,10 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>37.8249898196</v>
+        <v>59.7753789749</v>
       </c>
       <c r="E43" t="n">
-        <v>139878.8354</v>
+        <v>221052.5485</v>
       </c>
     </row>
     <row r="44">
@@ -1899,10 +1923,10 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>39.9658532867</v>
+        <v>62.4865022959</v>
       </c>
       <c r="E44" t="n">
-        <v>135183.7845</v>
+        <v>211359.4773</v>
       </c>
     </row>
     <row r="45">
@@ -1916,10 +1940,10 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>36.9229126825</v>
+        <v>57.3907619765</v>
       </c>
       <c r="E45" t="n">
-        <v>136542.9059</v>
+        <v>212234.1073</v>
       </c>
     </row>
     <row r="46">
@@ -1933,10 +1957,10 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>51.4221234533</v>
+        <v>31.5423421147</v>
       </c>
       <c r="E46" t="n">
-        <v>173934.4136</v>
+        <v>106691.4085</v>
       </c>
     </row>
     <row r="47">
@@ -1950,10 +1974,10 @@
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>47.1966998682</v>
+        <v>28.8950503422</v>
       </c>
       <c r="E47" t="n">
-        <v>174535.9204</v>
+        <v>106855.4416</v>
       </c>
     </row>
     <row r="48">
@@ -1967,10 +1991,10 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>38.1865768941</v>
+        <v>32.0488684864</v>
       </c>
       <c r="E48" t="n">
-        <v>129165.4139</v>
+        <v>108404.7249</v>
       </c>
     </row>
     <row r="49">
@@ -1984,10 +2008,10 @@
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>34.7378410674</v>
+        <v>29.3139926875</v>
       </c>
       <c r="E49" t="n">
-        <v>128462.3942</v>
+        <v>108404.7128</v>
       </c>
     </row>
     <row r="50">
@@ -2001,10 +2025,10 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>28.4454870978</v>
+        <v>53.2001209035</v>
       </c>
       <c r="E50" t="n">
-        <v>96216.35175</v>
+        <v>179948.4582</v>
       </c>
     </row>
     <row r="51">
@@ -2017,8 +2041,12 @@
       <c r="C51" t="n">
         <v>2016</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="D51" t="n">
+        <v>49.6911729035</v>
+      </c>
+      <c r="E51" t="n">
+        <v>183760.6151</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2031,10 +2059,10 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>31.5423421147</v>
+        <v>44.4397484987</v>
       </c>
       <c r="E52" t="n">
-        <v>106691.4085</v>
+        <v>150316.6551</v>
       </c>
     </row>
     <row r="53">
@@ -2048,10 +2076,10 @@
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>28.8950503422</v>
+        <v>39.8483949519</v>
       </c>
       <c r="E53" t="n">
-        <v>106855.4416</v>
+        <v>147361.4958</v>
       </c>
     </row>
     <row r="54">
@@ -2065,10 +2093,10 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>57.8944718848</v>
+        <v>33.5265103216</v>
       </c>
       <c r="E54" t="n">
-        <v>195827.0165</v>
+        <v>113402.822</v>
       </c>
     </row>
     <row r="55">
@@ -2082,10 +2110,10 @@
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>52.4019649573</v>
+        <v>30.5910920372</v>
       </c>
       <c r="E55" t="n">
-        <v>193785.2691</v>
+        <v>113127.4945</v>
       </c>
     </row>
     <row r="56">
@@ -2099,10 +2127,10 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>66.690790821</v>
+        <v>37.7001536589</v>
       </c>
       <c r="E56" t="n">
-        <v>225580.4081</v>
+        <v>127520.096</v>
       </c>
     </row>
     <row r="57">
@@ -2116,10 +2144,10 @@
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>58.4424661004</v>
+        <v>35.0900445997</v>
       </c>
       <c r="E57" t="n">
-        <v>216123.3654</v>
+        <v>129764.8617</v>
       </c>
     </row>
     <row r="58">
@@ -2133,10 +2161,10 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>38.5309006054</v>
+        <v>42.1149329931</v>
       </c>
       <c r="E58" t="n">
-        <v>130330.0827</v>
+        <v>142453.0082</v>
       </c>
     </row>
     <row r="59">
@@ -2150,10 +2178,10 @@
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>35.3034750986</v>
+        <v>37.8249898196</v>
       </c>
       <c r="E59" t="n">
-        <v>130554.1391</v>
+        <v>139878.8354</v>
       </c>
     </row>
     <row r="60">
@@ -2167,10 +2195,10 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>44.0868696498</v>
+        <v>52.9602658003</v>
       </c>
       <c r="E60" t="n">
-        <v>149123.0487</v>
+        <v>179137.1526</v>
       </c>
     </row>
     <row r="61">
@@ -2184,10 +2212,10 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>39.8384648089</v>
+        <v>43.3579515483</v>
       </c>
       <c r="E61" t="n">
-        <v>147324.7736</v>
+        <v>160340.0238</v>
       </c>
     </row>
     <row r="62">
@@ -2201,10 +2229,10 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>28.8191525074</v>
+        <v>38.8390550495</v>
       </c>
       <c r="E62" t="n">
-        <v>97480.26832</v>
+        <v>131372.4096</v>
       </c>
     </row>
     <row r="63">
@@ -2218,10 +2246,10 @@
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>26.3240053289</v>
+        <v>35.3720508239</v>
       </c>
       <c r="E63" t="n">
-        <v>97347.57963</v>
+        <v>130807.7358</v>
       </c>
     </row>
     <row r="64">
@@ -2235,10 +2263,10 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>31.774358093</v>
+        <v>51.0707125501</v>
       </c>
       <c r="E64" t="n">
-        <v>107476.1984</v>
+        <v>172745.7725</v>
       </c>
     </row>
     <row r="65">
@@ -2252,10 +2280,10 @@
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>27.984510672</v>
+        <v>46.4147847033</v>
       </c>
       <c r="E65" t="n">
-        <v>103488.2172</v>
+        <v>171644.3563</v>
       </c>
     </row>
     <row r="66">
@@ -2269,10 +2297,10 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>39.5089108873</v>
+        <v>57.8944718848</v>
       </c>
       <c r="E66" t="n">
-        <v>133638.185</v>
+        <v>195827.0165</v>
       </c>
     </row>
     <row r="67">
@@ -2286,10 +2314,10 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>35.4770512252</v>
+        <v>52.4019649573</v>
       </c>
       <c r="E67" t="n">
-        <v>131196.0329</v>
+        <v>193785.2691</v>
       </c>
     </row>
     <row r="68">
@@ -2303,10 +2331,10 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>31.2925012382</v>
+        <v>42.408416761</v>
       </c>
       <c r="E68" t="n">
-        <v>105846.3262</v>
+        <v>143445.7118</v>
       </c>
     </row>
     <row r="69">
@@ -2320,10 +2348,10 @@
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>28.9683682109</v>
+        <v>39.4894396243</v>
       </c>
       <c r="E69" t="n">
-        <v>107126.575</v>
+        <v>146034.0598</v>
       </c>
     </row>
     <row r="70">
@@ -2337,10 +2365,10 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>38.3233222138</v>
+        <v>66.690790821</v>
       </c>
       <c r="E70" t="n">
-        <v>129627.9525</v>
+        <v>225580.4081</v>
       </c>
     </row>
     <row r="71">
@@ -2354,10 +2382,10 @@
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>34.220897922</v>
+        <v>58.4424661004</v>
       </c>
       <c r="E71" t="n">
-        <v>126550.7108</v>
+        <v>216123.3654</v>
       </c>
     </row>
     <row r="72">
@@ -2371,10 +2399,10 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>26.4038677433</v>
+        <v>50.170133483</v>
       </c>
       <c r="E72" t="n">
-        <v>89310.61077</v>
+        <v>169699.5799</v>
       </c>
     </row>
     <row r="73">
@@ -2388,10 +2416,10 @@
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>24.1957836433</v>
+        <v>45.7109452345</v>
       </c>
       <c r="E73" t="n">
-        <v>89477.30201</v>
+        <v>169041.5203</v>
       </c>
     </row>
     <row r="74">
@@ -2405,10 +2433,10 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>28.6562165364</v>
+        <v>47.1401353603</v>
       </c>
       <c r="E74" t="n">
-        <v>96929.14031</v>
+        <v>159450.6654</v>
       </c>
     </row>
     <row r="75">
@@ -2422,10 +2450,10 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>26.1353532115</v>
+        <v>43.2355988831</v>
       </c>
       <c r="E75" t="n">
-        <v>96649.93401</v>
+        <v>159887.5571</v>
       </c>
     </row>
     <row r="76">
@@ -2439,10 +2467,10 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>30.8937643791</v>
+        <v>37.2318788419</v>
       </c>
       <c r="E76" t="n">
-        <v>104497.6059</v>
+        <v>125936.1648</v>
       </c>
     </row>
     <row r="77">
@@ -2456,10 +2484,10 @@
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>28.2587200376</v>
+        <v>34.1816707717</v>
       </c>
       <c r="E77" t="n">
-        <v>104502.2581</v>
+        <v>126405.6467</v>
       </c>
     </row>
     <row r="78">
@@ -2473,10 +2501,10 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>39.6179519068</v>
+        <v>28.6562165364</v>
       </c>
       <c r="E78" t="n">
-        <v>134007.0143</v>
+        <v>96929.14031</v>
       </c>
     </row>
     <row r="79">
@@ -2490,10 +2518,10 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>36.1057249072</v>
+        <v>26.1353532115</v>
       </c>
       <c r="E79" t="n">
-        <v>133520.9018</v>
+        <v>96649.93401</v>
       </c>
     </row>
     <row r="80">
@@ -2507,10 +2535,10 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>26.8204782312</v>
+        <v>153.9426273931</v>
       </c>
       <c r="E80" t="n">
-        <v>90719.7883</v>
+        <v>520708.186</v>
       </c>
     </row>
     <row r="81">
@@ -2524,10 +2552,10 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>24.6580251407</v>
+        <v>137.1375489939</v>
       </c>
       <c r="E81" t="n">
-        <v>91186.69579</v>
+        <v>507141.9909</v>
       </c>
     </row>
     <row r="82">
@@ -2541,10 +2569,10 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>29.2048916866</v>
+        <v>39.3227551957</v>
       </c>
       <c r="E82" t="n">
-        <v>98785.0242</v>
+        <v>133008.5167</v>
       </c>
     </row>
     <row r="83">
@@ -2558,10 +2586,10 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>26.7127129411</v>
+        <v>35.9922001564</v>
       </c>
       <c r="E83" t="n">
-        <v>98785.04117</v>
+        <v>133101.0812</v>
       </c>
     </row>
     <row r="84">
@@ -2575,10 +2603,10 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>40.7310081646</v>
+        <v>39.9658532867</v>
       </c>
       <c r="E84" t="n">
-        <v>137771.9072</v>
+        <v>135183.7845</v>
       </c>
     </row>
     <row r="85">
@@ -2592,10 +2620,10 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>34.4084142743</v>
+        <v>36.9229126825</v>
       </c>
       <c r="E85" t="n">
-        <v>127244.1563</v>
+        <v>136542.9059</v>
       </c>
     </row>
     <row r="86">
@@ -2608,12 +2636,8 @@
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>41.9055783911</v>
-      </c>
-      <c r="E86" t="n">
-        <v>141744.87</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2625,12 +2649,8 @@
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>38.3268260445</v>
-      </c>
-      <c r="E87" t="n">
-        <v>141734.6526</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2643,10 +2663,10 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>53.9879213112</v>
+        <v>38.5309006054</v>
       </c>
       <c r="E88" t="n">
-        <v>182613.179</v>
+        <v>130330.0827</v>
       </c>
     </row>
     <row r="89">
@@ -2660,10 +2680,10 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>49.1984659949</v>
+        <v>35.3034750986</v>
       </c>
       <c r="E89" t="n">
-        <v>181938.5586</v>
+        <v>130554.1391</v>
       </c>
     </row>
     <row r="90">
@@ -2677,10 +2697,10 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>32.0488684864</v>
+        <v>34.2404785875</v>
       </c>
       <c r="E90" t="n">
-        <v>108404.7249</v>
+        <v>115817.8069</v>
       </c>
     </row>
     <row r="91">
@@ -2694,10 +2714,10 @@
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>29.3139926875</v>
+        <v>31.3015776781</v>
       </c>
       <c r="E91" t="n">
-        <v>108404.7128</v>
+        <v>115754.9084</v>
       </c>
     </row>
     <row r="92">
@@ -2711,10 +2731,10 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>39.3227551957</v>
+        <v>51.9865852087</v>
       </c>
       <c r="E92" t="n">
-        <v>133008.5167</v>
+        <v>175843.6954</v>
       </c>
     </row>
     <row r="93">
@@ -2728,10 +2748,10 @@
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>35.9922001564</v>
+        <v>50.0234232631</v>
       </c>
       <c r="E93" t="n">
-        <v>133101.0812</v>
+        <v>184989.2947</v>
       </c>
     </row>
     <row r="94">
@@ -2745,10 +2765,10 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>33.7185272711</v>
+        <v>44.0868696498</v>
       </c>
       <c r="E94" t="n">
-        <v>114052.3159</v>
+        <v>149123.0487</v>
       </c>
     </row>
     <row r="95">
@@ -2762,10 +2782,10 @@
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>30.6452351698</v>
+        <v>39.8384648089</v>
       </c>
       <c r="E95" t="n">
-        <v>113327.7187</v>
+        <v>147324.7736</v>
       </c>
     </row>
     <row r="96">
@@ -2779,10 +2799,10 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>34.9881255828</v>
+        <v>42.986101587</v>
       </c>
       <c r="E96" t="n">
-        <v>118346.7095</v>
+        <v>145399.7204</v>
       </c>
     </row>
     <row r="97">
@@ -2796,10 +2816,10 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>32.176195937</v>
+        <v>41.3955059724</v>
       </c>
       <c r="E97" t="n">
-        <v>118989.2935</v>
+        <v>153082.7951</v>
       </c>
     </row>
     <row r="98">
@@ -2813,10 +2833,10 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>32.2922377545</v>
+        <v>28.8191525074</v>
       </c>
       <c r="E98" t="n">
-        <v>109227.9171</v>
+        <v>97480.26832</v>
       </c>
     </row>
     <row r="99">
@@ -2830,10 +2850,10 @@
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>30.0369145737</v>
+        <v>26.3240053289</v>
       </c>
       <c r="E99" t="n">
-        <v>111078.1166</v>
+        <v>97347.57963</v>
       </c>
     </row>
     <row r="100">
@@ -2847,10 +2867,10 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>33.5265103216</v>
+        <v>42.1759486296</v>
       </c>
       <c r="E100" t="n">
-        <v>113402.822</v>
+        <v>142659.3925</v>
       </c>
     </row>
     <row r="101">
@@ -2864,10 +2884,10 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>30.5910920372</v>
+        <v>38.5198198189</v>
       </c>
       <c r="E101" t="n">
-        <v>113127.4945</v>
+        <v>142448.3539</v>
       </c>
     </row>
     <row r="102">
@@ -2881,10 +2901,10 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>42.0300766689</v>
+        <v>35.3583151809</v>
       </c>
       <c r="E102" t="n">
-        <v>142165.9832</v>
+        <v>119598.8692</v>
       </c>
     </row>
     <row r="103">
@@ -2898,10 +2918,10 @@
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>38.0060323607</v>
+        <v>32.2973588142</v>
       </c>
       <c r="E103" t="n">
-        <v>140548.3404</v>
+        <v>119437.3603</v>
       </c>
     </row>
     <row r="104">
@@ -2915,10 +2935,10 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>43.4346117468</v>
+        <v>57.5171663288</v>
       </c>
       <c r="E104" t="n">
-        <v>146916.798</v>
+        <v>194550.7872</v>
       </c>
     </row>
     <row r="105">
@@ -2932,10 +2952,10 @@
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>34.4755372083</v>
+        <v>52.7948269335</v>
       </c>
       <c r="E105" t="n">
-        <v>127492.3805</v>
+        <v>195238.0937</v>
       </c>
     </row>
     <row r="106">
@@ -2948,8 +2968,12 @@
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>42.0300766689</v>
+      </c>
+      <c r="E106" t="n">
+        <v>142165.9832</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2961,8 +2985,12 @@
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>38.0060323607</v>
+      </c>
+      <c r="E107" t="n">
+        <v>140548.3404</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -2975,10 +3003,10 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>35.1680709238</v>
+        <v>36.6725181925</v>
       </c>
       <c r="E108" t="n">
-        <v>118955.3714</v>
+        <v>124044.1374</v>
       </c>
     </row>
     <row r="109">
@@ -2992,10 +3020,10 @@
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>31.9076881115</v>
+        <v>39.1361917858</v>
       </c>
       <c r="E109" t="n">
-        <v>117996.3372</v>
+        <v>144727.7304</v>
       </c>
     </row>
     <row r="110">
@@ -3009,10 +3037,10 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>33.7346240302</v>
+        <v>35.1577880313</v>
       </c>
       <c r="E110" t="n">
-        <v>114106.7629</v>
+        <v>118920.5897</v>
       </c>
     </row>
     <row r="111">
@@ -3026,10 +3054,10 @@
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>30.5331931991</v>
+        <v>30.5115471628</v>
       </c>
       <c r="E111" t="n">
-        <v>112913.3815</v>
+        <v>112833.3333</v>
       </c>
     </row>
     <row r="112">
@@ -3043,10 +3071,10 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>30.4253469448</v>
+        <v>50.3990621722</v>
       </c>
       <c r="E112" t="n">
-        <v>102913.1923</v>
+        <v>170473.9271</v>
       </c>
     </row>
     <row r="113">
@@ -3060,10 +3088,10 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5929114141</v>
+        <v>45.5620006337</v>
       </c>
       <c r="E113" t="n">
-        <v>102040.0622</v>
+        <v>168490.7152</v>
       </c>
     </row>
     <row r="114">
@@ -3077,10 +3105,10 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>51.1402127547</v>
+        <v>35.6107584955</v>
       </c>
       <c r="E114" t="n">
-        <v>172980.8557</v>
+        <v>120452.7542</v>
       </c>
     </row>
     <row r="115">
@@ -3094,10 +3122,10 @@
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>47.1339874166</v>
+        <v>32.8519865416</v>
       </c>
       <c r="E115" t="n">
-        <v>174304.0064</v>
+        <v>121488.4033</v>
       </c>
     </row>
     <row r="116">
@@ -3111,10 +3139,10 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>32.3500539063</v>
+        <v>33.9096310154</v>
       </c>
       <c r="E116" t="n">
-        <v>109423.4792</v>
+        <v>114698.7209</v>
       </c>
     </row>
     <row r="117">
@@ -3128,10 +3156,10 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>29.0378617705</v>
+        <v>31.8666338377</v>
       </c>
       <c r="E117" t="n">
-        <v>107383.5659</v>
+        <v>117844.5163</v>
       </c>
     </row>
     <row r="118">
@@ -3145,10 +3173,10 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>31.2956643295</v>
+        <v>42.9912107641</v>
       </c>
       <c r="E118" t="n">
-        <v>105857.0253</v>
+        <v>145417.0021</v>
       </c>
     </row>
     <row r="119">
@@ -3162,10 +3190,10 @@
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>28.5602663794</v>
+        <v>38.2923441473</v>
       </c>
       <c r="E119" t="n">
-        <v>105617.3926</v>
+        <v>141607.1367</v>
       </c>
     </row>
     <row r="120">
@@ -3179,10 +3207,10 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>52.9602658003</v>
+        <v>52.7989191977</v>
       </c>
       <c r="E120" t="n">
-        <v>179137.1526</v>
+        <v>178591.4006</v>
       </c>
     </row>
     <row r="121">
@@ -3196,10 +3224,10 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>43.3579515483</v>
+        <v>53.7233078531</v>
       </c>
       <c r="E121" t="n">
-        <v>160340.0238</v>
+        <v>198671.6658</v>
       </c>
     </row>
     <row r="122">
@@ -3213,10 +3241,10 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>35.6107584955</v>
+        <v>31.774358093</v>
       </c>
       <c r="E122" t="n">
-        <v>120452.7542</v>
+        <v>107476.1984</v>
       </c>
     </row>
     <row r="123">
@@ -3230,10 +3258,10 @@
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>32.8519865416</v>
+        <v>27.984510672</v>
       </c>
       <c r="E123" t="n">
-        <v>121488.4033</v>
+        <v>103488.2172</v>
       </c>
     </row>
     <row r="124">
@@ -3247,10 +3275,10 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>52.7989191977</v>
+        <v>43.4346117468</v>
       </c>
       <c r="E124" t="n">
-        <v>178591.4006</v>
+        <v>146916.798</v>
       </c>
     </row>
     <row r="125">
@@ -3264,10 +3292,10 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>53.7233078531</v>
+        <v>34.4755372083</v>
       </c>
       <c r="E125" t="n">
-        <v>198671.6658</v>
+        <v>127492.3805</v>
       </c>
     </row>
     <row r="126">
@@ -3281,10 +3309,10 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>36.879459005</v>
+        <v>51.4221234533</v>
       </c>
       <c r="E126" t="n">
-        <v>124744.111</v>
+        <v>173934.4136</v>
       </c>
     </row>
     <row r="127">
@@ -3298,10 +3326,10 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>33.8830701417</v>
+        <v>47.1966998682</v>
       </c>
       <c r="E127" t="n">
-        <v>125301.4056</v>
+        <v>174535.9204</v>
       </c>
     </row>
     <row r="128">
@@ -3314,8 +3342,12 @@
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>33.3495880269</v>
+      </c>
+      <c r="E128" t="n">
+        <v>112804.3855</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3327,8 +3359,12 @@
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>33.5400226965</v>
+      </c>
+      <c r="E129" t="n">
+        <v>124032.7978</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3341,10 +3377,10 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>47.2455985635</v>
+        <v>33.595291025</v>
       </c>
       <c r="E130" t="n">
-        <v>159807.3928</v>
+        <v>113635.4715</v>
       </c>
     </row>
     <row r="131">
@@ -3358,10 +3394,10 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>43.5944543473</v>
+        <v>22.1759332702</v>
       </c>
       <c r="E131" t="n">
-        <v>161214.6238</v>
+        <v>82007.7873</v>
       </c>
     </row>
     <row r="132">
@@ -3375,10 +3411,10 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>32.4061903448</v>
+        <v>53.0001013397</v>
       </c>
       <c r="E132" t="n">
-        <v>109613.3597</v>
+        <v>179271.8956</v>
       </c>
     </row>
     <row r="133">
@@ -3392,10 +3428,10 @@
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>29.6693382242</v>
+        <v>39.3053881759</v>
       </c>
       <c r="E133" t="n">
-        <v>109718.7996</v>
+        <v>145353.4277</v>
       </c>
     </row>
     <row r="134">
@@ -3409,10 +3445,10 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>80.0730628857</v>
+        <v>36.879459005</v>
       </c>
       <c r="E134" t="n">
-        <v>270845.7042</v>
+        <v>124744.111</v>
       </c>
     </row>
     <row r="135">
@@ -3426,10 +3462,10 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>69.5159998047</v>
+        <v>33.8830701417</v>
       </c>
       <c r="E135" t="n">
-        <v>257073.8853</v>
+        <v>125301.4056</v>
       </c>
     </row>
     <row r="136">
@@ -3442,12 +3478,8 @@
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>33.7585027077</v>
-      </c>
-      <c r="E136" t="n">
-        <v>114187.5321</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -3459,12 +3491,8 @@
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>30.3083227629</v>
-      </c>
-      <c r="E137" t="n">
-        <v>112081.7986</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -3477,10 +3505,10 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>43.3292664452</v>
+        <v>46.3403961164</v>
       </c>
       <c r="E138" t="n">
-        <v>146560.4694</v>
+        <v>156745.5617</v>
       </c>
     </row>
     <row r="139">
@@ -3494,10 +3522,10 @@
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>39.283828266</v>
+        <v>42.3563162243</v>
       </c>
       <c r="E139" t="n">
-        <v>145273.698</v>
+        <v>156635.9228</v>
       </c>
     </row>
     <row r="140">
@@ -3511,10 +3539,10 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>62.3996992061</v>
+        <v>38.1865768941</v>
       </c>
       <c r="E140" t="n">
-        <v>211065.8674</v>
+        <v>129165.4139</v>
       </c>
     </row>
     <row r="141">
@@ -3528,10 +3556,10 @@
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>53.5489331441</v>
+        <v>34.7378410674</v>
       </c>
       <c r="E141" t="n">
-        <v>198026.8188</v>
+        <v>128462.3942</v>
       </c>
     </row>
     <row r="142">
@@ -3545,10 +3573,10 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>38.264264459</v>
+        <v>38.3736187101</v>
       </c>
       <c r="E142" t="n">
-        <v>129428.1907</v>
+        <v>129798.0795</v>
       </c>
     </row>
     <row r="143">
@@ -3562,10 +3590,10 @@
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>34.9990045427</v>
+        <v>35.0990271091</v>
       </c>
       <c r="E143" t="n">
-        <v>129428.1907</v>
+        <v>129798.0795</v>
       </c>
     </row>
     <row r="144">
@@ -3579,10 +3607,10 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>48.6136357397</v>
+        <v>33.7185272711</v>
       </c>
       <c r="E144" t="n">
-        <v>164434.7541</v>
+        <v>114052.3159</v>
       </c>
     </row>
     <row r="145">
@@ -3596,10 +3624,10 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>34.7069811027</v>
+        <v>30.6452351698</v>
       </c>
       <c r="E145" t="n">
-        <v>128348.2724</v>
+        <v>113327.7187</v>
       </c>
     </row>
     <row r="146">
@@ -3613,10 +3641,10 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>37.7001536589</v>
+        <v>30.175515854</v>
       </c>
       <c r="E146" t="n">
-        <v>127520.096</v>
+        <v>102068.1431</v>
       </c>
     </row>
     <row r="147">
@@ -3630,10 +3658,10 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>35.0900445997</v>
+        <v>26.9865540509</v>
       </c>
       <c r="E147" t="n">
-        <v>129764.8617</v>
+        <v>99797.72024</v>
       </c>
     </row>
     <row r="148">
@@ -3647,10 +3675,10 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>50.170133483</v>
+        <v>55.5047631169</v>
       </c>
       <c r="E148" t="n">
-        <v>169699.5799</v>
+        <v>187743.8693</v>
       </c>
     </row>
     <row r="149">
@@ -3664,10 +3692,10 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>45.7109452345</v>
+        <v>50.9644728489</v>
       </c>
       <c r="E149" t="n">
-        <v>169041.5203</v>
+        <v>188469.3464</v>
       </c>
     </row>
     <row r="150">
@@ -3681,10 +3709,10 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>33.9096310154</v>
+        <v>53.6034598564</v>
       </c>
       <c r="E150" t="n">
-        <v>114698.7209</v>
+        <v>181312.745</v>
       </c>
     </row>
     <row r="151">
@@ -3698,10 +3726,10 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>31.8666338377</v>
+        <v>47.6012439631</v>
       </c>
       <c r="E151" t="n">
-        <v>117844.5163</v>
+        <v>176031.9461</v>
       </c>
     </row>
     <row r="152">
@@ -3715,10 +3743,10 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>30.175515854</v>
+        <v>30.8937643791</v>
       </c>
       <c r="E152" t="n">
-        <v>102068.1431</v>
+        <v>104497.6059</v>
       </c>
     </row>
     <row r="153">
@@ -3732,10 +3760,10 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>26.9865540509</v>
+        <v>28.2587200376</v>
       </c>
       <c r="E153" t="n">
-        <v>99797.72024</v>
+        <v>104502.2581</v>
       </c>
     </row>
     <row r="154">
@@ -3749,10 +3777,10 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>34.6598403598</v>
+        <v>39.5089108873</v>
       </c>
       <c r="E154" t="n">
-        <v>117236.2906</v>
+        <v>133638.185</v>
       </c>
     </row>
     <row r="155">
@@ -3766,10 +3794,10 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>28.7985205863</v>
+        <v>35.4770512252</v>
       </c>
       <c r="E155" t="n">
-        <v>106498.4694</v>
+        <v>131196.0329</v>
       </c>
     </row>
     <row r="156">
@@ -3783,10 +3811,10 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>33.7706426979</v>
+        <v>64.1448167486</v>
       </c>
       <c r="E156" t="n">
-        <v>114228.5954</v>
+        <v>216968.6963</v>
       </c>
     </row>
     <row r="157">
@@ -3800,10 +3828,10 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>31.7293108374</v>
+        <v>57.7290584358</v>
       </c>
       <c r="E157" t="n">
-        <v>117336.6885</v>
+        <v>213485.1457</v>
       </c>
     </row>
     <row r="158">
@@ -3817,10 +3845,10 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>30.4958429862</v>
+        <v>50.7087240891</v>
       </c>
       <c r="E158" t="n">
-        <v>103151.6439</v>
+        <v>171521.353</v>
       </c>
     </row>
     <row r="159">
@@ -3834,10 +3862,10 @@
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>27.7181288297</v>
+        <v>45.354567398</v>
       </c>
       <c r="E159" t="n">
-        <v>102503.1229</v>
+        <v>167723.616</v>
       </c>
     </row>
     <row r="160">
@@ -3850,12 +3878,8 @@
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>77.1044155084</v>
-      </c>
-      <c r="E160" t="n">
-        <v>260804.3075</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -3867,12 +3891,8 @@
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>73.0399507305</v>
-      </c>
-      <c r="E161" t="n">
-        <v>270105.6443</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -3884,12 +3904,8 @@
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>42.9912107641</v>
-      </c>
-      <c r="E162" t="n">
-        <v>145417.0021</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -3901,12 +3917,8 @@
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>38.2923441473</v>
-      </c>
-      <c r="E163" t="n">
-        <v>141607.1367</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -3919,10 +3931,10 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>53.0001013397</v>
+        <v>47.2455985635</v>
       </c>
       <c r="E164" t="n">
-        <v>179271.8956</v>
+        <v>159807.3928</v>
       </c>
     </row>
     <row r="165">
@@ -3936,10 +3948,10 @@
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>39.3053881759</v>
+        <v>43.5944543473</v>
       </c>
       <c r="E165" t="n">
-        <v>145353.4277</v>
+        <v>161214.6238</v>
       </c>
     </row>
     <row r="166">
@@ -3953,10 +3965,10 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>45.4487614277</v>
+        <v>49.7137533334</v>
       </c>
       <c r="E166" t="n">
-        <v>153729.6233</v>
+        <v>168155.8822</v>
       </c>
     </row>
     <row r="167">
@@ -3970,10 +3982,10 @@
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>41.7204688765</v>
+        <v>45.1264783767</v>
       </c>
       <c r="E167" t="n">
-        <v>154284.5253</v>
+        <v>166880.1306</v>
       </c>
     </row>
     <row r="168">
@@ -3986,12 +3998,8 @@
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>58.6924892866</v>
-      </c>
-      <c r="E168" t="n">
-        <v>198526.2961</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -4003,12 +4011,8 @@
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>37.3013863325</v>
-      </c>
-      <c r="E169" t="n">
-        <v>137942.5217</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -4021,10 +4025,10 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>40.4965852852</v>
+        <v>50.5149695399</v>
       </c>
       <c r="E170" t="n">
-        <v>136978.976</v>
+        <v>170865.9817</v>
       </c>
     </row>
     <row r="171">
@@ -4037,12 +4041,8 @@
       <c r="C171" t="n">
         <v>2016</v>
       </c>
-      <c r="D171" t="n">
-        <v>36.9569237374</v>
-      </c>
-      <c r="E171" t="n">
-        <v>136668.6806</v>
-      </c>
+      <c r="D171"/>
+      <c r="E171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -4055,10 +4055,10 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>36.1553945438</v>
+        <v>80.0730628857</v>
       </c>
       <c r="E172" t="n">
-        <v>122294.9759</v>
+        <v>270845.7042</v>
       </c>
     </row>
     <row r="173">
@@ -4072,10 +4072,10 @@
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>32.6381419871</v>
+        <v>69.5159998047</v>
       </c>
       <c r="E173" t="n">
-        <v>120697.5947</v>
+        <v>257073.8853</v>
       </c>
     </row>
     <row r="174">
@@ -4089,10 +4089,10 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>66.3730882999</v>
+        <v>36.0794271653</v>
       </c>
       <c r="E174" t="n">
-        <v>224505.785</v>
+        <v>122038.0176</v>
       </c>
     </row>
     <row r="175">
@@ -4106,10 +4106,10 @@
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>59.7753789749</v>
+        <v>32.6731289608</v>
       </c>
       <c r="E175" t="n">
-        <v>221052.5485</v>
+        <v>120826.9784</v>
       </c>
     </row>
     <row r="176">
@@ -4123,10 +4123,10 @@
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>62.4865022959</v>
+        <v>48.3174512628</v>
       </c>
       <c r="E176" t="n">
-        <v>211359.4773</v>
+        <v>163432.9154</v>
       </c>
     </row>
     <row r="177">
@@ -4140,10 +4140,10 @@
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>57.3907619765</v>
+        <v>44.5080855358</v>
       </c>
       <c r="E177" t="n">
-        <v>212234.1073</v>
+        <v>164593.2808</v>
       </c>
     </row>
     <row r="178">
@@ -4157,10 +4157,10 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>38.8390550495</v>
+        <v>35.1680709238</v>
       </c>
       <c r="E178" t="n">
-        <v>131372.4096</v>
+        <v>118955.3714</v>
       </c>
     </row>
     <row r="179">
@@ -4174,10 +4174,10 @@
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>35.3720508239</v>
+        <v>31.9076881115</v>
       </c>
       <c r="E179" t="n">
-        <v>130807.7358</v>
+        <v>117996.3372</v>
       </c>
     </row>
     <row r="180">
@@ -4191,10 +4191,10 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>47.1401353603</v>
+        <v>34.9881255828</v>
       </c>
       <c r="E180" t="n">
-        <v>159450.6654</v>
+        <v>118346.7095</v>
       </c>
     </row>
     <row r="181">
@@ -4208,10 +4208,10 @@
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>43.2355988831</v>
+        <v>32.176195937</v>
       </c>
       <c r="E181" t="n">
-        <v>159887.5571</v>
+        <v>118989.2935</v>
       </c>
     </row>
     <row r="182">
@@ -4225,10 +4225,10 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>37.2318788419</v>
+        <v>45.4487614277</v>
       </c>
       <c r="E182" t="n">
-        <v>125936.1648</v>
+        <v>153729.6233</v>
       </c>
     </row>
     <row r="183">
@@ -4242,10 +4242,10 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>34.1816707717</v>
+        <v>41.7204688765</v>
       </c>
       <c r="E183" t="n">
-        <v>126405.6467</v>
+        <v>154284.5253</v>
       </c>
     </row>
     <row r="184">
@@ -4259,10 +4259,10 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>42.986101587</v>
+        <v>32.4061903448</v>
       </c>
       <c r="E184" t="n">
-        <v>145399.7204</v>
+        <v>109613.3597</v>
       </c>
     </row>
     <row r="185">
@@ -4276,10 +4276,10 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>41.3955059724</v>
+        <v>29.6693382242</v>
       </c>
       <c r="E185" t="n">
-        <v>153082.7951</v>
+        <v>109718.7996</v>
       </c>
     </row>
     <row r="186">
@@ -4293,10 +4293,10 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>35.3583151809</v>
+        <v>33.7346240302</v>
       </c>
       <c r="E186" t="n">
-        <v>119598.8692</v>
+        <v>114106.7629</v>
       </c>
     </row>
     <row r="187">
@@ -4310,10 +4310,10 @@
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>32.2973588142</v>
+        <v>30.5331931991</v>
       </c>
       <c r="E187" t="n">
-        <v>119437.3603</v>
+        <v>112913.3815</v>
       </c>
     </row>
     <row r="188">
@@ -4327,10 +4327,10 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>50.3990621722</v>
+        <v>77.4218403932</v>
       </c>
       <c r="E188" t="n">
-        <v>170473.9271</v>
+        <v>261877.9915</v>
       </c>
     </row>
     <row r="189">
@@ -4344,10 +4344,10 @@
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>45.5620006337</v>
+        <v>72.9375832549</v>
       </c>
       <c r="E189" t="n">
-        <v>168490.7152</v>
+        <v>269727.0839</v>
       </c>
     </row>
     <row r="190">
@@ -4361,10 +4361,10 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>53.6034598564</v>
+        <v>50.9744222261</v>
       </c>
       <c r="E190" t="n">
-        <v>181312.745</v>
+        <v>172420.0722</v>
       </c>
     </row>
     <row r="191">
@@ -4378,10 +4378,10 @@
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>47.6012439631</v>
+        <v>46.575126381</v>
       </c>
       <c r="E191" t="n">
-        <v>176031.9461</v>
+        <v>172237.3084</v>
       </c>
     </row>
     <row r="192">
@@ -4395,10 +4395,10 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>64.1448167486</v>
+        <v>58.6924892866</v>
       </c>
       <c r="E192" t="n">
-        <v>216968.6963</v>
+        <v>198526.2961</v>
       </c>
     </row>
     <row r="193">
@@ -4412,10 +4412,10 @@
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>57.7290584358</v>
+        <v>37.3013863325</v>
       </c>
       <c r="E193" t="n">
-        <v>213485.1457</v>
+        <v>137942.5217</v>
       </c>
     </row>
     <row r="194">
@@ -4429,10 +4429,10 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>50.9744222261</v>
+        <v>40.4965852852</v>
       </c>
       <c r="E194" t="n">
-        <v>172420.0722</v>
+        <v>136978.976</v>
       </c>
     </row>
     <row r="195">
@@ -4446,10 +4446,10 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>46.575126381</v>
+        <v>36.9569237374</v>
       </c>
       <c r="E195" t="n">
-        <v>172237.3084</v>
+        <v>136668.6806</v>
       </c>
     </row>
     <row r="196">
@@ -4463,10 +4463,10 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>61.2576228985</v>
+        <v>34.6598403598</v>
       </c>
       <c r="E196" t="n">
-        <v>207202.8147</v>
+        <v>117236.2906</v>
       </c>
     </row>
     <row r="197">
@@ -4480,10 +4480,10 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>55.8267235913</v>
+        <v>28.7985205863</v>
       </c>
       <c r="E197" t="n">
-        <v>206450.2097</v>
+        <v>106498.4694</v>
       </c>
     </row>
     <row r="198">
@@ -4497,10 +4497,10 @@
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>34.2404785875</v>
+        <v>33.7585027077</v>
       </c>
       <c r="E198" t="n">
-        <v>115817.8069</v>
+        <v>114187.5321</v>
       </c>
     </row>
     <row r="199">
@@ -4514,10 +4514,10 @@
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>31.3015776781</v>
+        <v>30.3083227629</v>
       </c>
       <c r="E199" t="n">
-        <v>115754.9084</v>
+        <v>112081.7986</v>
       </c>
     </row>
     <row r="200">
@@ -4531,10 +4531,10 @@
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>51.9865852087</v>
+        <v>31.2925012382</v>
       </c>
       <c r="E200" t="n">
-        <v>175843.6954</v>
+        <v>105846.3262</v>
       </c>
     </row>
     <row r="201">
@@ -4548,10 +4548,10 @@
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>50.0234232631</v>
+        <v>28.9683682109</v>
       </c>
       <c r="E201" t="n">
-        <v>184989.2947</v>
+        <v>107126.575</v>
       </c>
     </row>
     <row r="202">
@@ -4565,10 +4565,10 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>33.595291025</v>
+        <v>48.3574821616</v>
       </c>
       <c r="E202" t="n">
-        <v>113635.4715</v>
+        <v>163568.3192</v>
       </c>
     </row>
     <row r="203">
@@ -4582,10 +4582,10 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>22.1759332702</v>
+        <v>44.1199613223</v>
       </c>
       <c r="E203" t="n">
-        <v>82007.7873</v>
+        <v>163157.9767</v>
       </c>
     </row>
     <row r="204">
@@ -4599,10 +4599,10 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>43.4775774136</v>
+        <v>53.0095929493</v>
       </c>
       <c r="E204" t="n">
-        <v>147062.1286</v>
+        <v>179304.0008</v>
       </c>
     </row>
     <row r="205">
@@ -4616,10 +4616,10 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>35.1471054564</v>
+        <v>48.5600923451</v>
       </c>
       <c r="E205" t="n">
-        <v>129975.8758</v>
+        <v>179577.8187</v>
       </c>
     </row>
     <row r="206">
@@ -4633,10 +4633,10 @@
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>51.0707125501</v>
+        <v>61.2576228985</v>
       </c>
       <c r="E206" t="n">
-        <v>172745.7725</v>
+        <v>207202.8147</v>
       </c>
     </row>
     <row r="207">
@@ -4650,10 +4650,10 @@
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>46.4147847033</v>
+        <v>55.8267235913</v>
       </c>
       <c r="E207" t="n">
-        <v>171644.3563</v>
+        <v>206450.2097</v>
       </c>
     </row>
     <row r="208">
@@ -4667,10 +4667,10 @@
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>42.408416761</v>
+        <v>30.4253469448</v>
       </c>
       <c r="E208" t="n">
-        <v>143445.7118</v>
+        <v>102913.1923</v>
       </c>
     </row>
     <row r="209">
@@ -4684,10 +4684,10 @@
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>39.4894396243</v>
+        <v>27.5929114141</v>
       </c>
       <c r="E209" t="n">
-        <v>146034.0598</v>
+        <v>102040.0622</v>
       </c>
     </row>
     <row r="210">
@@ -4701,10 +4701,10 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>36.6725181925</v>
+        <v>55.9339982599</v>
       </c>
       <c r="E210" t="n">
-        <v>124044.1374</v>
+        <v>189195.7495</v>
       </c>
     </row>
     <row r="211">
@@ -4718,10 +4718,10 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>39.1361917858</v>
+        <v>51.1601623929</v>
       </c>
       <c r="E211" t="n">
-        <v>144727.7304</v>
+        <v>189193.0168</v>
       </c>
     </row>
     <row r="212">
@@ -4735,10 +4735,10 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>47.8774706085</v>
+        <v>39.6179519068</v>
       </c>
       <c r="E212" t="n">
-        <v>161944.6887</v>
+        <v>134007.0143</v>
       </c>
     </row>
     <row r="213">
@@ -4752,10 +4752,10 @@
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>50.773707436</v>
+        <v>36.1057249072</v>
       </c>
       <c r="E213" t="n">
-        <v>187763.8857</v>
+        <v>133520.9018</v>
       </c>
     </row>
     <row r="214">
@@ -4769,10 +4769,10 @@
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>35.1577880313</v>
+        <v>38.3233222138</v>
       </c>
       <c r="E214" t="n">
-        <v>118920.5897</v>
+        <v>129627.9525</v>
       </c>
     </row>
     <row r="215">
@@ -4786,10 +4786,10 @@
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>30.5115471628</v>
+        <v>34.220897922</v>
       </c>
       <c r="E215" t="n">
-        <v>112833.3333</v>
+        <v>126550.7108</v>
       </c>
     </row>
     <row r="216">
@@ -4803,10 +4803,10 @@
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>33.3495880269</v>
+        <v>49.0275158865</v>
       </c>
       <c r="E216" t="n">
-        <v>112804.3855</v>
+        <v>165834.6963</v>
       </c>
     </row>
     <row r="217">
@@ -4820,10 +4820,10 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>33.5400226965</v>
+        <v>45.7926728789</v>
       </c>
       <c r="E217" t="n">
-        <v>124032.7978</v>
+        <v>169343.7535</v>
       </c>
     </row>
     <row r="218">
@@ -4837,10 +4837,10 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>50.7087240891</v>
+        <v>26.4038677433</v>
       </c>
       <c r="E218" t="n">
-        <v>171521.353</v>
+        <v>89310.61077</v>
       </c>
     </row>
     <row r="219">
@@ -4854,10 +4854,10 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>45.354567398</v>
+        <v>24.1957836433</v>
       </c>
       <c r="E219" t="n">
-        <v>167723.616</v>
+        <v>89477.30201</v>
       </c>
     </row>
     <row r="220">
@@ -4871,10 +4871,10 @@
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>77.4218403932</v>
+        <v>60.8680706851</v>
       </c>
       <c r="E220" t="n">
-        <v>261877.9915</v>
+        <v>205885.1613</v>
       </c>
     </row>
     <row r="221">
@@ -4888,10 +4888,10 @@
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>72.9375832549</v>
+        <v>61.8714911682</v>
       </c>
       <c r="E221" t="n">
-        <v>269727.0839</v>
+        <v>228804.0835</v>
       </c>
     </row>
     <row r="222">
@@ -4905,10 +4905,10 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>53.0095929493</v>
+        <v>43.3292664452</v>
       </c>
       <c r="E222" t="n">
-        <v>179304.0008</v>
+        <v>146560.4694</v>
       </c>
     </row>
     <row r="223">
@@ -4922,10 +4922,10 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>48.5600923451</v>
+        <v>39.283828266</v>
       </c>
       <c r="E223" t="n">
-        <v>179577.8187</v>
+        <v>145273.698</v>
       </c>
     </row>
     <row r="224">
@@ -4939,10 +4939,10 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>55.9339982599</v>
+        <v>36.1553945438</v>
       </c>
       <c r="E224" t="n">
-        <v>189195.7495</v>
+        <v>122294.9759</v>
       </c>
     </row>
     <row r="225">
@@ -4956,10 +4956,10 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>51.1601623929</v>
+        <v>32.6381419871</v>
       </c>
       <c r="E225" t="n">
-        <v>189193.0168</v>
+        <v>120697.5947</v>
       </c>
     </row>
   </sheetData>
@@ -4981,9 +4981,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4991,1208 +4994,1544 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>153.9426273931</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>137.1375489939</v>
+        <v>62.3996992061</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.5489331441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.1402127547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.1339874166</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>57.5171663288</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7948269335</v>
+        <v>33.7706426979</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.7293108374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>46.3403961164</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>42.3563162243</v>
+        <v>30.4958429862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.7181288297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>55.5047631169</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>50.9644728489</v>
+        <v>38.264264459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.9990045427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>49.7137533334</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1264783767</v>
+        <v>77.1044155084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.0399507305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.8204782312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.6580251407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="n">
-        <v>50.5149695399</v>
-      </c>
-      <c r="C9"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.6136357397</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.7069811027</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>48.3174512628</v>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>44.5080855358</v>
+        <v>32.3500539063</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.0378617705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="n">
-        <v>48.3574821616</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1199613223</v>
+        <v>31.2956643295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.5602663794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="n">
-        <v>49.0275158865</v>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>45.7926728789</v>
+        <v>29.2048916866</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.7127129411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="n">
-        <v>42.1759486296</v>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5198198189</v>
+        <v>40.7310081646</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.4084142743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="n">
-        <v>60.8680706851</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>61.8714911682</v>
-      </c>
+        <v>28.4454870978</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="n">
-        <v>38.3736187101</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0990271091</v>
+        <v>47.8774706085</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50.773707436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>48.7454332136</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.5975603099</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>36.0794271653</v>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>32.6731289608</v>
+        <v>41.9055783911</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.3268260445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="n">
-        <v>48.7454332136</v>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>44.5975603099</v>
+        <v>26.9976911971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30.6554396733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="n">
-        <v>26.9976911971</v>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>30.6554396733</v>
+        <v>53.9879213112</v>
+      </c>
+      <c r="D19" t="n">
+        <v>49.1984659949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="n">
-        <v>53.2001209035</v>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>49.6911729035</v>
+        <v>32.2922377545</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30.0369145737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="n">
-        <v>44.4397484987</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>39.8483949519</v>
+        <v>43.4775774136</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35.1471054564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="n">
-        <v>42.1149329931</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>37.8249898196</v>
+        <v>66.3730882999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59.7753789749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>39.9658532867</v>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>36.9229126825</v>
+        <v>62.4865022959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57.3907619765</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="n">
-        <v>51.4221234533</v>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>47.1966998682</v>
+        <v>31.5423421147</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28.8950503422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="n">
-        <v>38.1865768941</v>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>34.7378410674</v>
+        <v>32.0488684864</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.3139926875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="n">
-        <v>28.4454870978</v>
-      </c>
-      <c r="C26"/>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53.2001209035</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.6911729035</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="n">
-        <v>31.5423421147</v>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>28.8950503422</v>
+        <v>44.4397484987</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39.8483949519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="n">
-        <v>57.8944718848</v>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>52.4019649573</v>
+        <v>33.5265103216</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30.5910920372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="n">
-        <v>66.690790821</v>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>58.4424661004</v>
+        <v>37.7001536589</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.0900445997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="n">
-        <v>38.5309006054</v>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>35.3034750986</v>
+        <v>42.1149329931</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.8249898196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="n">
-        <v>44.0868696498</v>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>39.8384648089</v>
+        <v>52.9602658003</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43.3579515483</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="n">
-        <v>28.8191525074</v>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>26.3240053289</v>
+        <v>38.8390550495</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.3720508239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="n">
-        <v>31.774358093</v>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>27.984510672</v>
+        <v>51.0707125501</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.4147847033</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="n">
-        <v>39.5089108873</v>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>35.4770512252</v>
+        <v>57.8944718848</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52.4019649573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="n">
-        <v>31.2925012382</v>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>28.9683682109</v>
+        <v>42.408416761</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39.4894396243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="n">
-        <v>38.3233222138</v>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>34.220897922</v>
+        <v>66.690790821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>58.4424661004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="n">
-        <v>26.4038677433</v>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>24.1957836433</v>
+        <v>50.170133483</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45.7109452345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="n">
-        <v>28.6562165364</v>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>26.1353532115</v>
+        <v>47.1401353603</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.2355988831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="n">
-        <v>30.8937643791</v>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>28.2587200376</v>
+        <v>37.2318788419</v>
+      </c>
+      <c r="D39" t="n">
+        <v>34.1816707717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="n">
-        <v>39.6179519068</v>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>36.1057249072</v>
+        <v>28.6562165364</v>
+      </c>
+      <c r="D40" t="n">
+        <v>26.1353532115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="n">
-        <v>26.8204782312</v>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>24.6580251407</v>
+        <v>153.9426273931</v>
+      </c>
+      <c r="D41" t="n">
+        <v>137.1375489939</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="n">
-        <v>29.2048916866</v>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>26.7127129411</v>
+        <v>39.3227551957</v>
+      </c>
+      <c r="D42" t="n">
+        <v>35.9922001564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="n">
-        <v>40.7310081646</v>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>34.4084142743</v>
+        <v>39.9658532867</v>
+      </c>
+      <c r="D43" t="n">
+        <v>36.9229126825</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="n">
-        <v>41.9055783911</v>
-      </c>
-      <c r="C44" t="n">
-        <v>38.3268260445</v>
-      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="n">
-        <v>53.9879213112</v>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>49.1984659949</v>
+        <v>38.5309006054</v>
+      </c>
+      <c r="D45" t="n">
+        <v>35.3034750986</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="n">
-        <v>32.0488684864</v>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3139926875</v>
+        <v>34.2404785875</v>
+      </c>
+      <c r="D46" t="n">
+        <v>31.3015776781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="n">
-        <v>39.3227551957</v>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>35.9922001564</v>
+        <v>51.9865852087</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50.0234232631</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="n">
-        <v>33.7185272711</v>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>30.6452351698</v>
+        <v>44.0868696498</v>
+      </c>
+      <c r="D48" t="n">
+        <v>39.8384648089</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="n">
-        <v>34.9881255828</v>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>32.176195937</v>
+        <v>42.986101587</v>
+      </c>
+      <c r="D49" t="n">
+        <v>41.3955059724</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="n">
-        <v>32.2922377545</v>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>30.0369145737</v>
+        <v>28.8191525074</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26.3240053289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="n">
-        <v>33.5265103216</v>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>30.5910920372</v>
+        <v>42.1759486296</v>
+      </c>
+      <c r="D51" t="n">
+        <v>38.5198198189</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="n">
-        <v>42.0300766689</v>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>38.0060323607</v>
+        <v>35.3583151809</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.2973588142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="n">
-        <v>43.4346117468</v>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>34.4755372083</v>
+        <v>57.5171663288</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52.7948269335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>42.0300766689</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38.0060323607</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="n">
-        <v>35.1680709238</v>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>31.9076881115</v>
+        <v>36.6725181925</v>
+      </c>
+      <c r="D55" t="n">
+        <v>39.1361917858</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="n">
-        <v>33.7346240302</v>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>30.5331931991</v>
+        <v>35.1577880313</v>
+      </c>
+      <c r="D56" t="n">
+        <v>30.5115471628</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="n">
-        <v>30.4253469448</v>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>27.5929114141</v>
+        <v>50.3990621722</v>
+      </c>
+      <c r="D57" t="n">
+        <v>45.5620006337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="n">
-        <v>51.1402127547</v>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>47.1339874166</v>
+        <v>35.6107584955</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.8519865416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="n">
-        <v>32.3500539063</v>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>29.0378617705</v>
+        <v>33.9096310154</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31.8666338377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="n">
-        <v>31.2956643295</v>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>28.5602663794</v>
+        <v>42.9912107641</v>
+      </c>
+      <c r="D60" t="n">
+        <v>38.2923441473</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="n">
-        <v>52.9602658003</v>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>43.3579515483</v>
+        <v>52.7989191977</v>
+      </c>
+      <c r="D61" t="n">
+        <v>53.7233078531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="n">
-        <v>35.6107584955</v>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>32.8519865416</v>
+        <v>31.774358093</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.984510672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="n">
-        <v>52.7989191977</v>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>53.7233078531</v>
+        <v>43.4346117468</v>
+      </c>
+      <c r="D63" t="n">
+        <v>34.4755372083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="n">
-        <v>36.879459005</v>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>33.8830701417</v>
+        <v>51.4221234533</v>
+      </c>
+      <c r="D64" t="n">
+        <v>47.1966998682</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>33.3495880269</v>
+      </c>
+      <c r="D65" t="n">
+        <v>33.5400226965</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="n">
-        <v>47.2455985635</v>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>43.5944543473</v>
+        <v>33.595291025</v>
+      </c>
+      <c r="D66" t="n">
+        <v>22.1759332702</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="n">
-        <v>32.4061903448</v>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>29.6693382242</v>
+        <v>53.0001013397</v>
+      </c>
+      <c r="D67" t="n">
+        <v>39.3053881759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="n">
-        <v>80.0730628857</v>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>69.5159998047</v>
+        <v>36.879459005</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.8830701417</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="n">
-        <v>33.7585027077</v>
-      </c>
-      <c r="C69" t="n">
-        <v>30.3083227629</v>
-      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="n">
-        <v>43.3292664452</v>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>39.283828266</v>
+        <v>46.3403961164</v>
+      </c>
+      <c r="D70" t="n">
+        <v>42.3563162243</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="n">
-        <v>62.3996992061</v>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>53.5489331441</v>
+        <v>38.1865768941</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34.7378410674</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="n">
-        <v>38.264264459</v>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>34.9990045427</v>
+        <v>38.3736187101</v>
+      </c>
+      <c r="D72" t="n">
+        <v>35.0990271091</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="n">
-        <v>48.6136357397</v>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>34.7069811027</v>
+        <v>33.7185272711</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30.6452351698</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="n">
-        <v>37.7001536589</v>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>35.0900445997</v>
+        <v>30.175515854</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26.9865540509</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="n">
-        <v>50.170133483</v>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>45.7109452345</v>
+        <v>55.5047631169</v>
+      </c>
+      <c r="D75" t="n">
+        <v>50.9644728489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="n">
-        <v>33.9096310154</v>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>31.8666338377</v>
+        <v>53.6034598564</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47.6012439631</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="n">
-        <v>30.175515854</v>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>26.9865540509</v>
+        <v>30.8937643791</v>
+      </c>
+      <c r="D77" t="n">
+        <v>28.2587200376</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="n">
-        <v>34.6598403598</v>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>28.7985205863</v>
+        <v>39.5089108873</v>
+      </c>
+      <c r="D78" t="n">
+        <v>35.4770512252</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="n">
-        <v>33.7706426979</v>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>31.7293108374</v>
+        <v>64.1448167486</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.7290584358</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="n">
-        <v>30.4958429862</v>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>27.7181288297</v>
+        <v>50.7087240891</v>
+      </c>
+      <c r="D80" t="n">
+        <v>45.354567398</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="n">
-        <v>77.1044155084</v>
-      </c>
-      <c r="C81" t="n">
-        <v>73.0399507305</v>
-      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="n">
-        <v>42.9912107641</v>
-      </c>
-      <c r="C82" t="n">
-        <v>38.2923441473</v>
-      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="n">
-        <v>53.0001013397</v>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>39.3053881759</v>
+        <v>47.2455985635</v>
+      </c>
+      <c r="D83" t="n">
+        <v>43.5944543473</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="n">
-        <v>45.4487614277</v>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>41.7204688765</v>
+        <v>49.7137533334</v>
+      </c>
+      <c r="D84" t="n">
+        <v>45.1264783767</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="n">
-        <v>58.6924892866</v>
-      </c>
-      <c r="C85" t="n">
-        <v>37.3013863325</v>
-      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="n">
-        <v>40.4965852852</v>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>36.9569237374</v>
-      </c>
+        <v>50.5149695399</v>
+      </c>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="n">
-        <v>36.1553945438</v>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>32.6381419871</v>
+        <v>80.0730628857</v>
+      </c>
+      <c r="D87" t="n">
+        <v>69.5159998047</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="n">
-        <v>66.3730882999</v>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>59.7753789749</v>
+        <v>36.0794271653</v>
+      </c>
+      <c r="D88" t="n">
+        <v>32.6731289608</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="n">
-        <v>62.4865022959</v>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>57.3907619765</v>
+        <v>48.3174512628</v>
+      </c>
+      <c r="D89" t="n">
+        <v>44.5080855358</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="n">
-        <v>38.8390550495</v>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>35.3720508239</v>
+        <v>35.1680709238</v>
+      </c>
+      <c r="D90" t="n">
+        <v>31.9076881115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="n">
-        <v>47.1401353603</v>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>43.2355988831</v>
+        <v>34.9881255828</v>
+      </c>
+      <c r="D91" t="n">
+        <v>32.176195937</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="n">
-        <v>37.2318788419</v>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>34.1816707717</v>
+        <v>45.4487614277</v>
+      </c>
+      <c r="D92" t="n">
+        <v>41.7204688765</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="n">
-        <v>42.986101587</v>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>41.3955059724</v>
+        <v>32.4061903448</v>
+      </c>
+      <c r="D93" t="n">
+        <v>29.6693382242</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="n">
-        <v>35.3583151809</v>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>32.2973588142</v>
+        <v>33.7346240302</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30.5331931991</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="n">
-        <v>50.3990621722</v>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>45.5620006337</v>
+        <v>77.4218403932</v>
+      </c>
+      <c r="D95" t="n">
+        <v>72.9375832549</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="n">
-        <v>53.6034598564</v>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>47.6012439631</v>
+        <v>50.9744222261</v>
+      </c>
+      <c r="D96" t="n">
+        <v>46.575126381</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="n">
-        <v>64.1448167486</v>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>57.7290584358</v>
+        <v>58.6924892866</v>
+      </c>
+      <c r="D97" t="n">
+        <v>37.3013863325</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="n">
-        <v>50.9744222261</v>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>46.575126381</v>
+        <v>40.4965852852</v>
+      </c>
+      <c r="D98" t="n">
+        <v>36.9569237374</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="n">
-        <v>61.2576228985</v>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>55.8267235913</v>
+        <v>34.6598403598</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.7985205863</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="n">
-        <v>34.2404785875</v>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>31.3015776781</v>
+        <v>33.7585027077</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30.3083227629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="n">
-        <v>51.9865852087</v>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>50.0234232631</v>
+        <v>31.2925012382</v>
+      </c>
+      <c r="D101" t="n">
+        <v>28.9683682109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="n">
-        <v>33.595291025</v>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>22.1759332702</v>
+        <v>48.3574821616</v>
+      </c>
+      <c r="D102" t="n">
+        <v>44.1199613223</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="n">
-        <v>43.4775774136</v>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>35.1471054564</v>
+        <v>53.0095929493</v>
+      </c>
+      <c r="D103" t="n">
+        <v>48.5600923451</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="n">
-        <v>51.0707125501</v>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>46.4147847033</v>
+        <v>61.2576228985</v>
+      </c>
+      <c r="D104" t="n">
+        <v>55.8267235913</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="n">
-        <v>42.408416761</v>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>39.4894396243</v>
+        <v>30.4253469448</v>
+      </c>
+      <c r="D105" t="n">
+        <v>27.5929114141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="n">
-        <v>36.6725181925</v>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>39.1361917858</v>
+        <v>55.9339982599</v>
+      </c>
+      <c r="D106" t="n">
+        <v>51.1601623929</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="n">
-        <v>47.8774706085</v>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>50.773707436</v>
+        <v>39.6179519068</v>
+      </c>
+      <c r="D107" t="n">
+        <v>36.1057249072</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="n">
-        <v>35.1577880313</v>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>30.5115471628</v>
+        <v>38.3233222138</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.220897922</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="n">
-        <v>33.3495880269</v>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>33.5400226965</v>
+        <v>49.0275158865</v>
+      </c>
+      <c r="D109" t="n">
+        <v>45.7926728789</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="n">
-        <v>50.7087240891</v>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>45.354567398</v>
+        <v>26.4038677433</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24.1957836433</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="n">
-        <v>77.4218403932</v>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>72.9375832549</v>
+        <v>60.8680706851</v>
+      </c>
+      <c r="D111" t="n">
+        <v>61.8714911682</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="n">
-        <v>53.0095929493</v>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>48.5600923451</v>
+        <v>43.3292664452</v>
+      </c>
+      <c r="D112" t="n">
+        <v>39.283828266</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="n">
-        <v>55.9339982599</v>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>51.1601623929</v>
+        <v>36.1553945438</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.6381419871</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,340 +31,676 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,3312 +1206,3760 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>153.9426273931</v>
+        <v>62.3996992061</v>
       </c>
       <c r="E2" t="n">
-        <v>520708.186</v>
+        <v>211065.8674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>137.1375489939</v>
+        <v>53.5489331441</v>
       </c>
       <c r="E3" t="n">
-        <v>507141.9909</v>
+        <v>198026.8188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>51.1402127547</v>
+      </c>
+      <c r="E4" t="n">
+        <v>172980.8557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>47.1339874166</v>
+      </c>
+      <c r="E5" t="n">
+        <v>174304.0064</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>57.5171663288</v>
+        <v>33.7706426979</v>
       </c>
       <c r="E6" t="n">
-        <v>194550.7872</v>
+        <v>114228.5954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7948269335</v>
+        <v>31.7293108374</v>
       </c>
       <c r="E7" t="n">
-        <v>195238.0937</v>
+        <v>117336.6885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>46.3403961164</v>
+        <v>30.4958429862</v>
       </c>
       <c r="E8" t="n">
-        <v>156745.5617</v>
+        <v>103151.6439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3563162243</v>
+        <v>27.7181288297</v>
       </c>
       <c r="E9" t="n">
-        <v>156635.9228</v>
+        <v>102503.1229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5047631169</v>
+        <v>38.264264459</v>
       </c>
       <c r="E10" t="n">
-        <v>187743.8693</v>
+        <v>129428.1907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>50.9644728489</v>
+        <v>34.9990045427</v>
       </c>
       <c r="E11" t="n">
-        <v>188469.3464</v>
+        <v>129428.1907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>49.7137533334</v>
+        <v>77.1044155084</v>
       </c>
       <c r="E12" t="n">
-        <v>168155.8822</v>
+        <v>260804.3075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1264783767</v>
+        <v>73.0399507305</v>
       </c>
       <c r="E13" t="n">
-        <v>166880.1306</v>
+        <v>270105.6443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>26.8204782312</v>
+      </c>
+      <c r="E14" t="n">
+        <v>90719.7883</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>24.6580251407</v>
+      </c>
+      <c r="E15" t="n">
+        <v>91186.69579</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5149695399</v>
+        <v>48.6136357397</v>
       </c>
       <c r="E16" t="n">
-        <v>170865.9817</v>
+        <v>164434.7541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" t="n">
+        <v>34.7069811027</v>
+      </c>
+      <c r="E17" t="n">
+        <v>128348.2724</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>48.3174512628</v>
+        <v>32.3500539063</v>
       </c>
       <c r="E18" t="n">
-        <v>163432.9154</v>
+        <v>109423.4792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>44.5080855358</v>
+        <v>29.0378617705</v>
       </c>
       <c r="E19" t="n">
-        <v>164593.2808</v>
+        <v>107383.5659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>48.3574821616</v>
+        <v>31.2956643295</v>
       </c>
       <c r="E20" t="n">
-        <v>163568.3192</v>
+        <v>105857.0253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>44.1199613223</v>
+        <v>28.5602663794</v>
       </c>
       <c r="E21" t="n">
-        <v>163157.9767</v>
+        <v>105617.3926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>49.0275158865</v>
+        <v>29.2048916866</v>
       </c>
       <c r="E22" t="n">
-        <v>165834.6963</v>
+        <v>98785.0242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>45.7926728789</v>
+        <v>26.7127129411</v>
       </c>
       <c r="E23" t="n">
-        <v>169343.7535</v>
+        <v>98785.04117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>42.1759486296</v>
+        <v>40.7310081646</v>
       </c>
       <c r="E24" t="n">
-        <v>142659.3925</v>
+        <v>137771.9072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>38.5198198189</v>
+        <v>34.4084142743</v>
       </c>
       <c r="E25" t="n">
-        <v>142448.3539</v>
+        <v>127244.1563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>60.8680706851</v>
+        <v>28.4454870978</v>
       </c>
       <c r="E26" t="n">
-        <v>205885.1613</v>
+        <v>96216.35175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
-      <c r="D27" t="n">
-        <v>61.8714911682</v>
-      </c>
-      <c r="E27" t="n">
-        <v>228804.0835</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>38.3736187101</v>
+        <v>47.8774706085</v>
       </c>
       <c r="E28" t="n">
-        <v>129798.0795</v>
+        <v>161944.6887</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0990271091</v>
+        <v>50.773707436</v>
       </c>
       <c r="E29" t="n">
-        <v>129798.0795</v>
+        <v>187763.8857</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>48.7454332136</v>
+      </c>
+      <c r="E30" t="n">
+        <v>164880.5567</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>44.5975603099</v>
+      </c>
+      <c r="E31" t="n">
+        <v>164924.1633</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>36.0794271653</v>
+        <v>41.9055783911</v>
       </c>
       <c r="E32" t="n">
-        <v>122038.0176</v>
+        <v>141744.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>32.6731289608</v>
+        <v>38.3268260445</v>
       </c>
       <c r="E33" t="n">
-        <v>120826.9784</v>
+        <v>141734.6526</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>48.7454332136</v>
+        <v>26.9976911971</v>
       </c>
       <c r="E34" t="n">
-        <v>164880.5567</v>
+        <v>91319.20799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>44.5975603099</v>
+        <v>30.6554396733</v>
       </c>
       <c r="E35" t="n">
-        <v>164924.1633</v>
+        <v>113365.4555</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>26.9976911971</v>
+        <v>53.9879213112</v>
       </c>
       <c r="E36" t="n">
-        <v>91319.20799</v>
+        <v>182613.179</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>30.6554396733</v>
+        <v>49.1984659949</v>
       </c>
       <c r="E37" t="n">
-        <v>113365.4555</v>
+        <v>181938.5586</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>53.2001209035</v>
+        <v>32.2922377545</v>
       </c>
       <c r="E38" t="n">
-        <v>179948.4582</v>
+        <v>109227.9171</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>49.6911729035</v>
+        <v>30.0369145737</v>
       </c>
       <c r="E39" t="n">
-        <v>183760.6151</v>
+        <v>111078.1166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>44.4397484987</v>
+        <v>43.4775774136</v>
       </c>
       <c r="E40" t="n">
-        <v>150316.6551</v>
+        <v>147062.1286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>39.8483949519</v>
+        <v>35.1471054564</v>
       </c>
       <c r="E41" t="n">
-        <v>147361.4958</v>
+        <v>129975.8758</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>42.1149329931</v>
+        <v>66.3730882999</v>
       </c>
       <c r="E42" t="n">
-        <v>142453.0082</v>
+        <v>224505.785</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>37.8249898196</v>
+        <v>59.7753789749</v>
       </c>
       <c r="E43" t="n">
-        <v>139878.8354</v>
+        <v>221052.5485</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>39.9658532867</v>
+        <v>62.4865022959</v>
       </c>
       <c r="E44" t="n">
-        <v>135183.7845</v>
+        <v>211359.4773</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>36.9229126825</v>
+        <v>57.3907619765</v>
       </c>
       <c r="E45" t="n">
-        <v>136542.9059</v>
+        <v>212234.1073</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>51.4221234533</v>
+        <v>31.5423421147</v>
       </c>
       <c r="E46" t="n">
-        <v>173934.4136</v>
+        <v>106691.4085</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>47.1966998682</v>
+        <v>28.8950503422</v>
       </c>
       <c r="E47" t="n">
-        <v>174535.9204</v>
+        <v>106855.4416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>38.1865768941</v>
+        <v>32.0488684864</v>
       </c>
       <c r="E48" t="n">
-        <v>129165.4139</v>
+        <v>108404.7249</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>34.7378410674</v>
+        <v>29.3139926875</v>
       </c>
       <c r="E49" t="n">
-        <v>128462.3942</v>
+        <v>108404.7128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>28.4454870978</v>
+        <v>53.2001209035</v>
       </c>
       <c r="E50" t="n">
-        <v>96216.35175</v>
+        <v>179948.4582</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="D51" t="n">
+        <v>49.6911729035</v>
+      </c>
+      <c r="E51" t="n">
+        <v>183760.6151</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>31.5423421147</v>
+        <v>44.4397484987</v>
       </c>
       <c r="E52" t="n">
-        <v>106691.4085</v>
+        <v>150316.6551</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>28.8950503422</v>
+        <v>39.8483949519</v>
       </c>
       <c r="E53" t="n">
-        <v>106855.4416</v>
+        <v>147361.4958</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>57.8944718848</v>
+        <v>33.5265103216</v>
       </c>
       <c r="E54" t="n">
-        <v>195827.0165</v>
+        <v>113402.822</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>52.4019649573</v>
+        <v>30.5910920372</v>
       </c>
       <c r="E55" t="n">
-        <v>193785.2691</v>
+        <v>113127.4945</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>66.690790821</v>
+        <v>37.7001536589</v>
       </c>
       <c r="E56" t="n">
-        <v>225580.4081</v>
+        <v>127520.096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>58.4424661004</v>
+        <v>35.0900445997</v>
       </c>
       <c r="E57" t="n">
-        <v>216123.3654</v>
+        <v>129764.8617</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>38.5309006054</v>
+        <v>42.1149329931</v>
       </c>
       <c r="E58" t="n">
-        <v>130330.0827</v>
+        <v>142453.0082</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>35.3034750986</v>
+        <v>37.8249898196</v>
       </c>
       <c r="E59" t="n">
-        <v>130554.1391</v>
+        <v>139878.8354</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>44.0868696498</v>
+        <v>52.9602658003</v>
       </c>
       <c r="E60" t="n">
-        <v>149123.0487</v>
+        <v>179137.1526</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>39.8384648089</v>
+        <v>43.3579515483</v>
       </c>
       <c r="E61" t="n">
-        <v>147324.7736</v>
+        <v>160340.0238</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>28.8191525074</v>
+        <v>38.8390550495</v>
       </c>
       <c r="E62" t="n">
-        <v>97480.26832</v>
+        <v>131372.4096</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>26.3240053289</v>
+        <v>35.3720508239</v>
       </c>
       <c r="E63" t="n">
-        <v>97347.57963</v>
+        <v>130807.7358</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>31.774358093</v>
+        <v>51.0707125501</v>
       </c>
       <c r="E64" t="n">
-        <v>107476.1984</v>
+        <v>172745.7725</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>27.984510672</v>
+        <v>46.4147847033</v>
       </c>
       <c r="E65" t="n">
-        <v>103488.2172</v>
+        <v>171644.3563</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>39.5089108873</v>
+        <v>57.8944718848</v>
       </c>
       <c r="E66" t="n">
-        <v>133638.185</v>
+        <v>195827.0165</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>35.4770512252</v>
+        <v>52.4019649573</v>
       </c>
       <c r="E67" t="n">
-        <v>131196.0329</v>
+        <v>193785.2691</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>31.2925012382</v>
+        <v>42.408416761</v>
       </c>
       <c r="E68" t="n">
-        <v>105846.3262</v>
+        <v>143445.7118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>28.9683682109</v>
+        <v>39.4894396243</v>
       </c>
       <c r="E69" t="n">
-        <v>107126.575</v>
+        <v>146034.0598</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>38.3233222138</v>
+        <v>66.690790821</v>
       </c>
       <c r="E70" t="n">
-        <v>129627.9525</v>
+        <v>225580.4081</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>34.220897922</v>
+        <v>58.4424661004</v>
       </c>
       <c r="E71" t="n">
-        <v>126550.7108</v>
+        <v>216123.3654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>26.4038677433</v>
+        <v>50.170133483</v>
       </c>
       <c r="E72" t="n">
-        <v>89310.61077</v>
+        <v>169699.5799</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>24.1957836433</v>
+        <v>45.7109452345</v>
       </c>
       <c r="E73" t="n">
-        <v>89477.30201</v>
+        <v>169041.5203</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>28.6562165364</v>
+        <v>47.1401353603</v>
       </c>
       <c r="E74" t="n">
-        <v>96929.14031</v>
+        <v>159450.6654</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>26.1353532115</v>
+        <v>43.2355988831</v>
       </c>
       <c r="E75" t="n">
-        <v>96649.93401</v>
+        <v>159887.5571</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>30.8937643791</v>
+        <v>37.2318788419</v>
       </c>
       <c r="E76" t="n">
-        <v>104497.6059</v>
+        <v>125936.1648</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>28.2587200376</v>
+        <v>34.1816707717</v>
       </c>
       <c r="E77" t="n">
-        <v>104502.2581</v>
+        <v>126405.6467</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>39.6179519068</v>
+        <v>28.6562165364</v>
       </c>
       <c r="E78" t="n">
-        <v>134007.0143</v>
+        <v>96929.14031</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>36.1057249072</v>
+        <v>26.1353532115</v>
       </c>
       <c r="E79" t="n">
-        <v>133520.9018</v>
+        <v>96649.93401</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>26.8204782312</v>
+        <v>153.9426273931</v>
       </c>
       <c r="E80" t="n">
-        <v>90719.7883</v>
+        <v>520708.186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>24.6580251407</v>
+        <v>137.1375489939</v>
       </c>
       <c r="E81" t="n">
-        <v>91186.69579</v>
+        <v>507141.9909</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>29.2048916866</v>
+        <v>39.3227551957</v>
       </c>
       <c r="E82" t="n">
-        <v>98785.0242</v>
+        <v>133008.5167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>26.7127129411</v>
+        <v>35.9922001564</v>
       </c>
       <c r="E83" t="n">
-        <v>98785.04117</v>
+        <v>133101.0812</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>40.7310081646</v>
+        <v>39.9658532867</v>
       </c>
       <c r="E84" t="n">
-        <v>137771.9072</v>
+        <v>135183.7845</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>34.4084142743</v>
+        <v>36.9229126825</v>
       </c>
       <c r="E85" t="n">
-        <v>127244.1563</v>
+        <v>136542.9059</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>41.9055783911</v>
-      </c>
-      <c r="E86" t="n">
-        <v>141744.87</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>38.3268260445</v>
-      </c>
-      <c r="E87" t="n">
-        <v>141734.6526</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>53.9879213112</v>
+        <v>38.5309006054</v>
       </c>
       <c r="E88" t="n">
-        <v>182613.179</v>
+        <v>130330.0827</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>49.1984659949</v>
+        <v>35.3034750986</v>
       </c>
       <c r="E89" t="n">
-        <v>181938.5586</v>
+        <v>130554.1391</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>32.0488684864</v>
+        <v>34.2404785875</v>
       </c>
       <c r="E90" t="n">
-        <v>108404.7249</v>
+        <v>115817.8069</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>29.3139926875</v>
+        <v>31.3015776781</v>
       </c>
       <c r="E91" t="n">
-        <v>108404.7128</v>
+        <v>115754.9084</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>39.3227551957</v>
+        <v>51.9865852087</v>
       </c>
       <c r="E92" t="n">
-        <v>133008.5167</v>
+        <v>175843.6954</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>35.9922001564</v>
+        <v>50.0234232631</v>
       </c>
       <c r="E93" t="n">
-        <v>133101.0812</v>
+        <v>184989.2947</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>33.7185272711</v>
+        <v>44.0868696498</v>
       </c>
       <c r="E94" t="n">
-        <v>114052.3159</v>
+        <v>149123.0487</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>30.6452351698</v>
+        <v>39.8384648089</v>
       </c>
       <c r="E95" t="n">
-        <v>113327.7187</v>
+        <v>147324.7736</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>34.9881255828</v>
+        <v>42.986101587</v>
       </c>
       <c r="E96" t="n">
-        <v>118346.7095</v>
+        <v>145399.7204</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>32.176195937</v>
+        <v>41.3955059724</v>
       </c>
       <c r="E97" t="n">
-        <v>118989.2935</v>
+        <v>153082.7951</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>32.2922377545</v>
+        <v>28.8191525074</v>
       </c>
       <c r="E98" t="n">
-        <v>109227.9171</v>
+        <v>97480.26832</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>30.0369145737</v>
+        <v>26.3240053289</v>
       </c>
       <c r="E99" t="n">
-        <v>111078.1166</v>
+        <v>97347.57963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>33.5265103216</v>
+        <v>42.1759486296</v>
       </c>
       <c r="E100" t="n">
-        <v>113402.822</v>
+        <v>142659.3925</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>30.5910920372</v>
+        <v>38.5198198189</v>
       </c>
       <c r="E101" t="n">
-        <v>113127.4945</v>
+        <v>142448.3539</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>42.0300766689</v>
+        <v>35.3583151809</v>
       </c>
       <c r="E102" t="n">
-        <v>142165.9832</v>
+        <v>119598.8692</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>38.0060323607</v>
+        <v>32.2973588142</v>
       </c>
       <c r="E103" t="n">
-        <v>140548.3404</v>
+        <v>119437.3603</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>43.4346117468</v>
+        <v>57.5171663288</v>
       </c>
       <c r="E104" t="n">
-        <v>146916.798</v>
+        <v>194550.7872</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>34.4755372083</v>
+        <v>52.7948269335</v>
       </c>
       <c r="E105" t="n">
-        <v>127492.3805</v>
+        <v>195238.0937</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>42.0300766689</v>
+      </c>
+      <c r="E106" t="n">
+        <v>142165.9832</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>38.0060323607</v>
+      </c>
+      <c r="E107" t="n">
+        <v>140548.3404</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>35.1680709238</v>
+        <v>36.6725181925</v>
       </c>
       <c r="E108" t="n">
-        <v>118955.3714</v>
+        <v>124044.1374</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>31.9076881115</v>
+        <v>39.1361917858</v>
       </c>
       <c r="E109" t="n">
-        <v>117996.3372</v>
+        <v>144727.7304</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>33.7346240302</v>
+        <v>35.1577880313</v>
       </c>
       <c r="E110" t="n">
-        <v>114106.7629</v>
+        <v>118920.5897</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>30.5331931991</v>
+        <v>30.5115471628</v>
       </c>
       <c r="E111" t="n">
-        <v>112913.3815</v>
+        <v>112833.3333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>30.4253469448</v>
+        <v>50.3990621722</v>
       </c>
       <c r="E112" t="n">
-        <v>102913.1923</v>
+        <v>170473.9271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5929114141</v>
+        <v>45.5620006337</v>
       </c>
       <c r="E113" t="n">
-        <v>102040.0622</v>
+        <v>168490.7152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>51.1402127547</v>
+        <v>35.6107584955</v>
       </c>
       <c r="E114" t="n">
-        <v>172980.8557</v>
+        <v>120452.7542</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>47.1339874166</v>
+        <v>32.8519865416</v>
       </c>
       <c r="E115" t="n">
-        <v>174304.0064</v>
+        <v>121488.4033</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>32.3500539063</v>
+        <v>33.9096310154</v>
       </c>
       <c r="E116" t="n">
-        <v>109423.4792</v>
+        <v>114698.7209</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>29.0378617705</v>
+        <v>31.8666338377</v>
       </c>
       <c r="E117" t="n">
-        <v>107383.5659</v>
+        <v>117844.5163</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>31.2956643295</v>
+        <v>42.9912107641</v>
       </c>
       <c r="E118" t="n">
-        <v>105857.0253</v>
+        <v>145417.0021</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>28.5602663794</v>
+        <v>38.2923441473</v>
       </c>
       <c r="E119" t="n">
-        <v>105617.3926</v>
+        <v>141607.1367</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>52.9602658003</v>
+        <v>52.7989191977</v>
       </c>
       <c r="E120" t="n">
-        <v>179137.1526</v>
+        <v>178591.4006</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>43.3579515483</v>
+        <v>53.7233078531</v>
       </c>
       <c r="E121" t="n">
-        <v>160340.0238</v>
+        <v>198671.6658</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>35.6107584955</v>
+        <v>31.774358093</v>
       </c>
       <c r="E122" t="n">
-        <v>120452.7542</v>
+        <v>107476.1984</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>32.8519865416</v>
+        <v>27.984510672</v>
       </c>
       <c r="E123" t="n">
-        <v>121488.4033</v>
+        <v>103488.2172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>52.7989191977</v>
+        <v>43.4346117468</v>
       </c>
       <c r="E124" t="n">
-        <v>178591.4006</v>
+        <v>146916.798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>53.7233078531</v>
+        <v>34.4755372083</v>
       </c>
       <c r="E125" t="n">
-        <v>198671.6658</v>
+        <v>127492.3805</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>36.879459005</v>
+        <v>51.4221234533</v>
       </c>
       <c r="E126" t="n">
-        <v>124744.111</v>
+        <v>173934.4136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>33.8830701417</v>
+        <v>47.1966998682</v>
       </c>
       <c r="E127" t="n">
-        <v>125301.4056</v>
+        <v>174535.9204</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>33.3495880269</v>
+      </c>
+      <c r="E128" t="n">
+        <v>112804.3855</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>33.5400226965</v>
+      </c>
+      <c r="E129" t="n">
+        <v>124032.7978</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>47.2455985635</v>
+        <v>33.595291025</v>
       </c>
       <c r="E130" t="n">
-        <v>159807.3928</v>
+        <v>113635.4715</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>43.5944543473</v>
+        <v>22.1759332702</v>
       </c>
       <c r="E131" t="n">
-        <v>161214.6238</v>
+        <v>82007.7873</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>32.4061903448</v>
+        <v>53.0001013397</v>
       </c>
       <c r="E132" t="n">
-        <v>109613.3597</v>
+        <v>179271.8956</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>29.6693382242</v>
+        <v>39.3053881759</v>
       </c>
       <c r="E133" t="n">
-        <v>109718.7996</v>
+        <v>145353.4277</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>80.0730628857</v>
+        <v>36.879459005</v>
       </c>
       <c r="E134" t="n">
-        <v>270845.7042</v>
+        <v>124744.111</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>69.5159998047</v>
+        <v>33.8830701417</v>
       </c>
       <c r="E135" t="n">
-        <v>257073.8853</v>
+        <v>125301.4056</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>33.7585027077</v>
-      </c>
-      <c r="E136" t="n">
-        <v>114187.5321</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>30.3083227629</v>
-      </c>
-      <c r="E137" t="n">
-        <v>112081.7986</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>43.3292664452</v>
+        <v>46.3403961164</v>
       </c>
       <c r="E138" t="n">
-        <v>146560.4694</v>
+        <v>156745.5617</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>39.283828266</v>
+        <v>42.3563162243</v>
       </c>
       <c r="E139" t="n">
-        <v>145273.698</v>
+        <v>156635.9228</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>62.3996992061</v>
+        <v>38.1865768941</v>
       </c>
       <c r="E140" t="n">
-        <v>211065.8674</v>
+        <v>129165.4139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>53.5489331441</v>
+        <v>34.7378410674</v>
       </c>
       <c r="E141" t="n">
-        <v>198026.8188</v>
+        <v>128462.3942</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>38.264264459</v>
+        <v>38.3736187101</v>
       </c>
       <c r="E142" t="n">
-        <v>129428.1907</v>
+        <v>129798.0795</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>34.9990045427</v>
+        <v>35.0990271091</v>
       </c>
       <c r="E143" t="n">
-        <v>129428.1907</v>
+        <v>129798.0795</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>48.6136357397</v>
+        <v>33.7185272711</v>
       </c>
       <c r="E144" t="n">
-        <v>164434.7541</v>
+        <v>114052.3159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>34.7069811027</v>
+        <v>30.6452351698</v>
       </c>
       <c r="E145" t="n">
-        <v>128348.2724</v>
+        <v>113327.7187</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>37.7001536589</v>
+        <v>30.175515854</v>
       </c>
       <c r="E146" t="n">
-        <v>127520.096</v>
+        <v>102068.1431</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>35.0900445997</v>
+        <v>26.9865540509</v>
       </c>
       <c r="E147" t="n">
-        <v>129764.8617</v>
+        <v>99797.72024</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>50.170133483</v>
+        <v>55.5047631169</v>
       </c>
       <c r="E148" t="n">
-        <v>169699.5799</v>
+        <v>187743.8693</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>45.7109452345</v>
+        <v>50.9644728489</v>
       </c>
       <c r="E149" t="n">
-        <v>169041.5203</v>
+        <v>188469.3464</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>33.9096310154</v>
+        <v>53.6034598564</v>
       </c>
       <c r="E150" t="n">
-        <v>114698.7209</v>
+        <v>181312.745</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>31.8666338377</v>
+        <v>47.6012439631</v>
       </c>
       <c r="E151" t="n">
-        <v>117844.5163</v>
+        <v>176031.9461</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>30.175515854</v>
+        <v>30.8937643791</v>
       </c>
       <c r="E152" t="n">
-        <v>102068.1431</v>
+        <v>104497.6059</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>26.9865540509</v>
+        <v>28.2587200376</v>
       </c>
       <c r="E153" t="n">
-        <v>99797.72024</v>
+        <v>104502.2581</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>34.6598403598</v>
+        <v>39.5089108873</v>
       </c>
       <c r="E154" t="n">
-        <v>117236.2906</v>
+        <v>133638.185</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>28.7985205863</v>
+        <v>35.4770512252</v>
       </c>
       <c r="E155" t="n">
-        <v>106498.4694</v>
+        <v>131196.0329</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>33.7706426979</v>
+        <v>64.1448167486</v>
       </c>
       <c r="E156" t="n">
-        <v>114228.5954</v>
+        <v>216968.6963</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>31.7293108374</v>
+        <v>57.7290584358</v>
       </c>
       <c r="E157" t="n">
-        <v>117336.6885</v>
+        <v>213485.1457</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>30.4958429862</v>
+        <v>50.7087240891</v>
       </c>
       <c r="E158" t="n">
-        <v>103151.6439</v>
+        <v>171521.353</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>27.7181288297</v>
+        <v>45.354567398</v>
       </c>
       <c r="E159" t="n">
-        <v>102503.1229</v>
+        <v>167723.616</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>77.1044155084</v>
-      </c>
-      <c r="E160" t="n">
-        <v>260804.3075</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>73.0399507305</v>
-      </c>
-      <c r="E161" t="n">
-        <v>270105.6443</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>42.9912107641</v>
-      </c>
-      <c r="E162" t="n">
-        <v>145417.0021</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>38.2923441473</v>
-      </c>
-      <c r="E163" t="n">
-        <v>141607.1367</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>53.0001013397</v>
+        <v>47.2455985635</v>
       </c>
       <c r="E164" t="n">
-        <v>179271.8956</v>
+        <v>159807.3928</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>39.3053881759</v>
+        <v>43.5944543473</v>
       </c>
       <c r="E165" t="n">
-        <v>145353.4277</v>
+        <v>161214.6238</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>45.4487614277</v>
+        <v>49.7137533334</v>
       </c>
       <c r="E166" t="n">
-        <v>153729.6233</v>
+        <v>168155.8822</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>41.7204688765</v>
+        <v>45.1264783767</v>
       </c>
       <c r="E167" t="n">
-        <v>154284.5253</v>
+        <v>166880.1306</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>58.6924892866</v>
-      </c>
-      <c r="E168" t="n">
-        <v>198526.2961</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>37.3013863325</v>
-      </c>
-      <c r="E169" t="n">
-        <v>137942.5217</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>40.4965852852</v>
+        <v>50.5149695399</v>
       </c>
       <c r="E170" t="n">
-        <v>136978.976</v>
+        <v>170865.9817</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
-      <c r="D171" t="n">
-        <v>36.9569237374</v>
-      </c>
-      <c r="E171" t="n">
-        <v>136668.6806</v>
-      </c>
+      <c r="D171"/>
+      <c r="E171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>36.1553945438</v>
+        <v>80.0730628857</v>
       </c>
       <c r="E172" t="n">
-        <v>122294.9759</v>
+        <v>270845.7042</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>32.6381419871</v>
+        <v>69.5159998047</v>
       </c>
       <c r="E173" t="n">
-        <v>120697.5947</v>
+        <v>257073.8853</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>66.3730882999</v>
+        <v>36.0794271653</v>
       </c>
       <c r="E174" t="n">
-        <v>224505.785</v>
+        <v>122038.0176</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>59.7753789749</v>
+        <v>32.6731289608</v>
       </c>
       <c r="E175" t="n">
-        <v>221052.5485</v>
+        <v>120826.9784</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>62.4865022959</v>
+        <v>48.3174512628</v>
       </c>
       <c r="E176" t="n">
-        <v>211359.4773</v>
+        <v>163432.9154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>57.3907619765</v>
+        <v>44.5080855358</v>
       </c>
       <c r="E177" t="n">
-        <v>212234.1073</v>
+        <v>164593.2808</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>38.8390550495</v>
+        <v>35.1680709238</v>
       </c>
       <c r="E178" t="n">
-        <v>131372.4096</v>
+        <v>118955.3714</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>35.3720508239</v>
+        <v>31.9076881115</v>
       </c>
       <c r="E179" t="n">
-        <v>130807.7358</v>
+        <v>117996.3372</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>47.1401353603</v>
+        <v>34.9881255828</v>
       </c>
       <c r="E180" t="n">
-        <v>159450.6654</v>
+        <v>118346.7095</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>43.2355988831</v>
+        <v>32.176195937</v>
       </c>
       <c r="E181" t="n">
-        <v>159887.5571</v>
+        <v>118989.2935</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>37.2318788419</v>
+        <v>45.4487614277</v>
       </c>
       <c r="E182" t="n">
-        <v>125936.1648</v>
+        <v>153729.6233</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>34.1816707717</v>
+        <v>41.7204688765</v>
       </c>
       <c r="E183" t="n">
-        <v>126405.6467</v>
+        <v>154284.5253</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>42.986101587</v>
+        <v>32.4061903448</v>
       </c>
       <c r="E184" t="n">
-        <v>145399.7204</v>
+        <v>109613.3597</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>41.3955059724</v>
+        <v>29.6693382242</v>
       </c>
       <c r="E185" t="n">
-        <v>153082.7951</v>
+        <v>109718.7996</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>35.3583151809</v>
+        <v>33.7346240302</v>
       </c>
       <c r="E186" t="n">
-        <v>119598.8692</v>
+        <v>114106.7629</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>32.2973588142</v>
+        <v>30.5331931991</v>
       </c>
       <c r="E187" t="n">
-        <v>119437.3603</v>
+        <v>112913.3815</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>50.3990621722</v>
+        <v>77.4218403932</v>
       </c>
       <c r="E188" t="n">
-        <v>170473.9271</v>
+        <v>261877.9915</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>45.5620006337</v>
+        <v>72.9375832549</v>
       </c>
       <c r="E189" t="n">
-        <v>168490.7152</v>
+        <v>269727.0839</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>53.6034598564</v>
+        <v>50.9744222261</v>
       </c>
       <c r="E190" t="n">
-        <v>181312.745</v>
+        <v>172420.0722</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>47.6012439631</v>
+        <v>46.575126381</v>
       </c>
       <c r="E191" t="n">
-        <v>176031.9461</v>
+        <v>172237.3084</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>64.1448167486</v>
+        <v>58.6924892866</v>
       </c>
       <c r="E192" t="n">
-        <v>216968.6963</v>
+        <v>198526.2961</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>57.7290584358</v>
+        <v>37.3013863325</v>
       </c>
       <c r="E193" t="n">
-        <v>213485.1457</v>
+        <v>137942.5217</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>50.9744222261</v>
+        <v>40.4965852852</v>
       </c>
       <c r="E194" t="n">
-        <v>172420.0722</v>
+        <v>136978.976</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>46.575126381</v>
+        <v>36.9569237374</v>
       </c>
       <c r="E195" t="n">
-        <v>172237.3084</v>
+        <v>136668.6806</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>61.2576228985</v>
+        <v>34.6598403598</v>
       </c>
       <c r="E196" t="n">
-        <v>207202.8147</v>
+        <v>117236.2906</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>55.8267235913</v>
+        <v>28.7985205863</v>
       </c>
       <c r="E197" t="n">
-        <v>206450.2097</v>
+        <v>106498.4694</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>34.2404785875</v>
+        <v>33.7585027077</v>
       </c>
       <c r="E198" t="n">
-        <v>115817.8069</v>
+        <v>114187.5321</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>31.3015776781</v>
+        <v>30.3083227629</v>
       </c>
       <c r="E199" t="n">
-        <v>115754.9084</v>
+        <v>112081.7986</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>51.9865852087</v>
+        <v>31.2925012382</v>
       </c>
       <c r="E200" t="n">
-        <v>175843.6954</v>
+        <v>105846.3262</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>50.0234232631</v>
+        <v>28.9683682109</v>
       </c>
       <c r="E201" t="n">
-        <v>184989.2947</v>
+        <v>107126.575</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>33.595291025</v>
+        <v>48.3574821616</v>
       </c>
       <c r="E202" t="n">
-        <v>113635.4715</v>
+        <v>163568.3192</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>22.1759332702</v>
+        <v>44.1199613223</v>
       </c>
       <c r="E203" t="n">
-        <v>82007.7873</v>
+        <v>163157.9767</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>43.4775774136</v>
+        <v>53.0095929493</v>
       </c>
       <c r="E204" t="n">
-        <v>147062.1286</v>
+        <v>179304.0008</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>35.1471054564</v>
+        <v>48.5600923451</v>
       </c>
       <c r="E205" t="n">
-        <v>129975.8758</v>
+        <v>179577.8187</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>51.0707125501</v>
+        <v>61.2576228985</v>
       </c>
       <c r="E206" t="n">
-        <v>172745.7725</v>
+        <v>207202.8147</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>46.4147847033</v>
+        <v>55.8267235913</v>
       </c>
       <c r="E207" t="n">
-        <v>171644.3563</v>
+        <v>206450.2097</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>42.408416761</v>
+        <v>30.4253469448</v>
       </c>
       <c r="E208" t="n">
-        <v>143445.7118</v>
+        <v>102913.1923</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>39.4894396243</v>
+        <v>27.5929114141</v>
       </c>
       <c r="E209" t="n">
-        <v>146034.0598</v>
+        <v>102040.0622</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>36.6725181925</v>
+        <v>55.9339982599</v>
       </c>
       <c r="E210" t="n">
-        <v>124044.1374</v>
+        <v>189195.7495</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>39.1361917858</v>
+        <v>51.1601623929</v>
       </c>
       <c r="E211" t="n">
-        <v>144727.7304</v>
+        <v>189193.0168</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>47.8774706085</v>
+        <v>39.6179519068</v>
       </c>
       <c r="E212" t="n">
-        <v>161944.6887</v>
+        <v>134007.0143</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>50.773707436</v>
+        <v>36.1057249072</v>
       </c>
       <c r="E213" t="n">
-        <v>187763.8857</v>
+        <v>133520.9018</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>35.1577880313</v>
+        <v>38.3233222138</v>
       </c>
       <c r="E214" t="n">
-        <v>118920.5897</v>
+        <v>129627.9525</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>30.5115471628</v>
+        <v>34.220897922</v>
       </c>
       <c r="E215" t="n">
-        <v>112833.3333</v>
+        <v>126550.7108</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>33.3495880269</v>
+        <v>49.0275158865</v>
       </c>
       <c r="E216" t="n">
-        <v>112804.3855</v>
+        <v>165834.6963</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>33.5400226965</v>
+        <v>45.7926728789</v>
       </c>
       <c r="E217" t="n">
-        <v>124032.7978</v>
+        <v>169343.7535</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>50.7087240891</v>
+        <v>26.4038677433</v>
       </c>
       <c r="E218" t="n">
-        <v>171521.353</v>
+        <v>89310.61077</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>45.354567398</v>
+        <v>24.1957836433</v>
       </c>
       <c r="E219" t="n">
-        <v>167723.616</v>
+        <v>89477.30201</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>77.4218403932</v>
+        <v>60.8680706851</v>
       </c>
       <c r="E220" t="n">
-        <v>261877.9915</v>
+        <v>205885.1613</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>72.9375832549</v>
+        <v>61.8714911682</v>
       </c>
       <c r="E221" t="n">
-        <v>269727.0839</v>
+        <v>228804.0835</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>53.0095929493</v>
+        <v>43.3292664452</v>
       </c>
       <c r="E222" t="n">
-        <v>179304.0008</v>
+        <v>146560.4694</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>48.5600923451</v>
+        <v>39.283828266</v>
       </c>
       <c r="E223" t="n">
-        <v>179577.8187</v>
+        <v>145273.698</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>55.9339982599</v>
+        <v>36.1553945438</v>
       </c>
       <c r="E224" t="n">
-        <v>189195.7495</v>
+        <v>122294.9759</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>51.1601623929</v>
+        <v>32.6381419871</v>
       </c>
       <c r="E225" t="n">
-        <v>189193.0168</v>
+        <v>120697.5947</v>
       </c>
     </row>
   </sheetData>
@@ -4197,1218 +4981,1557 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>153.9426273931</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>137.1375489939</v>
+        <v>62.3996992061</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.5489331441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.1402127547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.1339874166</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>57.5171663288</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7948269335</v>
+        <v>33.7706426979</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.7293108374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>46.3403961164</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>42.3563162243</v>
+        <v>30.4958429862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.7181288297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>55.5047631169</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>50.9644728489</v>
+        <v>38.264264459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.9990045427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49.7137533334</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1264783767</v>
+        <v>77.1044155084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.0399507305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.8204782312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.6580251407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50.5149695399</v>
-      </c>
-      <c r="C9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.6136357397</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.7069811027</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>48.3174512628</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>44.5080855358</v>
+        <v>32.3500539063</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.0378617705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>48.3574821616</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1199613223</v>
+        <v>31.2956643295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.5602663794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>49.0275158865</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>45.7926728789</v>
+        <v>29.2048916866</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.7127129411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>42.1759486296</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5198198189</v>
+        <v>40.7310081646</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.4084142743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>60.8680706851</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>61.8714911682</v>
-      </c>
+        <v>28.4454870978</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>38.3736187101</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0990271091</v>
+        <v>47.8774706085</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50.773707436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>48.7454332136</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.5975603099</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>36.0794271653</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>32.6731289608</v>
+        <v>41.9055783911</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.3268260445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>48.7454332136</v>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>44.5975603099</v>
+        <v>26.9976911971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30.6554396733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>26.9976911971</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>30.6554396733</v>
+        <v>53.9879213112</v>
+      </c>
+      <c r="D19" t="n">
+        <v>49.1984659949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>53.2001209035</v>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>49.6911729035</v>
+        <v>32.2922377545</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30.0369145737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>44.4397484987</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>39.8483949519</v>
+        <v>43.4775774136</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35.1471054564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>42.1149329931</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>37.8249898196</v>
+        <v>66.3730882999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59.7753789749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>39.9658532867</v>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>36.9229126825</v>
+        <v>62.4865022959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57.3907619765</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>51.4221234533</v>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>47.1966998682</v>
+        <v>31.5423421147</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28.8950503422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>38.1865768941</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>34.7378410674</v>
+        <v>32.0488684864</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.3139926875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>28.4454870978</v>
-      </c>
-      <c r="C26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53.2001209035</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.6911729035</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>31.5423421147</v>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>28.8950503422</v>
+        <v>44.4397484987</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39.8483949519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>57.8944718848</v>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>52.4019649573</v>
+        <v>33.5265103216</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30.5910920372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>66.690790821</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>58.4424661004</v>
+        <v>37.7001536589</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.0900445997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>38.5309006054</v>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>35.3034750986</v>
+        <v>42.1149329931</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.8249898196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>44.0868696498</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>39.8384648089</v>
+        <v>52.9602658003</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43.3579515483</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>28.8191525074</v>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>26.3240053289</v>
+        <v>38.8390550495</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.3720508239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31.774358093</v>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>27.984510672</v>
+        <v>51.0707125501</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.4147847033</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>39.5089108873</v>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>35.4770512252</v>
+        <v>57.8944718848</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52.4019649573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>31.2925012382</v>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>28.9683682109</v>
+        <v>42.408416761</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39.4894396243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>38.3233222138</v>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>34.220897922</v>
+        <v>66.690790821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>58.4424661004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="n">
-        <v>26.4038677433</v>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>24.1957836433</v>
+        <v>50.170133483</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45.7109452345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="n">
-        <v>28.6562165364</v>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>26.1353532115</v>
+        <v>47.1401353603</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.2355988831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="n">
-        <v>30.8937643791</v>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>28.2587200376</v>
+        <v>37.2318788419</v>
+      </c>
+      <c r="D39" t="n">
+        <v>34.1816707717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39.6179519068</v>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>36.1057249072</v>
+        <v>28.6562165364</v>
+      </c>
+      <c r="D40" t="n">
+        <v>26.1353532115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="n">
-        <v>26.8204782312</v>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>24.6580251407</v>
+        <v>153.9426273931</v>
+      </c>
+      <c r="D41" t="n">
+        <v>137.1375489939</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="n">
-        <v>29.2048916866</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>26.7127129411</v>
+        <v>39.3227551957</v>
+      </c>
+      <c r="D42" t="n">
+        <v>35.9922001564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="n">
-        <v>40.7310081646</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>34.4084142743</v>
+        <v>39.9658532867</v>
+      </c>
+      <c r="D43" t="n">
+        <v>36.9229126825</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="n">
-        <v>41.9055783911</v>
-      </c>
-      <c r="C44" t="n">
-        <v>38.3268260445</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="n">
-        <v>53.9879213112</v>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>49.1984659949</v>
+        <v>38.5309006054</v>
+      </c>
+      <c r="D45" t="n">
+        <v>35.3034750986</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="n">
-        <v>32.0488684864</v>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3139926875</v>
+        <v>34.2404785875</v>
+      </c>
+      <c r="D46" t="n">
+        <v>31.3015776781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="n">
-        <v>39.3227551957</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>35.9922001564</v>
+        <v>51.9865852087</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50.0234232631</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="n">
-        <v>33.7185272711</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>30.6452351698</v>
+        <v>44.0868696498</v>
+      </c>
+      <c r="D48" t="n">
+        <v>39.8384648089</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="n">
-        <v>34.9881255828</v>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>32.176195937</v>
+        <v>42.986101587</v>
+      </c>
+      <c r="D49" t="n">
+        <v>41.3955059724</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="n">
-        <v>32.2922377545</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>30.0369145737</v>
+        <v>28.8191525074</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26.3240053289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="n">
-        <v>33.5265103216</v>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>30.5910920372</v>
+        <v>42.1759486296</v>
+      </c>
+      <c r="D51" t="n">
+        <v>38.5198198189</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="n">
-        <v>42.0300766689</v>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>38.0060323607</v>
+        <v>35.3583151809</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.2973588142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="n">
-        <v>43.4346117468</v>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>34.4755372083</v>
+        <v>57.5171663288</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52.7948269335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>42.0300766689</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38.0060323607</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="n">
-        <v>35.1680709238</v>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>31.9076881115</v>
+        <v>36.6725181925</v>
+      </c>
+      <c r="D55" t="n">
+        <v>39.1361917858</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="n">
-        <v>33.7346240302</v>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>30.5331931991</v>
+        <v>35.1577880313</v>
+      </c>
+      <c r="D56" t="n">
+        <v>30.5115471628</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="n">
-        <v>30.4253469448</v>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>27.5929114141</v>
+        <v>50.3990621722</v>
+      </c>
+      <c r="D57" t="n">
+        <v>45.5620006337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>51.1402127547</v>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>47.1339874166</v>
+        <v>35.6107584955</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.8519865416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>32.3500539063</v>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>29.0378617705</v>
+        <v>33.9096310154</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31.8666338377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="n">
-        <v>31.2956643295</v>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>28.5602663794</v>
+        <v>42.9912107641</v>
+      </c>
+      <c r="D60" t="n">
+        <v>38.2923441473</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>52.9602658003</v>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>43.3579515483</v>
+        <v>52.7989191977</v>
+      </c>
+      <c r="D61" t="n">
+        <v>53.7233078531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="n">
-        <v>35.6107584955</v>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>32.8519865416</v>
+        <v>31.774358093</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.984510672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="n">
-        <v>52.7989191977</v>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>53.7233078531</v>
+        <v>43.4346117468</v>
+      </c>
+      <c r="D63" t="n">
+        <v>34.4755372083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="n">
-        <v>36.879459005</v>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>33.8830701417</v>
+        <v>51.4221234533</v>
+      </c>
+      <c r="D64" t="n">
+        <v>47.1966998682</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>33.3495880269</v>
+      </c>
+      <c r="D65" t="n">
+        <v>33.5400226965</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="n">
-        <v>47.2455985635</v>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>43.5944543473</v>
+        <v>33.595291025</v>
+      </c>
+      <c r="D66" t="n">
+        <v>22.1759332702</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="n">
-        <v>32.4061903448</v>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>29.6693382242</v>
+        <v>53.0001013397</v>
+      </c>
+      <c r="D67" t="n">
+        <v>39.3053881759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="n">
-        <v>80.0730628857</v>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>69.5159998047</v>
+        <v>36.879459005</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.8830701417</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="n">
-        <v>33.7585027077</v>
-      </c>
-      <c r="C69" t="n">
-        <v>30.3083227629</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="n">
-        <v>43.3292664452</v>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>39.283828266</v>
+        <v>46.3403961164</v>
+      </c>
+      <c r="D70" t="n">
+        <v>42.3563162243</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="n">
-        <v>62.3996992061</v>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>53.5489331441</v>
+        <v>38.1865768941</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34.7378410674</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="n">
-        <v>38.264264459</v>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>34.9990045427</v>
+        <v>38.3736187101</v>
+      </c>
+      <c r="D72" t="n">
+        <v>35.0990271091</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="n">
-        <v>48.6136357397</v>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>34.7069811027</v>
+        <v>33.7185272711</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30.6452351698</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="n">
-        <v>37.7001536589</v>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>35.0900445997</v>
+        <v>30.175515854</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26.9865540509</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="n">
-        <v>50.170133483</v>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>45.7109452345</v>
+        <v>55.5047631169</v>
+      </c>
+      <c r="D75" t="n">
+        <v>50.9644728489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="n">
-        <v>33.9096310154</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>31.8666338377</v>
+        <v>53.6034598564</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47.6012439631</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="n">
-        <v>30.175515854</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>26.9865540509</v>
+        <v>30.8937643791</v>
+      </c>
+      <c r="D77" t="n">
+        <v>28.2587200376</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="n">
-        <v>34.6598403598</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>28.7985205863</v>
+        <v>39.5089108873</v>
+      </c>
+      <c r="D78" t="n">
+        <v>35.4770512252</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="n">
-        <v>33.7706426979</v>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>31.7293108374</v>
+        <v>64.1448167486</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.7290584358</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n">
-        <v>30.4958429862</v>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>27.7181288297</v>
+        <v>50.7087240891</v>
+      </c>
+      <c r="D80" t="n">
+        <v>45.354567398</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n">
-        <v>77.1044155084</v>
-      </c>
-      <c r="C81" t="n">
-        <v>73.0399507305</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="n">
-        <v>42.9912107641</v>
-      </c>
-      <c r="C82" t="n">
-        <v>38.2923441473</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n">
-        <v>53.0001013397</v>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>39.3053881759</v>
+        <v>47.2455985635</v>
+      </c>
+      <c r="D83" t="n">
+        <v>43.5944543473</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n">
-        <v>45.4487614277</v>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>41.7204688765</v>
+        <v>49.7137533334</v>
+      </c>
+      <c r="D84" t="n">
+        <v>45.1264783767</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n">
-        <v>58.6924892866</v>
-      </c>
-      <c r="C85" t="n">
-        <v>37.3013863325</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n">
-        <v>40.4965852852</v>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>36.9569237374</v>
-      </c>
+        <v>50.5149695399</v>
+      </c>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n">
-        <v>36.1553945438</v>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>32.6381419871</v>
+        <v>80.0730628857</v>
+      </c>
+      <c r="D87" t="n">
+        <v>69.5159998047</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n">
-        <v>66.3730882999</v>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>59.7753789749</v>
+        <v>36.0794271653</v>
+      </c>
+      <c r="D88" t="n">
+        <v>32.6731289608</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n">
-        <v>62.4865022959</v>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>57.3907619765</v>
+        <v>48.3174512628</v>
+      </c>
+      <c r="D89" t="n">
+        <v>44.5080855358</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n">
-        <v>38.8390550495</v>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>35.3720508239</v>
+        <v>35.1680709238</v>
+      </c>
+      <c r="D90" t="n">
+        <v>31.9076881115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n">
-        <v>47.1401353603</v>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>43.2355988831</v>
+        <v>34.9881255828</v>
+      </c>
+      <c r="D91" t="n">
+        <v>32.176195937</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="n">
-        <v>37.2318788419</v>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>34.1816707717</v>
+        <v>45.4487614277</v>
+      </c>
+      <c r="D92" t="n">
+        <v>41.7204688765</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="n">
-        <v>42.986101587</v>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>41.3955059724</v>
+        <v>32.4061903448</v>
+      </c>
+      <c r="D93" t="n">
+        <v>29.6693382242</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="n">
-        <v>35.3583151809</v>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>32.2973588142</v>
+        <v>33.7346240302</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30.5331931991</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="n">
-        <v>50.3990621722</v>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>45.5620006337</v>
+        <v>77.4218403932</v>
+      </c>
+      <c r="D95" t="n">
+        <v>72.9375832549</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="n">
-        <v>53.6034598564</v>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>47.6012439631</v>
+        <v>50.9744222261</v>
+      </c>
+      <c r="D96" t="n">
+        <v>46.575126381</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="n">
-        <v>64.1448167486</v>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>57.7290584358</v>
+        <v>58.6924892866</v>
+      </c>
+      <c r="D97" t="n">
+        <v>37.3013863325</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="n">
-        <v>50.9744222261</v>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>46.575126381</v>
+        <v>40.4965852852</v>
+      </c>
+      <c r="D98" t="n">
+        <v>36.9569237374</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="n">
-        <v>61.2576228985</v>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>55.8267235913</v>
+        <v>34.6598403598</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.7985205863</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.2404785875</v>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>31.3015776781</v>
+        <v>33.7585027077</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30.3083227629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="n">
-        <v>51.9865852087</v>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>50.0234232631</v>
+        <v>31.2925012382</v>
+      </c>
+      <c r="D101" t="n">
+        <v>28.9683682109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="n">
-        <v>33.595291025</v>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>22.1759332702</v>
+        <v>48.3574821616</v>
+      </c>
+      <c r="D102" t="n">
+        <v>44.1199613223</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="n">
-        <v>43.4775774136</v>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>35.1471054564</v>
+        <v>53.0095929493</v>
+      </c>
+      <c r="D103" t="n">
+        <v>48.5600923451</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="n">
-        <v>51.0707125501</v>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>46.4147847033</v>
+        <v>61.2576228985</v>
+      </c>
+      <c r="D104" t="n">
+        <v>55.8267235913</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="n">
-        <v>42.408416761</v>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>39.4894396243</v>
+        <v>30.4253469448</v>
+      </c>
+      <c r="D105" t="n">
+        <v>27.5929114141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="n">
-        <v>36.6725181925</v>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>39.1361917858</v>
+        <v>55.9339982599</v>
+      </c>
+      <c r="D106" t="n">
+        <v>51.1601623929</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="n">
-        <v>47.8774706085</v>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>50.773707436</v>
+        <v>39.6179519068</v>
+      </c>
+      <c r="D107" t="n">
+        <v>36.1057249072</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="n">
-        <v>35.1577880313</v>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>30.5115471628</v>
+        <v>38.3233222138</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.220897922</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="n">
-        <v>33.3495880269</v>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>33.5400226965</v>
+        <v>49.0275158865</v>
+      </c>
+      <c r="D109" t="n">
+        <v>45.7926728789</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="n">
-        <v>50.7087240891</v>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>45.354567398</v>
+        <v>26.4038677433</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24.1957836433</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="n">
-        <v>77.4218403932</v>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>72.9375832549</v>
+        <v>60.8680706851</v>
+      </c>
+      <c r="D111" t="n">
+        <v>61.8714911682</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" t="n">
-        <v>53.0095929493</v>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>48.5600923451</v>
+        <v>43.3292664452</v>
+      </c>
+      <c r="D112" t="n">
+        <v>39.283828266</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="n">
-        <v>55.9339982599</v>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>51.1601623929</v>
+        <v>36.1553945438</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.6381419871</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">value-ncu</t>
+    <t xml:space="preserve">value_ncu</t>
   </si>
   <si>
     <t xml:space="preserve">d314</t>
@@ -649,6 +649,12 @@
     <t xml:space="preserve">Rukungiri</t>
   </si>
   <si>
+    <t xml:space="preserve">d111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
@@ -673,12 +679,6 @@
     <t xml:space="preserve">Soroti</t>
   </si>
   <si>
-    <t xml:space="preserve">d111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssembabule</t>
-  </si>
-  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
@@ -712,13 +712,16 @@
     <t xml:space="preserve">Name: uganda-primary-educ-funding</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Primary education spending, per child.</t>
+    <t xml:space="preserve">Description: Total local government expenditure per child in government funded primary education by district.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Local government budgets, Ministry of Finance, Planning and Economic Development.</t>
+    <t xml:space="preserve">Source: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -727,28 +730,22 @@
     <t xml:space="preserve">This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1101,74 +1098,68 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1204,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>62.3996992061</v>
+        <v>74.76069806</v>
       </c>
       <c r="E2" t="n">
         <v>211065.8674</v>
@@ -1229,12 +1220,8 @@
       <c r="C3" t="n">
         <v>2016</v>
       </c>
-      <c r="D3" t="n">
-        <v>53.5489331441</v>
-      </c>
-      <c r="E3" t="n">
-        <v>198026.8188</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1247,7 +1234,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>51.1402127547</v>
+        <v>61.27077619</v>
       </c>
       <c r="E4" t="n">
         <v>172980.8557</v>
@@ -1263,12 +1250,8 @@
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5" t="n">
-        <v>47.1339874166</v>
-      </c>
-      <c r="E5" t="n">
-        <v>174304.0064</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1281,7 +1264,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>33.7706426979</v>
+        <v>40.46040052</v>
       </c>
       <c r="E6" t="n">
         <v>114228.5954</v>
@@ -1297,12 +1280,8 @@
       <c r="C7" t="n">
         <v>2016</v>
       </c>
-      <c r="D7" t="n">
-        <v>31.7293108374</v>
-      </c>
-      <c r="E7" t="n">
-        <v>117336.6885</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1315,7 +1294,7 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>30.4958429862</v>
+        <v>36.53688301</v>
       </c>
       <c r="E8" t="n">
         <v>103151.6439</v>
@@ -1332,10 +1311,10 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7181288297</v>
+        <v>21.5546340563972</v>
       </c>
       <c r="E9" t="n">
-        <v>102503.1229</v>
+        <v>100995</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1328,7 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>38.264264459</v>
+        <v>45.84418127</v>
       </c>
       <c r="E10" t="n">
         <v>129428.1907</v>
@@ -1365,12 +1344,8 @@
       <c r="C11" t="n">
         <v>2016</v>
       </c>
-      <c r="D11" t="n">
-        <v>34.9990045427</v>
-      </c>
-      <c r="E11" t="n">
-        <v>129428.1907</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1383,7 +1358,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>77.1044155084</v>
+        <v>92.37832874</v>
       </c>
       <c r="E12" t="n">
         <v>260804.3075</v>
@@ -1400,10 +1375,10 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>73.0399507305</v>
+        <v>51.1811312213344</v>
       </c>
       <c r="E13" t="n">
-        <v>270105.6443</v>
+        <v>239811</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1392,7 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>26.8204782312</v>
+        <v>32.13345097</v>
       </c>
       <c r="E14" t="n">
         <v>90719.7883</v>
@@ -1434,10 +1409,10 @@
         <v>2016</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6580251407</v>
+        <v>22.8385855241261</v>
       </c>
       <c r="E15" t="n">
-        <v>91186.69579</v>
+        <v>107011</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1426,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>48.6136357397</v>
+        <v>58.24369972</v>
       </c>
       <c r="E16" t="n">
         <v>164434.7541</v>
@@ -1468,10 +1443,10 @@
         <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7069811027</v>
+        <v>26.7499848840112</v>
       </c>
       <c r="E17" t="n">
-        <v>128348.2724</v>
+        <v>125338</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1460,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>32.3500539063</v>
+        <v>38.75840177</v>
       </c>
       <c r="E18" t="n">
         <v>109423.4792</v>
@@ -1502,10 +1477,10 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0378617705</v>
+        <v>19.4133632658845</v>
       </c>
       <c r="E19" t="n">
-        <v>107383.5659</v>
+        <v>90962</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1494,7 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>31.2956643295</v>
+        <v>37.49514407</v>
       </c>
       <c r="E20" t="n">
         <v>105857.0253</v>
@@ -1535,12 +1510,8 @@
       <c r="C21" t="n">
         <v>2016</v>
       </c>
-      <c r="D21" t="n">
-        <v>28.5602663794</v>
-      </c>
-      <c r="E21" t="n">
-        <v>105617.3926</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1553,7 +1524,7 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>29.2048916866</v>
+        <v>34.99020215</v>
       </c>
       <c r="E22" t="n">
         <v>98785.0242</v>
@@ -1569,12 +1540,8 @@
       <c r="C23" t="n">
         <v>2016</v>
       </c>
-      <c r="D23" t="n">
-        <v>26.7127129411</v>
-      </c>
-      <c r="E23" t="n">
-        <v>98785.04117</v>
-      </c>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1587,7 +1554,7 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>40.7310081646</v>
+        <v>48.79957182</v>
       </c>
       <c r="E24" t="n">
         <v>137771.9072</v>
@@ -1604,10 +1571,10 @@
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>34.4084142743</v>
+        <v>24.1897651687724</v>
       </c>
       <c r="E25" t="n">
-        <v>127244.1563</v>
+        <v>113342</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1588,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>28.4454870978</v>
+        <v>34.08036415</v>
       </c>
       <c r="E26" t="n">
         <v>96216.35175</v>
@@ -1651,7 +1618,7 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>47.8774706085</v>
+        <v>57.36170477</v>
       </c>
       <c r="E28" t="n">
         <v>161944.6887</v>
@@ -1667,12 +1634,8 @@
       <c r="C29" t="n">
         <v>2016</v>
       </c>
-      <c r="D29" t="n">
-        <v>50.773707436</v>
-      </c>
-      <c r="E29" t="n">
-        <v>187763.8857</v>
-      </c>
+      <c r="D29"/>
+      <c r="E29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1685,7 +1648,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>48.7454332136</v>
+        <v>58.40160546</v>
       </c>
       <c r="E30" t="n">
         <v>164880.5567</v>
@@ -1702,10 +1665,10 @@
         <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>44.5975603099</v>
+        <v>42.6100722213353</v>
       </c>
       <c r="E31" t="n">
-        <v>164924.1633</v>
+        <v>199651</v>
       </c>
     </row>
     <row r="32">
@@ -1719,7 +1682,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>41.9055783911</v>
+        <v>50.20681723</v>
       </c>
       <c r="E32" t="n">
         <v>141744.87</v>
@@ -1736,10 +1699,10 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>38.3268260445</v>
+        <v>28.9168664085877</v>
       </c>
       <c r="E33" t="n">
-        <v>141734.6526</v>
+        <v>135491</v>
       </c>
     </row>
     <row r="34">
@@ -1753,7 +1716,7 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>26.9976911971</v>
+        <v>32.34576874</v>
       </c>
       <c r="E34" t="n">
         <v>91319.20799</v>
@@ -1769,12 +1732,8 @@
       <c r="C35" t="n">
         <v>2016</v>
       </c>
-      <c r="D35" t="n">
-        <v>30.6554396733</v>
-      </c>
-      <c r="E35" t="n">
-        <v>113365.4555</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1787,7 +1746,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>53.9879213112</v>
+        <v>64.6825984</v>
       </c>
       <c r="E36" t="n">
         <v>182613.179</v>
@@ -1804,10 +1763,10 @@
         <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>49.1984659949</v>
+        <v>30.1062715830646</v>
       </c>
       <c r="E37" t="n">
-        <v>181938.5586</v>
+        <v>141064</v>
       </c>
     </row>
     <row r="38">
@@ -1821,7 +1780,7 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>32.2922377545</v>
+        <v>38.68913259</v>
       </c>
       <c r="E38" t="n">
         <v>109227.9171</v>
@@ -1838,10 +1797,10 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>30.0369145737</v>
+        <v>24.9324764566209</v>
       </c>
       <c r="E39" t="n">
-        <v>111078.1166</v>
+        <v>116822</v>
       </c>
     </row>
     <row r="40">
@@ -1855,7 +1814,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>43.4775774136</v>
+        <v>52.09021964</v>
       </c>
       <c r="E40" t="n">
         <v>147062.1286</v>
@@ -1871,12 +1830,8 @@
       <c r="C41" t="n">
         <v>2016</v>
       </c>
-      <c r="D41" t="n">
-        <v>35.1471054564</v>
-      </c>
-      <c r="E41" t="n">
-        <v>129975.8758</v>
-      </c>
+      <c r="D41"/>
+      <c r="E41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1889,7 +1844,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>66.3730882999</v>
+        <v>79.52119123</v>
       </c>
       <c r="E42" t="n">
         <v>224505.785</v>
@@ -1905,12 +1860,8 @@
       <c r="C43" t="n">
         <v>2016</v>
       </c>
-      <c r="D43" t="n">
-        <v>59.7753789749</v>
-      </c>
-      <c r="E43" t="n">
-        <v>221052.5485</v>
-      </c>
+      <c r="D43"/>
+      <c r="E43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1923,7 +1874,7 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>62.4865022959</v>
+        <v>74.86469631</v>
       </c>
       <c r="E44" t="n">
         <v>211359.4773</v>
@@ -1940,10 +1891,10 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>57.3907619765</v>
+        <v>30.5997050593594</v>
       </c>
       <c r="E45" t="n">
-        <v>212234.1073</v>
+        <v>143376</v>
       </c>
     </row>
     <row r="46">
@@ -1957,7 +1908,7 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>31.5423421147</v>
+        <v>37.79068721</v>
       </c>
       <c r="E46" t="n">
         <v>106691.4085</v>
@@ -1974,10 +1925,10 @@
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>28.8950503422</v>
+        <v>20.2708960114521</v>
       </c>
       <c r="E47" t="n">
-        <v>106855.4416</v>
+        <v>94980</v>
       </c>
     </row>
     <row r="48">
@@ -1991,7 +1942,7 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>32.0488684864</v>
+        <v>38.39755336</v>
       </c>
       <c r="E48" t="n">
         <v>108404.7249</v>
@@ -2008,10 +1959,10 @@
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>29.3139926875</v>
+        <v>20.2011067611284</v>
       </c>
       <c r="E49" t="n">
-        <v>108404.7128</v>
+        <v>94653</v>
       </c>
     </row>
     <row r="50">
@@ -2025,7 +1976,7 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>53.2001209035</v>
+        <v>63.73873955</v>
       </c>
       <c r="E50" t="n">
         <v>179948.4582</v>
@@ -2042,10 +1993,10 @@
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>49.6911729035</v>
+        <v>38.5061655104044</v>
       </c>
       <c r="E51" t="n">
-        <v>183760.6151</v>
+        <v>180422</v>
       </c>
     </row>
     <row r="52">
@@ -2059,7 +2010,7 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>44.4397484987</v>
+        <v>53.24299094</v>
       </c>
       <c r="E52" t="n">
         <v>150316.6551</v>
@@ -2076,10 +2027,10 @@
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>39.8483949519</v>
+        <v>26.5273849204405</v>
       </c>
       <c r="E53" t="n">
-        <v>147361.4958</v>
+        <v>124295</v>
       </c>
     </row>
     <row r="54">
@@ -2093,7 +2044,7 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>33.5265103216</v>
+        <v>40.16790701</v>
       </c>
       <c r="E54" t="n">
         <v>113402.822</v>
@@ -2109,12 +2060,8 @@
       <c r="C55" t="n">
         <v>2016</v>
       </c>
-      <c r="D55" t="n">
-        <v>30.5910920372</v>
-      </c>
-      <c r="E55" t="n">
-        <v>113127.4945</v>
-      </c>
+      <c r="D55"/>
+      <c r="E55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -2127,7 +2074,7 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>37.7001536589</v>
+        <v>45.16832357</v>
       </c>
       <c r="E56" t="n">
         <v>127520.096</v>
@@ -2144,10 +2091,10 @@
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>35.0900445997</v>
+        <v>20.4025778690965</v>
       </c>
       <c r="E57" t="n">
-        <v>129764.8617</v>
+        <v>95597</v>
       </c>
     </row>
     <row r="58">
@@ -2161,7 +2108,7 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>42.1149329931</v>
+        <v>50.45764369</v>
       </c>
       <c r="E58" t="n">
         <v>142453.0082</v>
@@ -2178,10 +2125,10 @@
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>37.8249898196</v>
+        <v>35.0713392268888</v>
       </c>
       <c r="E59" t="n">
-        <v>139878.8354</v>
+        <v>164328</v>
       </c>
     </row>
     <row r="60">
@@ -2195,7 +2142,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>52.9602658003</v>
+        <v>63.45137061</v>
       </c>
       <c r="E60" t="n">
         <v>179137.1526</v>
@@ -2212,10 +2159,10 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>43.3579515483</v>
+        <v>26.7474238106048</v>
       </c>
       <c r="E61" t="n">
-        <v>160340.0238</v>
+        <v>125326</v>
       </c>
     </row>
     <row r="62">
@@ -2229,7 +2176,7 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>38.8390550495</v>
+        <v>46.53283436</v>
       </c>
       <c r="E62" t="n">
         <v>131372.4096</v>
@@ -2246,10 +2193,10 @@
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>35.3720508239</v>
+        <v>22.7959009673532</v>
       </c>
       <c r="E63" t="n">
-        <v>130807.7358</v>
+        <v>106811</v>
       </c>
     </row>
     <row r="64">
@@ -2263,7 +2210,7 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>51.0707125501</v>
+        <v>61.18750842</v>
       </c>
       <c r="E64" t="n">
         <v>172745.7725</v>
@@ -2280,10 +2227,10 @@
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>46.4147847033</v>
+        <v>32.1485142018642</v>
       </c>
       <c r="E65" t="n">
-        <v>171644.3563</v>
+        <v>150633</v>
       </c>
     </row>
     <row r="66">
@@ -2297,7 +2244,7 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>57.8944718848</v>
+        <v>69.36301275</v>
       </c>
       <c r="E66" t="n">
         <v>195827.0165</v>
@@ -2314,10 +2261,10 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>52.4019649573</v>
+        <v>28.4560866182242</v>
       </c>
       <c r="E67" t="n">
-        <v>193785.2691</v>
+        <v>133332</v>
       </c>
     </row>
     <row r="68">
@@ -2331,7 +2278,7 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>42.408416761</v>
+        <v>50.8092648</v>
       </c>
       <c r="E68" t="n">
         <v>143445.7118</v>
@@ -2348,10 +2295,10 @@
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>39.4894396243</v>
+        <v>31.4990686705645</v>
       </c>
       <c r="E69" t="n">
-        <v>146034.0598</v>
+        <v>147590</v>
       </c>
     </row>
     <row r="70">
@@ -2365,7 +2312,7 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>66.690790821</v>
+        <v>79.90182868</v>
       </c>
       <c r="E70" t="n">
         <v>225580.4081</v>
@@ -2382,10 +2329,10 @@
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>58.4424661004</v>
+        <v>8.36702681862464</v>
       </c>
       <c r="E71" t="n">
-        <v>216123.3654</v>
+        <v>39204</v>
       </c>
     </row>
     <row r="72">
@@ -2399,7 +2346,7 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>50.170133483</v>
+        <v>60.10853014</v>
       </c>
       <c r="E72" t="n">
         <v>169699.5799</v>
@@ -2416,10 +2363,10 @@
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>45.7109452345</v>
+        <v>21.7753132149131</v>
       </c>
       <c r="E73" t="n">
-        <v>169041.5203</v>
+        <v>102029</v>
       </c>
     </row>
     <row r="74">
@@ -2433,7 +2380,7 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>47.1401353603</v>
+        <v>56.47830792</v>
       </c>
       <c r="E74" t="n">
         <v>159450.6654</v>
@@ -2450,10 +2397,10 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>43.2355988831</v>
+        <v>31.9513115495734</v>
       </c>
       <c r="E75" t="n">
-        <v>159887.5571</v>
+        <v>149709</v>
       </c>
     </row>
     <row r="76">
@@ -2467,7 +2414,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>37.2318788419</v>
+        <v>44.60728637</v>
       </c>
       <c r="E76" t="n">
         <v>125936.1648</v>
@@ -2484,10 +2431,10 @@
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>34.1816707717</v>
+        <v>27.2064962186974</v>
       </c>
       <c r="E77" t="n">
-        <v>126405.6467</v>
+        <v>127477</v>
       </c>
     </row>
     <row r="78">
@@ -2501,7 +2448,7 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>28.6562165364</v>
+        <v>34.3328378</v>
       </c>
       <c r="E78" t="n">
         <v>96929.14031</v>
@@ -2517,12 +2464,8 @@
       <c r="C79" t="n">
         <v>2016</v>
       </c>
-      <c r="D79" t="n">
-        <v>26.1353532115</v>
-      </c>
-      <c r="E79" t="n">
-        <v>96649.93401</v>
-      </c>
+      <c r="D79"/>
+      <c r="E79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2535,7 +2478,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>153.9426273931</v>
+        <v>184.4377205</v>
       </c>
       <c r="E80" t="n">
         <v>520708.186</v>
@@ -2552,10 +2495,10 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>137.1375489939</v>
+        <v>126.483092052253</v>
       </c>
       <c r="E81" t="n">
-        <v>507141.9909</v>
+        <v>592641</v>
       </c>
     </row>
     <row r="82">
@@ -2569,7 +2512,7 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>39.3227551957</v>
+        <v>47.11235255</v>
       </c>
       <c r="E82" t="n">
         <v>133008.5167</v>
@@ -2586,10 +2529,10 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>35.9922001564</v>
+        <v>23.623341100396</v>
       </c>
       <c r="E83" t="n">
-        <v>133101.0812</v>
+        <v>110688</v>
       </c>
     </row>
     <row r="84">
@@ -2603,7 +2546,7 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>39.9658532867</v>
+        <v>47.88284444</v>
       </c>
       <c r="E84" t="n">
         <v>135183.7845</v>
@@ -2620,10 +2563,10 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>36.9229126825</v>
+        <v>28.4279148107541</v>
       </c>
       <c r="E85" t="n">
-        <v>136542.9059</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="86">
@@ -2663,7 +2606,7 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>38.5309006054</v>
+        <v>46.16363641</v>
       </c>
       <c r="E88" t="n">
         <v>130330.0827</v>
@@ -2680,10 +2623,10 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>35.3034750986</v>
+        <v>28.1466235816206</v>
       </c>
       <c r="E89" t="n">
-        <v>130554.1391</v>
+        <v>131882</v>
       </c>
     </row>
     <row r="90">
@@ -2697,7 +2640,7 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>34.2404785875</v>
+        <v>41.02330802</v>
       </c>
       <c r="E90" t="n">
         <v>115817.8069</v>
@@ -2713,12 +2656,8 @@
       <c r="C91" t="n">
         <v>2016</v>
       </c>
-      <c r="D91" t="n">
-        <v>31.3015776781</v>
-      </c>
-      <c r="E91" t="n">
-        <v>115754.9084</v>
-      </c>
+      <c r="D91"/>
+      <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -2731,7 +2670,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>51.9865852087</v>
+        <v>62.28480985</v>
       </c>
       <c r="E92" t="n">
         <v>175843.6954</v>
@@ -2747,12 +2686,8 @@
       <c r="C93" t="n">
         <v>2016</v>
       </c>
-      <c r="D93" t="n">
-        <v>50.0234232631</v>
-      </c>
-      <c r="E93" t="n">
-        <v>184989.2947</v>
-      </c>
+      <c r="D93"/>
+      <c r="E93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -2765,7 +2700,7 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>44.0868696498</v>
+        <v>52.82020894</v>
       </c>
       <c r="E94" t="n">
         <v>149123.0487</v>
@@ -2782,10 +2717,10 @@
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>39.8384648089</v>
+        <v>28.3086114745738</v>
       </c>
       <c r="E95" t="n">
-        <v>147324.7736</v>
+        <v>132641</v>
       </c>
     </row>
     <row r="96">
@@ -2799,7 +2734,7 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>42.986101587</v>
+        <v>51.50138546</v>
       </c>
       <c r="E96" t="n">
         <v>145399.7204</v>
@@ -2816,10 +2751,10 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>41.3955059724</v>
+        <v>28.1835457232292</v>
       </c>
       <c r="E97" t="n">
-        <v>153082.7951</v>
+        <v>132055</v>
       </c>
     </row>
     <row r="98">
@@ -2833,7 +2768,7 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>28.8191525074</v>
+        <v>34.5280504</v>
       </c>
       <c r="E98" t="n">
         <v>97480.26832</v>
@@ -2850,10 +2785,10 @@
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>26.3240053289</v>
+        <v>23.4933666250225</v>
       </c>
       <c r="E99" t="n">
-        <v>97347.57963</v>
+        <v>110079</v>
       </c>
     </row>
     <row r="100">
@@ -2867,7 +2802,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>42.1759486296</v>
+        <v>50.53074615</v>
       </c>
       <c r="E100" t="n">
         <v>142659.3925</v>
@@ -2884,10 +2819,10 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>38.5198198189</v>
+        <v>26.9064237845839</v>
       </c>
       <c r="E101" t="n">
-        <v>142448.3539</v>
+        <v>126071</v>
       </c>
     </row>
     <row r="102">
@@ -2901,7 +2836,7 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>35.3583151809</v>
+        <v>42.36258121</v>
       </c>
       <c r="E102" t="n">
         <v>119598.8692</v>
@@ -2917,12 +2852,8 @@
       <c r="C103" t="n">
         <v>2016</v>
       </c>
-      <c r="D103" t="n">
-        <v>32.2973588142</v>
-      </c>
-      <c r="E103" t="n">
-        <v>119437.3603</v>
-      </c>
+      <c r="D103"/>
+      <c r="E103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2935,7 +2866,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>57.5171663288</v>
+        <v>68.91096527</v>
       </c>
       <c r="E104" t="n">
         <v>194550.7872</v>
@@ -2952,10 +2883,10 @@
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>52.7948269335</v>
+        <v>43.3926935697665</v>
       </c>
       <c r="E105" t="n">
-        <v>195238.0937</v>
+        <v>203318</v>
       </c>
     </row>
     <row r="106">
@@ -2969,7 +2900,7 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>42.0300766689</v>
+        <v>50.35597785</v>
       </c>
       <c r="E106" t="n">
         <v>142165.9832</v>
@@ -2985,12 +2916,8 @@
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107" t="n">
-        <v>38.0060323607</v>
-      </c>
-      <c r="E107" t="n">
-        <v>140548.3404</v>
-      </c>
+      <c r="D107"/>
+      <c r="E107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -3003,7 +2930,7 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>36.6725181925</v>
+        <v>43.9371198</v>
       </c>
       <c r="E108" t="n">
         <v>124044.1374</v>
@@ -3019,12 +2946,8 @@
       <c r="C109" t="n">
         <v>2016</v>
       </c>
-      <c r="D109" t="n">
-        <v>39.1361917858</v>
-      </c>
-      <c r="E109" t="n">
-        <v>144727.7304</v>
-      </c>
+      <c r="D109"/>
+      <c r="E109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -3037,7 +2960,7 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>35.1577880313</v>
+        <v>42.12233086</v>
       </c>
       <c r="E110" t="n">
         <v>118920.5897</v>
@@ -3053,12 +2976,8 @@
       <c r="C111" t="n">
         <v>2016</v>
       </c>
-      <c r="D111" t="n">
-        <v>30.5115471628</v>
-      </c>
-      <c r="E111" t="n">
-        <v>112833.3333</v>
-      </c>
+      <c r="D111"/>
+      <c r="E111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -3071,7 +2990,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>50.3990621722</v>
+        <v>60.38280821</v>
       </c>
       <c r="E112" t="n">
         <v>170473.9271</v>
@@ -3088,10 +3007,10 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>45.5620006337</v>
+        <v>34.8760573796528</v>
       </c>
       <c r="E113" t="n">
-        <v>168490.7152</v>
+        <v>163413</v>
       </c>
     </row>
     <row r="114">
@@ -3105,7 +3024,7 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>35.6107584955</v>
+        <v>42.665032</v>
       </c>
       <c r="E114" t="n">
         <v>120452.7542</v>
@@ -3121,12 +3040,8 @@
       <c r="C115" t="n">
         <v>2016</v>
       </c>
-      <c r="D115" t="n">
-        <v>32.8519865416</v>
-      </c>
-      <c r="E115" t="n">
-        <v>121488.4033</v>
-      </c>
+      <c r="D115"/>
+      <c r="E115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -3139,7 +3054,7 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>33.9096310154</v>
+        <v>40.62692157</v>
       </c>
       <c r="E116" t="n">
         <v>114698.7209</v>
@@ -3156,10 +3071,10 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>31.8666338377</v>
+        <v>21.1435817746741</v>
       </c>
       <c r="E117" t="n">
-        <v>117844.5163</v>
+        <v>99069</v>
       </c>
     </row>
     <row r="118">
@@ -3173,7 +3088,7 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>42.9912107641</v>
+        <v>51.50750673</v>
       </c>
       <c r="E118" t="n">
         <v>145417.0021</v>
@@ -3190,10 +3105,10 @@
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>38.2923441473</v>
+        <v>24.552797324126</v>
       </c>
       <c r="E119" t="n">
-        <v>141607.1367</v>
+        <v>115043</v>
       </c>
     </row>
     <row r="120">
@@ -3207,7 +3122,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>52.7989191977</v>
+        <v>63.25806223</v>
       </c>
       <c r="E120" t="n">
         <v>178591.4006</v>
@@ -3223,12 +3138,8 @@
       <c r="C121" t="n">
         <v>2016</v>
       </c>
-      <c r="D121" t="n">
-        <v>53.7233078531</v>
-      </c>
-      <c r="E121" t="n">
-        <v>198671.6658</v>
-      </c>
+      <c r="D121"/>
+      <c r="E121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -3241,7 +3152,7 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>31.774358093</v>
+        <v>38.06866414</v>
       </c>
       <c r="E122" t="n">
         <v>107476.1984</v>
@@ -3257,12 +3168,8 @@
       <c r="C123" t="n">
         <v>2016</v>
       </c>
-      <c r="D123" t="n">
-        <v>27.984510672</v>
-      </c>
-      <c r="E123" t="n">
-        <v>103488.2172</v>
-      </c>
+      <c r="D123"/>
+      <c r="E123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3275,7 +3182,7 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>43.4346117468</v>
+        <v>52.03874274</v>
       </c>
       <c r="E124" t="n">
         <v>146916.798</v>
@@ -3292,10 +3199,10 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>34.4755372083</v>
+        <v>27.2841821120241</v>
       </c>
       <c r="E125" t="n">
-        <v>127492.3805</v>
+        <v>127841</v>
       </c>
     </row>
     <row r="126">
@@ -3309,7 +3216,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>51.4221234533</v>
+        <v>61.60853167</v>
       </c>
       <c r="E126" t="n">
         <v>173934.4136</v>
@@ -3326,10 +3233,10 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>47.1966998682</v>
+        <v>42.1853608814449</v>
       </c>
       <c r="E127" t="n">
-        <v>174535.9204</v>
+        <v>197661</v>
       </c>
     </row>
     <row r="128">
@@ -3343,7 +3250,7 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>33.3495880269</v>
+        <v>39.95593749</v>
       </c>
       <c r="E128" t="n">
         <v>112804.3855</v>
@@ -3360,10 +3267,10 @@
         <v>2016</v>
       </c>
       <c r="D129" t="n">
-        <v>33.5400226965</v>
+        <v>22.2663990405854</v>
       </c>
       <c r="E129" t="n">
-        <v>124032.7978</v>
+        <v>104330</v>
       </c>
     </row>
     <row r="130">
@@ -3377,7 +3284,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>33.595291025</v>
+        <v>40.25031275</v>
       </c>
       <c r="E130" t="n">
         <v>113635.4715</v>
@@ -3394,10 +3301,10 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>22.1759332702</v>
+        <v>25.1768455441458</v>
       </c>
       <c r="E131" t="n">
-        <v>82007.7873</v>
+        <v>117967</v>
       </c>
     </row>
     <row r="132">
@@ -3411,7 +3318,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>53.0001013397</v>
+        <v>63.49909733</v>
       </c>
       <c r="E132" t="n">
         <v>179271.8956</v>
@@ -3428,10 +3335,10 @@
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>39.3053881759</v>
+        <v>28.349161803508</v>
       </c>
       <c r="E133" t="n">
-        <v>145353.4277</v>
+        <v>132831</v>
       </c>
     </row>
     <row r="134">
@@ -3445,7 +3352,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>36.879459005</v>
+        <v>44.18505432</v>
       </c>
       <c r="E134" t="n">
         <v>124744.111</v>
@@ -3462,10 +3369,10 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>33.8830701417</v>
+        <v>21.9368742622985</v>
       </c>
       <c r="E135" t="n">
-        <v>125301.4056</v>
+        <v>102786</v>
       </c>
     </row>
     <row r="136">
@@ -3505,7 +3412,7 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>46.3403961164</v>
+        <v>55.52014522</v>
       </c>
       <c r="E138" t="n">
         <v>156745.5617</v>
@@ -3522,10 +3429,10 @@
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>42.3563162243</v>
+        <v>30.3476527516154</v>
       </c>
       <c r="E139" t="n">
-        <v>156635.9228</v>
+        <v>142195</v>
       </c>
     </row>
     <row r="140">
@@ -3539,7 +3446,7 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>38.1865768941</v>
+        <v>45.75110427</v>
       </c>
       <c r="E140" t="n">
         <v>129165.4139</v>
@@ -3556,10 +3463,10 @@
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>34.7378410674</v>
+        <v>30.4910728623724</v>
       </c>
       <c r="E141" t="n">
-        <v>128462.3942</v>
+        <v>142867</v>
       </c>
     </row>
     <row r="142">
@@ -3573,7 +3480,7 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>38.3736187101</v>
+        <v>45.97519793</v>
       </c>
       <c r="E142" t="n">
         <v>129798.0795</v>
@@ -3589,12 +3496,8 @@
       <c r="C143" t="n">
         <v>2016</v>
       </c>
-      <c r="D143" t="n">
-        <v>35.0990271091</v>
-      </c>
-      <c r="E143" t="n">
-        <v>129798.0795</v>
-      </c>
+      <c r="D143"/>
+      <c r="E143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -3607,7 +3510,7 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>33.7185272711</v>
+        <v>40.39796134</v>
       </c>
       <c r="E144" t="n">
         <v>114052.3159</v>
@@ -3623,12 +3526,8 @@
       <c r="C145" t="n">
         <v>2016</v>
       </c>
-      <c r="D145" t="n">
-        <v>30.6452351698</v>
-      </c>
-      <c r="E145" t="n">
-        <v>113327.7187</v>
-      </c>
+      <c r="D145"/>
+      <c r="E145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -3641,7 +3540,7 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>30.175515854</v>
+        <v>36.15310103</v>
       </c>
       <c r="E146" t="n">
         <v>102068.1431</v>
@@ -3657,12 +3556,8 @@
       <c r="C147" t="n">
         <v>2016</v>
       </c>
-      <c r="D147" t="n">
-        <v>26.9865540509</v>
-      </c>
-      <c r="E147" t="n">
-        <v>99797.72024</v>
-      </c>
+      <c r="D147"/>
+      <c r="E147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -3675,7 +3570,7 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>55.5047631169</v>
+        <v>66.49991729</v>
       </c>
       <c r="E148" t="n">
         <v>187743.8693</v>
@@ -3692,10 +3587,10 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>50.9644728489</v>
+        <v>30.6626647805994</v>
       </c>
       <c r="E149" t="n">
-        <v>188469.3464</v>
+        <v>143671</v>
       </c>
     </row>
     <row r="150">
@@ -3709,7 +3604,7 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>53.6034598564</v>
+        <v>64.22197748</v>
       </c>
       <c r="E150" t="n">
         <v>181312.745</v>
@@ -3726,10 +3621,10 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>47.6012439631</v>
+        <v>25.2028831237773</v>
       </c>
       <c r="E151" t="n">
-        <v>176031.9461</v>
+        <v>118089</v>
       </c>
     </row>
     <row r="152">
@@ -3743,7 +3638,7 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>30.8937643791</v>
+        <v>37.01363019</v>
       </c>
       <c r="E152" t="n">
         <v>104497.6059</v>
@@ -3760,10 +3655,10 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>28.2587200376</v>
+        <v>21.7947346882448</v>
       </c>
       <c r="E153" t="n">
-        <v>104502.2581</v>
+        <v>102120</v>
       </c>
     </row>
     <row r="154">
@@ -3777,7 +3672,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>39.5089108873</v>
+        <v>47.33538454</v>
       </c>
       <c r="E154" t="n">
         <v>133638.185</v>
@@ -3794,10 +3689,10 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>35.4770512252</v>
+        <v>20.2621456773137</v>
       </c>
       <c r="E155" t="n">
-        <v>131196.0329</v>
+        <v>94939</v>
       </c>
     </row>
     <row r="156">
@@ -3811,7 +3706,7 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>64.1448167486</v>
+        <v>76.85151271</v>
       </c>
       <c r="E156" t="n">
         <v>216968.6963</v>
@@ -3828,10 +3723,10 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>57.7290584358</v>
+        <v>31.1381707430496</v>
       </c>
       <c r="E157" t="n">
-        <v>213485.1457</v>
+        <v>145899</v>
       </c>
     </row>
     <row r="158">
@@ -3845,7 +3740,7 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>50.7087240891</v>
+        <v>60.75381226</v>
       </c>
       <c r="E158" t="n">
         <v>171521.353</v>
@@ -3862,10 +3757,10 @@
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>45.354567398</v>
+        <v>35.8486250057234</v>
       </c>
       <c r="E159" t="n">
-        <v>167723.616</v>
+        <v>167970</v>
       </c>
     </row>
     <row r="160">
@@ -3891,8 +3786,12 @@
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161"/>
-      <c r="E161"/>
+      <c r="D161" t="n">
+        <v>37.1336435873717</v>
+      </c>
+      <c r="E161" t="n">
+        <v>173991</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -3917,8 +3816,12 @@
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163"/>
-      <c r="E163"/>
+      <c r="D163" t="n">
+        <v>10.7381539473595</v>
+      </c>
+      <c r="E163" t="n">
+        <v>50314</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -3931,7 +3834,7 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>47.2455985635</v>
+        <v>56.60466274</v>
       </c>
       <c r="E164" t="n">
         <v>159807.3928</v>
@@ -3947,12 +3850,8 @@
       <c r="C165" t="n">
         <v>2016</v>
       </c>
-      <c r="D165" t="n">
-        <v>43.5944543473</v>
-      </c>
-      <c r="E165" t="n">
-        <v>161214.6238</v>
-      </c>
+      <c r="D165"/>
+      <c r="E165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -3965,7 +3864,7 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>49.7137533334</v>
+        <v>59.56174388</v>
       </c>
       <c r="E166" t="n">
         <v>168155.8822</v>
@@ -3982,10 +3881,10 @@
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>45.1264783767</v>
+        <v>32.1028417261172</v>
       </c>
       <c r="E167" t="n">
-        <v>166880.1306</v>
+        <v>150419</v>
       </c>
     </row>
     <row r="168">
@@ -4011,8 +3910,12 @@
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169"/>
-      <c r="E169"/>
+      <c r="D169" t="n">
+        <v>27.3590935091605</v>
+      </c>
+      <c r="E169" t="n">
+        <v>128192</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -4025,7 +3928,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>50.5149695399</v>
+        <v>60.52167612</v>
       </c>
       <c r="E170" t="n">
         <v>170865.9817</v>
@@ -4041,8 +3944,12 @@
       <c r="C171" t="n">
         <v>2016</v>
       </c>
-      <c r="D171"/>
-      <c r="E171"/>
+      <c r="D171" t="n">
+        <v>7.92353427375417</v>
+      </c>
+      <c r="E171" t="n">
+        <v>37126</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -4055,7 +3962,7 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>80.0730628857</v>
+        <v>95.93504701</v>
       </c>
       <c r="E172" t="n">
         <v>270845.7042</v>
@@ -4072,10 +3979,10 @@
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>69.5159998047</v>
+        <v>60.874580641677</v>
       </c>
       <c r="E173" t="n">
-        <v>257073.8853</v>
+        <v>285230</v>
       </c>
     </row>
     <row r="174">
@@ -4089,7 +3996,7 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>36.0794271653</v>
+        <v>43.22654107</v>
       </c>
       <c r="E174" t="n">
         <v>122038.0176</v>
@@ -4105,12 +4012,8 @@
       <c r="C175" t="n">
         <v>2016</v>
       </c>
-      <c r="D175" t="n">
-        <v>32.6731289608</v>
-      </c>
-      <c r="E175" t="n">
-        <v>120826.9784</v>
-      </c>
+      <c r="D175"/>
+      <c r="E175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -4123,7 +4026,7 @@
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>48.3174512628</v>
+        <v>57.88884291</v>
       </c>
       <c r="E176" t="n">
         <v>163432.9154</v>
@@ -4139,12 +4042,8 @@
       <c r="C177" t="n">
         <v>2016</v>
       </c>
-      <c r="D177" t="n">
-        <v>44.5080855358</v>
-      </c>
-      <c r="E177" t="n">
-        <v>164593.2808</v>
-      </c>
+      <c r="D177"/>
+      <c r="E177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -4157,7 +4056,7 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>35.1680709238</v>
+        <v>42.13465073</v>
       </c>
       <c r="E178" t="n">
         <v>118955.3714</v>
@@ -4174,10 +4073,10 @@
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>31.9076881115</v>
+        <v>34.7704131016399</v>
       </c>
       <c r="E179" t="n">
-        <v>117996.3372</v>
+        <v>162918</v>
       </c>
     </row>
     <row r="180">
@@ -4191,7 +4090,7 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>34.9881255828</v>
+        <v>41.91905931</v>
       </c>
       <c r="E180" t="n">
         <v>118346.7095</v>
@@ -4207,12 +4106,8 @@
       <c r="C181" t="n">
         <v>2016</v>
       </c>
-      <c r="D181" t="n">
-        <v>32.176195937</v>
-      </c>
-      <c r="E181" t="n">
-        <v>118989.2935</v>
-      </c>
+      <c r="D181"/>
+      <c r="E181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -4225,7 +4120,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>45.4487614277</v>
+        <v>54.45188316</v>
       </c>
       <c r="E182" t="n">
         <v>153729.6233</v>
@@ -4242,10 +4137,10 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>41.7204688765</v>
+        <v>28.7506100599572</v>
       </c>
       <c r="E183" t="n">
-        <v>154284.5253</v>
+        <v>134712</v>
       </c>
     </row>
     <row r="184">
@@ -4259,7 +4154,7 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>32.4061903448</v>
+        <v>38.82565849</v>
       </c>
       <c r="E184" t="n">
         <v>109613.3597</v>
@@ -4276,10 +4171,10 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>29.6693382242</v>
+        <v>20.0482960478814</v>
       </c>
       <c r="E185" t="n">
-        <v>109718.7996</v>
+        <v>93937</v>
       </c>
     </row>
     <row r="186">
@@ -4293,7 +4188,7 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>33.7346240302</v>
+        <v>40.41724677</v>
       </c>
       <c r="E186" t="n">
         <v>114106.7629</v>
@@ -4309,12 +4204,8 @@
       <c r="C187" t="n">
         <v>2016</v>
       </c>
-      <c r="D187" t="n">
-        <v>30.5331931991</v>
-      </c>
-      <c r="E187" t="n">
-        <v>112913.3815</v>
-      </c>
+      <c r="D187"/>
+      <c r="E187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -4327,7 +4218,7 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>77.4218403932</v>
+        <v>92.75863355</v>
       </c>
       <c r="E188" t="n">
         <v>261877.9915</v>
@@ -4343,12 +4234,8 @@
       <c r="C189" t="n">
         <v>2016</v>
       </c>
-      <c r="D189" t="n">
-        <v>72.9375832549</v>
-      </c>
-      <c r="E189" t="n">
-        <v>269727.0839</v>
-      </c>
+      <c r="D189"/>
+      <c r="E189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -4361,7 +4248,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>50.9744222261</v>
+        <v>61.07214357</v>
       </c>
       <c r="E190" t="n">
         <v>172420.0722</v>
@@ -4377,12 +4264,8 @@
       <c r="C191" t="n">
         <v>2016</v>
       </c>
-      <c r="D191" t="n">
-        <v>46.575126381</v>
-      </c>
-      <c r="E191" t="n">
-        <v>172237.3084</v>
-      </c>
+      <c r="D191"/>
+      <c r="E191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -4395,7 +4278,7 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>58.6924892866</v>
+        <v>70.31911252</v>
       </c>
       <c r="E192" t="n">
         <v>198526.2961</v>
@@ -4411,12 +4294,8 @@
       <c r="C193" t="n">
         <v>2016</v>
       </c>
-      <c r="D193" t="n">
-        <v>37.3013863325</v>
-      </c>
-      <c r="E193" t="n">
-        <v>137942.5217</v>
-      </c>
+      <c r="D193"/>
+      <c r="E193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -4429,7 +4308,7 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>40.4965852852</v>
+        <v>48.5187112</v>
       </c>
       <c r="E194" t="n">
         <v>136978.976</v>
@@ -4446,10 +4325,10 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>36.9569237374</v>
+        <v>24.7346335359785</v>
       </c>
       <c r="E195" t="n">
-        <v>136668.6806</v>
+        <v>115895</v>
       </c>
     </row>
     <row r="196">
@@ -4463,7 +4342,7 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>34.6598403598</v>
+        <v>41.5257428</v>
       </c>
       <c r="E196" t="n">
         <v>117236.2906</v>
@@ -4480,10 +4359,10 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>28.7985205863</v>
+        <v>23.3836673141161</v>
       </c>
       <c r="E197" t="n">
-        <v>106498.4694</v>
+        <v>109565</v>
       </c>
     </row>
     <row r="198">
@@ -4497,7 +4376,7 @@
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>33.7585027077</v>
+        <v>40.44585567</v>
       </c>
       <c r="E198" t="n">
         <v>114187.5321</v>
@@ -4513,12 +4392,8 @@
       <c r="C199" t="n">
         <v>2016</v>
       </c>
-      <c r="D199" t="n">
-        <v>30.3083227629</v>
-      </c>
-      <c r="E199" t="n">
-        <v>112081.7986</v>
-      </c>
+      <c r="D199"/>
+      <c r="E199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -4531,7 +4406,7 @@
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>31.2925012382</v>
+        <v>37.49135439</v>
       </c>
       <c r="E200" t="n">
         <v>105846.3262</v>
@@ -4548,10 +4423,10 @@
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>28.9683682109</v>
+        <v>21.1119952026622</v>
       </c>
       <c r="E201" t="n">
-        <v>107126.575</v>
+        <v>98921</v>
       </c>
     </row>
     <row r="202">
@@ -4565,7 +4440,7 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>48.3574821616</v>
+        <v>57.93680368</v>
       </c>
       <c r="E202" t="n">
         <v>163568.3192</v>
@@ -4581,12 +4456,8 @@
       <c r="C203" t="n">
         <v>2016</v>
       </c>
-      <c r="D203" t="n">
-        <v>44.1199613223</v>
-      </c>
-      <c r="E203" t="n">
-        <v>163157.9767</v>
-      </c>
+      <c r="D203"/>
+      <c r="E203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -4599,7 +4470,7 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>53.0095929493</v>
+        <v>63.51046917</v>
       </c>
       <c r="E204" t="n">
         <v>179304.0008</v>
@@ -4616,10 +4487,10 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>48.5600923451</v>
+        <v>30.7478204713614</v>
       </c>
       <c r="E205" t="n">
-        <v>179577.8187</v>
+        <v>144070</v>
       </c>
     </row>
     <row r="206">
@@ -4633,7 +4504,7 @@
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>61.2576228985</v>
+        <v>73.39238342</v>
       </c>
       <c r="E206" t="n">
         <v>207202.8147</v>
@@ -4650,10 +4521,10 @@
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>55.8267235913</v>
+        <v>39.5380646703894</v>
       </c>
       <c r="E207" t="n">
-        <v>206450.2097</v>
+        <v>185257</v>
       </c>
     </row>
     <row r="208">
@@ -4667,10 +4538,10 @@
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>30.4253469448</v>
+        <v>58.73956699</v>
       </c>
       <c r="E208" t="n">
-        <v>102913.1923</v>
+        <v>165834.6963</v>
       </c>
     </row>
     <row r="209">
@@ -4684,10 +4555,10 @@
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>27.5929114141</v>
+        <v>32.0652793161571</v>
       </c>
       <c r="E209" t="n">
-        <v>102040.0622</v>
+        <v>150243</v>
       </c>
     </row>
     <row r="210">
@@ -4701,10 +4572,10 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>55.9339982599</v>
+        <v>36.45242213</v>
       </c>
       <c r="E210" t="n">
-        <v>189195.7495</v>
+        <v>102913.1923</v>
       </c>
     </row>
     <row r="211">
@@ -4718,10 +4589,10 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>51.1601623929</v>
+        <v>18.8817271112779</v>
       </c>
       <c r="E211" t="n">
-        <v>189193.0168</v>
+        <v>88471</v>
       </c>
     </row>
     <row r="212">
@@ -4735,10 +4606,10 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>39.6179519068</v>
+        <v>67.01418129</v>
       </c>
       <c r="E212" t="n">
-        <v>134007.0143</v>
+        <v>189195.7495</v>
       </c>
     </row>
     <row r="213">
@@ -4751,12 +4622,8 @@
       <c r="C213" t="n">
         <v>2016</v>
       </c>
-      <c r="D213" t="n">
-        <v>36.1057249072</v>
-      </c>
-      <c r="E213" t="n">
-        <v>133520.9018</v>
-      </c>
+      <c r="D213"/>
+      <c r="E213"/>
     </row>
     <row r="214">
       <c r="A214" t="s">
@@ -4769,10 +4636,10 @@
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>38.3233222138</v>
+        <v>47.46602592</v>
       </c>
       <c r="E214" t="n">
-        <v>129627.9525</v>
+        <v>134007.0143</v>
       </c>
     </row>
     <row r="215">
@@ -4786,10 +4653,10 @@
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>34.220897922</v>
+        <v>28.4951429876714</v>
       </c>
       <c r="E215" t="n">
-        <v>126550.7108</v>
+        <v>133515</v>
       </c>
     </row>
     <row r="216">
@@ -4803,10 +4670,10 @@
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>49.0275158865</v>
+        <v>45.914938</v>
       </c>
       <c r="E216" t="n">
-        <v>165834.6963</v>
+        <v>129627.9525</v>
       </c>
     </row>
     <row r="217">
@@ -4820,10 +4687,10 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>45.7926728789</v>
+        <v>7.29308337021838</v>
       </c>
       <c r="E217" t="n">
-        <v>169343.7535</v>
+        <v>34172</v>
       </c>
     </row>
     <row r="218">
@@ -4837,7 +4704,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>26.4038677433</v>
+        <v>31.63431249</v>
       </c>
       <c r="E218" t="n">
         <v>89310.61077</v>
@@ -4854,10 +4721,10 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>24.1957836433</v>
+        <v>18.6659566767909</v>
       </c>
       <c r="E219" t="n">
-        <v>89477.30201</v>
+        <v>87460</v>
       </c>
     </row>
     <row r="220">
@@ -4871,7 +4738,7 @@
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>60.8680706851</v>
+        <v>72.92566329</v>
       </c>
       <c r="E220" t="n">
         <v>205885.1613</v>
@@ -4888,10 +4755,10 @@
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>61.8714911682</v>
+        <v>37.5649710335619</v>
       </c>
       <c r="E221" t="n">
-        <v>228804.0835</v>
+        <v>176012</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4772,7 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>43.3292664452</v>
+        <v>51.91252918</v>
       </c>
       <c r="E222" t="n">
         <v>146560.4694</v>
@@ -4921,12 +4788,8 @@
       <c r="C223" t="n">
         <v>2016</v>
       </c>
-      <c r="D223" t="n">
-        <v>39.283828266</v>
-      </c>
-      <c r="E223" t="n">
-        <v>145273.698</v>
-      </c>
+      <c r="D223"/>
+      <c r="E223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -4939,7 +4802,7 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>36.1553945438</v>
+        <v>43.31755712</v>
       </c>
       <c r="E224" t="n">
         <v>122294.9759</v>
@@ -4956,10 +4819,10 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>32.6381419871</v>
+        <v>23.1503962113522</v>
       </c>
       <c r="E225" t="n">
-        <v>120697.5947</v>
+        <v>108472</v>
       </c>
     </row>
   </sheetData>
@@ -4981,12 +4844,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4994,1544 +4854,1144 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>62.3996992061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.5489331441</v>
-      </c>
+      <c r="B2" t="n">
+        <v>74.76069806</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>51.1402127547</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.1339874166</v>
-      </c>
+      <c r="B3" t="n">
+        <v>61.27077619</v>
+      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33.7706426979</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.7293108374</v>
-      </c>
+      <c r="B4" t="n">
+        <v>40.46040052</v>
+      </c>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="B5" t="n">
+        <v>36.53688301</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4958429862</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.7181288297</v>
+        <v>21.5546340563972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>38.264264459</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.9990045427</v>
-      </c>
+      <c r="B6" t="n">
+        <v>45.84418127</v>
+      </c>
+      <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7" t="n">
+        <v>92.37832874</v>
       </c>
       <c r="C7" t="n">
-        <v>77.1044155084</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73.0399507305</v>
+        <v>51.1811312213344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8" t="n">
+        <v>32.13345097</v>
       </c>
       <c r="C8" t="n">
-        <v>26.8204782312</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.6580251407</v>
+        <v>22.8385855241261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9" t="n">
+        <v>58.24369972</v>
       </c>
       <c r="C9" t="n">
-        <v>48.6136357397</v>
-      </c>
-      <c r="D9" t="n">
-        <v>34.7069811027</v>
+        <v>26.7499848840112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
+      <c r="B10" t="n">
+        <v>38.75840177</v>
       </c>
       <c r="C10" t="n">
-        <v>32.3500539063</v>
-      </c>
-      <c r="D10" t="n">
-        <v>29.0378617705</v>
+        <v>19.4133632658845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>31.2956643295</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28.5602663794</v>
-      </c>
+      <c r="B11" t="n">
+        <v>37.49514407</v>
+      </c>
+      <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.2048916866</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.7127129411</v>
-      </c>
+      <c r="B12" t="n">
+        <v>34.99020215</v>
+      </c>
+      <c r="C12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="B13" t="n">
+        <v>48.79957182</v>
       </c>
       <c r="C13" t="n">
-        <v>40.7310081646</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34.4084142743</v>
+        <v>24.1897651687724</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>28.4454870978</v>
-      </c>
-      <c r="D14"/>
+      <c r="B14" t="n">
+        <v>34.08036415</v>
+      </c>
+      <c r="C14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>47.8774706085</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50.773707436</v>
-      </c>
+      <c r="B15" t="n">
+        <v>57.36170477</v>
+      </c>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
+      <c r="B16" t="n">
+        <v>58.40160546</v>
       </c>
       <c r="C16" t="n">
-        <v>48.7454332136</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.5975603099</v>
+        <v>42.6100722213353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" t="n">
+        <v>50.20681723</v>
       </c>
       <c r="C17" t="n">
-        <v>41.9055783911</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38.3268260445</v>
+        <v>28.9168664085877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26.9976911971</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30.6554396733</v>
-      </c>
+      <c r="B18" t="n">
+        <v>32.34576874</v>
+      </c>
+      <c r="C18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
+      <c r="B19" t="n">
+        <v>64.6825984</v>
       </c>
       <c r="C19" t="n">
-        <v>53.9879213112</v>
-      </c>
-      <c r="D19" t="n">
-        <v>49.1984659949</v>
+        <v>30.1062715830646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
+      <c r="B20" t="n">
+        <v>38.68913259</v>
       </c>
       <c r="C20" t="n">
-        <v>32.2922377545</v>
-      </c>
-      <c r="D20" t="n">
-        <v>30.0369145737</v>
+        <v>24.9324764566209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43.4775774136</v>
-      </c>
-      <c r="D21" t="n">
-        <v>35.1471054564</v>
-      </c>
+      <c r="B21" t="n">
+        <v>52.09021964</v>
+      </c>
+      <c r="C21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="n">
-        <v>66.3730882999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>59.7753789749</v>
-      </c>
+      <c r="B22" t="n">
+        <v>79.52119123</v>
+      </c>
+      <c r="C22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
+      <c r="B23" t="n">
+        <v>74.86469631</v>
       </c>
       <c r="C23" t="n">
-        <v>62.4865022959</v>
-      </c>
-      <c r="D23" t="n">
-        <v>57.3907619765</v>
+        <v>30.5997050593594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="B24" t="n">
+        <v>37.79068721</v>
       </c>
       <c r="C24" t="n">
-        <v>31.5423421147</v>
-      </c>
-      <c r="D24" t="n">
-        <v>28.8950503422</v>
+        <v>20.2708960114521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
+      <c r="B25" t="n">
+        <v>38.39755336</v>
       </c>
       <c r="C25" t="n">
-        <v>32.0488684864</v>
-      </c>
-      <c r="D25" t="n">
-        <v>29.3139926875</v>
+        <v>20.2011067611284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
+      <c r="B26" t="n">
+        <v>63.73873955</v>
       </c>
       <c r="C26" t="n">
-        <v>53.2001209035</v>
-      </c>
-      <c r="D26" t="n">
-        <v>49.6911729035</v>
+        <v>38.5061655104044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="B27" t="n">
+        <v>53.24299094</v>
       </c>
       <c r="C27" t="n">
-        <v>44.4397484987</v>
-      </c>
-      <c r="D27" t="n">
-        <v>39.8483949519</v>
+        <v>26.5273849204405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="n">
-        <v>33.5265103216</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30.5910920372</v>
-      </c>
+      <c r="B28" t="n">
+        <v>40.16790701</v>
+      </c>
+      <c r="C28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="B29" t="n">
+        <v>45.16832357</v>
       </c>
       <c r="C29" t="n">
-        <v>37.7001536589</v>
-      </c>
-      <c r="D29" t="n">
-        <v>35.0900445997</v>
+        <v>20.4025778690965</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="B30" t="n">
+        <v>50.45764369</v>
       </c>
       <c r="C30" t="n">
-        <v>42.1149329931</v>
-      </c>
-      <c r="D30" t="n">
-        <v>37.8249898196</v>
+        <v>35.0713392268888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31" t="n">
+        <v>63.45137061</v>
       </c>
       <c r="C31" t="n">
-        <v>52.9602658003</v>
-      </c>
-      <c r="D31" t="n">
-        <v>43.3579515483</v>
+        <v>26.7474238106048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
+      <c r="B32" t="n">
+        <v>46.53283436</v>
       </c>
       <c r="C32" t="n">
-        <v>38.8390550495</v>
-      </c>
-      <c r="D32" t="n">
-        <v>35.3720508239</v>
+        <v>22.7959009673532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
+      <c r="B33" t="n">
+        <v>61.18750842</v>
       </c>
       <c r="C33" t="n">
-        <v>51.0707125501</v>
-      </c>
-      <c r="D33" t="n">
-        <v>46.4147847033</v>
+        <v>32.1485142018642</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
+      <c r="B34" t="n">
+        <v>69.36301275</v>
       </c>
       <c r="C34" t="n">
-        <v>57.8944718848</v>
-      </c>
-      <c r="D34" t="n">
-        <v>52.4019649573</v>
+        <v>28.4560866182242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="B35" t="n">
+        <v>50.8092648</v>
       </c>
       <c r="C35" t="n">
-        <v>42.408416761</v>
-      </c>
-      <c r="D35" t="n">
-        <v>39.4894396243</v>
+        <v>31.4990686705645</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
+      <c r="B36" t="n">
+        <v>79.90182868</v>
       </c>
       <c r="C36" t="n">
-        <v>66.690790821</v>
-      </c>
-      <c r="D36" t="n">
-        <v>58.4424661004</v>
+        <v>8.36702681862464</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
-        <v>76</v>
+      <c r="B37" t="n">
+        <v>60.10853014</v>
       </c>
       <c r="C37" t="n">
-        <v>50.170133483</v>
-      </c>
-      <c r="D37" t="n">
-        <v>45.7109452345</v>
+        <v>21.7753132149131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
-        <v>78</v>
+      <c r="B38" t="n">
+        <v>56.47830792</v>
       </c>
       <c r="C38" t="n">
-        <v>47.1401353603</v>
-      </c>
-      <c r="D38" t="n">
-        <v>43.2355988831</v>
+        <v>31.9513115495734</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
-        <v>80</v>
+      <c r="B39" t="n">
+        <v>44.60728637</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2318788419</v>
-      </c>
-      <c r="D39" t="n">
-        <v>34.1816707717</v>
+        <v>27.2064962186974</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="n">
-        <v>28.6562165364</v>
-      </c>
-      <c r="D40" t="n">
-        <v>26.1353532115</v>
-      </c>
+      <c r="B40" t="n">
+        <v>34.3328378</v>
+      </c>
+      <c r="C40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
+      <c r="B41" t="n">
+        <v>184.4377205</v>
       </c>
       <c r="C41" t="n">
-        <v>153.9426273931</v>
-      </c>
-      <c r="D41" t="n">
-        <v>137.1375489939</v>
+        <v>126.483092052253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
+      <c r="B42" t="n">
+        <v>47.11235255</v>
       </c>
       <c r="C42" t="n">
-        <v>39.3227551957</v>
-      </c>
-      <c r="D42" t="n">
-        <v>35.9922001564</v>
+        <v>23.623341100396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
+      <c r="B43" t="n">
+        <v>47.88284444</v>
       </c>
       <c r="C43" t="n">
-        <v>39.9658532867</v>
-      </c>
-      <c r="D43" t="n">
-        <v>36.9229126825</v>
+        <v>28.4279148107541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
+      <c r="B44"/>
       <c r="C44"/>
-      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
+      <c r="B45" t="n">
+        <v>46.16363641</v>
       </c>
       <c r="C45" t="n">
-        <v>38.5309006054</v>
-      </c>
-      <c r="D45" t="n">
-        <v>35.3034750986</v>
+        <v>28.1466235816206</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>34.2404785875</v>
-      </c>
-      <c r="D46" t="n">
-        <v>31.3015776781</v>
-      </c>
+      <c r="B46" t="n">
+        <v>41.02330802</v>
+      </c>
+      <c r="C46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="n">
-        <v>51.9865852087</v>
-      </c>
-      <c r="D47" t="n">
-        <v>50.0234232631</v>
-      </c>
+      <c r="B47" t="n">
+        <v>62.28480985</v>
+      </c>
+      <c r="C47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
+      <c r="B48" t="n">
+        <v>52.82020894</v>
       </c>
       <c r="C48" t="n">
-        <v>44.0868696498</v>
-      </c>
-      <c r="D48" t="n">
-        <v>39.8384648089</v>
+        <v>28.3086114745738</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
+      <c r="B49" t="n">
+        <v>51.50138546</v>
       </c>
       <c r="C49" t="n">
-        <v>42.986101587</v>
-      </c>
-      <c r="D49" t="n">
-        <v>41.3955059724</v>
+        <v>28.1835457232292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
+      <c r="B50" t="n">
+        <v>34.5280504</v>
       </c>
       <c r="C50" t="n">
-        <v>28.8191525074</v>
-      </c>
-      <c r="D50" t="n">
-        <v>26.3240053289</v>
+        <v>23.4933666250225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
+      <c r="B51" t="n">
+        <v>50.53074615</v>
       </c>
       <c r="C51" t="n">
-        <v>42.1759486296</v>
-      </c>
-      <c r="D51" t="n">
-        <v>38.5198198189</v>
+        <v>26.9064237845839</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="n">
-        <v>35.3583151809</v>
-      </c>
-      <c r="D52" t="n">
-        <v>32.2973588142</v>
-      </c>
+      <c r="B52" t="n">
+        <v>42.36258121</v>
+      </c>
+      <c r="C52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
+      <c r="B53" t="n">
+        <v>68.91096527</v>
       </c>
       <c r="C53" t="n">
-        <v>57.5171663288</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52.7948269335</v>
+        <v>43.3926935697665</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="n">
-        <v>42.0300766689</v>
-      </c>
-      <c r="D54" t="n">
-        <v>38.0060323607</v>
-      </c>
+      <c r="B54" t="n">
+        <v>50.35597785</v>
+      </c>
+      <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="n">
-        <v>36.6725181925</v>
-      </c>
-      <c r="D55" t="n">
-        <v>39.1361917858</v>
-      </c>
+      <c r="B55" t="n">
+        <v>43.9371198</v>
+      </c>
+      <c r="C55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="n">
-        <v>35.1577880313</v>
-      </c>
-      <c r="D56" t="n">
-        <v>30.5115471628</v>
-      </c>
+      <c r="B56" t="n">
+        <v>42.12233086</v>
+      </c>
+      <c r="C56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
+      <c r="B57" t="n">
+        <v>60.38280821</v>
       </c>
       <c r="C57" t="n">
-        <v>50.3990621722</v>
-      </c>
-      <c r="D57" t="n">
-        <v>45.5620006337</v>
+        <v>34.8760573796528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="n">
-        <v>35.6107584955</v>
-      </c>
-      <c r="D58" t="n">
-        <v>32.8519865416</v>
-      </c>
+      <c r="B58" t="n">
+        <v>42.665032</v>
+      </c>
+      <c r="C58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
-        <v>120</v>
+      <c r="B59" t="n">
+        <v>40.62692157</v>
       </c>
       <c r="C59" t="n">
-        <v>33.9096310154</v>
-      </c>
-      <c r="D59" t="n">
-        <v>31.8666338377</v>
+        <v>21.1435817746741</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
+      <c r="B60" t="n">
+        <v>51.50750673</v>
       </c>
       <c r="C60" t="n">
-        <v>42.9912107641</v>
-      </c>
-      <c r="D60" t="n">
-        <v>38.2923441473</v>
+        <v>24.552797324126</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="n">
-        <v>52.7989191977</v>
-      </c>
-      <c r="D61" t="n">
-        <v>53.7233078531</v>
-      </c>
+      <c r="B61" t="n">
+        <v>63.25806223</v>
+      </c>
+      <c r="C61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="n">
-        <v>31.774358093</v>
-      </c>
-      <c r="D62" t="n">
-        <v>27.984510672</v>
-      </c>
+      <c r="B62" t="n">
+        <v>38.06866414</v>
+      </c>
+      <c r="C62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
+      <c r="B63" t="n">
+        <v>52.03874274</v>
       </c>
       <c r="C63" t="n">
-        <v>43.4346117468</v>
-      </c>
-      <c r="D63" t="n">
-        <v>34.4755372083</v>
+        <v>27.2841821120241</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
+      <c r="B64" t="n">
+        <v>61.60853167</v>
       </c>
       <c r="C64" t="n">
-        <v>51.4221234533</v>
-      </c>
-      <c r="D64" t="n">
-        <v>47.1966998682</v>
+        <v>42.1853608814449</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
+      <c r="B65" t="n">
+        <v>39.95593749</v>
       </c>
       <c r="C65" t="n">
-        <v>33.3495880269</v>
-      </c>
-      <c r="D65" t="n">
-        <v>33.5400226965</v>
+        <v>22.2663990405854</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
+      <c r="B66" t="n">
+        <v>40.25031275</v>
       </c>
       <c r="C66" t="n">
-        <v>33.595291025</v>
-      </c>
-      <c r="D66" t="n">
-        <v>22.1759332702</v>
+        <v>25.1768455441458</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
+      <c r="B67" t="n">
+        <v>63.49909733</v>
       </c>
       <c r="C67" t="n">
-        <v>53.0001013397</v>
-      </c>
-      <c r="D67" t="n">
-        <v>39.3053881759</v>
+        <v>28.349161803508</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
-        <v>138</v>
+      <c r="B68" t="n">
+        <v>44.18505432</v>
       </c>
       <c r="C68" t="n">
-        <v>36.879459005</v>
-      </c>
-      <c r="D68" t="n">
-        <v>33.8830701417</v>
+        <v>21.9368742622985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
+      <c r="B69"/>
       <c r="C69"/>
-      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
+      <c r="B70" t="n">
+        <v>55.52014522</v>
       </c>
       <c r="C70" t="n">
-        <v>46.3403961164</v>
-      </c>
-      <c r="D70" t="n">
-        <v>42.3563162243</v>
+        <v>30.3476527516154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
+      <c r="B71" t="n">
+        <v>45.75110427</v>
       </c>
       <c r="C71" t="n">
-        <v>38.1865768941</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34.7378410674</v>
+        <v>30.4910728623724</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="n">
-        <v>38.3736187101</v>
-      </c>
-      <c r="D72" t="n">
-        <v>35.0990271091</v>
-      </c>
+      <c r="B72" t="n">
+        <v>45.97519793</v>
+      </c>
+      <c r="C72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="n">
-        <v>33.7185272711</v>
-      </c>
-      <c r="D73" t="n">
-        <v>30.6452351698</v>
-      </c>
+      <c r="B73" t="n">
+        <v>40.39796134</v>
+      </c>
+      <c r="C73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="n">
-        <v>30.175515854</v>
-      </c>
-      <c r="D74" t="n">
-        <v>26.9865540509</v>
-      </c>
+      <c r="B74" t="n">
+        <v>36.15310103</v>
+      </c>
+      <c r="C74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
+      <c r="B75" t="n">
+        <v>66.49991729</v>
       </c>
       <c r="C75" t="n">
-        <v>55.5047631169</v>
-      </c>
-      <c r="D75" t="n">
-        <v>50.9644728489</v>
+        <v>30.6626647805994</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
+      <c r="B76" t="n">
+        <v>64.22197748</v>
       </c>
       <c r="C76" t="n">
-        <v>53.6034598564</v>
-      </c>
-      <c r="D76" t="n">
-        <v>47.6012439631</v>
+        <v>25.2028831237773</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="s">
-        <v>156</v>
+      <c r="B77" t="n">
+        <v>37.01363019</v>
       </c>
       <c r="C77" t="n">
-        <v>30.8937643791</v>
-      </c>
-      <c r="D77" t="n">
-        <v>28.2587200376</v>
+        <v>21.7947346882448</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s">
-        <v>158</v>
+      <c r="B78" t="n">
+        <v>47.33538454</v>
       </c>
       <c r="C78" t="n">
-        <v>39.5089108873</v>
-      </c>
-      <c r="D78" t="n">
-        <v>35.4770512252</v>
+        <v>20.2621456773137</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
+      <c r="B79" t="n">
+        <v>76.85151271</v>
       </c>
       <c r="C79" t="n">
-        <v>64.1448167486</v>
-      </c>
-      <c r="D79" t="n">
-        <v>57.7290584358</v>
+        <v>31.1381707430496</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
-        <v>162</v>
+      <c r="B80" t="n">
+        <v>60.75381226</v>
       </c>
       <c r="C80" t="n">
-        <v>50.7087240891</v>
-      </c>
-      <c r="D80" t="n">
-        <v>45.354567398</v>
+        <v>35.8486250057234</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
+      <c r="B81"/>
+      <c r="C81" t="n">
+        <v>37.1336435873717</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82"/>
+      <c r="B82"/>
+      <c r="C82" t="n">
+        <v>10.7381539473595</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="n">
-        <v>47.2455985635</v>
-      </c>
-      <c r="D83" t="n">
-        <v>43.5944543473</v>
-      </c>
+      <c r="B83" t="n">
+        <v>56.60466274</v>
+      </c>
+      <c r="C83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="s">
-        <v>170</v>
+      <c r="B84" t="n">
+        <v>59.56174388</v>
       </c>
       <c r="C84" t="n">
-        <v>49.7137533334</v>
-      </c>
-      <c r="D84" t="n">
-        <v>45.1264783767</v>
+        <v>32.1028417261172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85"/>
+      <c r="B85"/>
+      <c r="C85" t="n">
+        <v>27.3590935091605</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s">
-        <v>174</v>
+      <c r="B86" t="n">
+        <v>60.52167612</v>
       </c>
       <c r="C86" t="n">
-        <v>50.5149695399</v>
-      </c>
-      <c r="D86"/>
+        <v>7.92353427375417</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="s">
-        <v>176</v>
+      <c r="B87" t="n">
+        <v>95.93504701</v>
       </c>
       <c r="C87" t="n">
-        <v>80.0730628857</v>
-      </c>
-      <c r="D87" t="n">
-        <v>69.5159998047</v>
+        <v>60.874580641677</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="n">
-        <v>36.0794271653</v>
-      </c>
-      <c r="D88" t="n">
-        <v>32.6731289608</v>
-      </c>
+      <c r="B88" t="n">
+        <v>43.22654107</v>
+      </c>
+      <c r="C88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="n">
-        <v>48.3174512628</v>
-      </c>
-      <c r="D89" t="n">
-        <v>44.5080855358</v>
-      </c>
+      <c r="B89" t="n">
+        <v>57.88884291</v>
+      </c>
+      <c r="C89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="s">
-        <v>182</v>
+      <c r="B90" t="n">
+        <v>42.13465073</v>
       </c>
       <c r="C90" t="n">
-        <v>35.1680709238</v>
-      </c>
-      <c r="D90" t="n">
-        <v>31.9076881115</v>
+        <v>34.7704131016399</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="n">
-        <v>34.9881255828</v>
-      </c>
-      <c r="D91" t="n">
-        <v>32.176195937</v>
-      </c>
+      <c r="B91" t="n">
+        <v>41.91905931</v>
+      </c>
+      <c r="C91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="s">
-        <v>186</v>
+      <c r="B92" t="n">
+        <v>54.45188316</v>
       </c>
       <c r="C92" t="n">
-        <v>45.4487614277</v>
-      </c>
-      <c r="D92" t="n">
-        <v>41.7204688765</v>
+        <v>28.7506100599572</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="s">
-        <v>188</v>
+      <c r="B93" t="n">
+        <v>38.82565849</v>
       </c>
       <c r="C93" t="n">
-        <v>32.4061903448</v>
-      </c>
-      <c r="D93" t="n">
-        <v>29.6693382242</v>
+        <v>20.0482960478814</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="n">
-        <v>33.7346240302</v>
-      </c>
-      <c r="D94" t="n">
-        <v>30.5331931991</v>
-      </c>
+      <c r="B94" t="n">
+        <v>40.41724677</v>
+      </c>
+      <c r="C94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="n">
-        <v>77.4218403932</v>
-      </c>
-      <c r="D95" t="n">
-        <v>72.9375832549</v>
-      </c>
+      <c r="B95" t="n">
+        <v>92.75863355</v>
+      </c>
+      <c r="C95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="n">
-        <v>50.9744222261</v>
-      </c>
-      <c r="D96" t="n">
-        <v>46.575126381</v>
-      </c>
+      <c r="B96" t="n">
+        <v>61.07214357</v>
+      </c>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="n">
-        <v>58.6924892866</v>
-      </c>
-      <c r="D97" t="n">
-        <v>37.3013863325</v>
-      </c>
+      <c r="B97" t="n">
+        <v>70.31911252</v>
+      </c>
+      <c r="C97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="s">
-        <v>198</v>
+      <c r="B98" t="n">
+        <v>48.5187112</v>
       </c>
       <c r="C98" t="n">
-        <v>40.4965852852</v>
-      </c>
-      <c r="D98" t="n">
-        <v>36.9569237374</v>
+        <v>24.7346335359785</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="s">
-        <v>200</v>
+      <c r="B99" t="n">
+        <v>41.5257428</v>
       </c>
       <c r="C99" t="n">
-        <v>34.6598403598</v>
-      </c>
-      <c r="D99" t="n">
-        <v>28.7985205863</v>
+        <v>23.3836673141161</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="n">
-        <v>33.7585027077</v>
-      </c>
-      <c r="D100" t="n">
-        <v>30.3083227629</v>
-      </c>
+      <c r="B100" t="n">
+        <v>40.44585567</v>
+      </c>
+      <c r="C100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="s">
-        <v>204</v>
+      <c r="B101" t="n">
+        <v>37.49135439</v>
       </c>
       <c r="C101" t="n">
-        <v>31.2925012382</v>
-      </c>
-      <c r="D101" t="n">
-        <v>28.9683682109</v>
+        <v>21.1119952026622</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="n">
-        <v>48.3574821616</v>
-      </c>
-      <c r="D102" t="n">
-        <v>44.1199613223</v>
-      </c>
+      <c r="B102" t="n">
+        <v>57.93680368</v>
+      </c>
+      <c r="C102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="s">
-        <v>208</v>
+      <c r="B103" t="n">
+        <v>63.51046917</v>
       </c>
       <c r="C103" t="n">
-        <v>53.0095929493</v>
-      </c>
-      <c r="D103" t="n">
-        <v>48.5600923451</v>
+        <v>30.7478204713614</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="s">
-        <v>210</v>
+      <c r="B104" t="n">
+        <v>73.39238342</v>
       </c>
       <c r="C104" t="n">
-        <v>61.2576228985</v>
-      </c>
-      <c r="D104" t="n">
-        <v>55.8267235913</v>
+        <v>39.5380646703894</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="s">
-        <v>212</v>
+      <c r="B105" t="n">
+        <v>58.73956699</v>
       </c>
       <c r="C105" t="n">
-        <v>30.4253469448</v>
-      </c>
-      <c r="D105" t="n">
-        <v>27.5929114141</v>
+        <v>32.0652793161571</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="s">
-        <v>214</v>
+      <c r="B106" t="n">
+        <v>36.45242213</v>
       </c>
       <c r="C106" t="n">
-        <v>55.9339982599</v>
-      </c>
-      <c r="D106" t="n">
-        <v>51.1601623929</v>
+        <v>18.8817271112779</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="n">
-        <v>39.6179519068</v>
-      </c>
-      <c r="D107" t="n">
-        <v>36.1057249072</v>
-      </c>
+      <c r="B107" t="n">
+        <v>67.01418129</v>
+      </c>
+      <c r="C107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="s">
-        <v>218</v>
+      <c r="B108" t="n">
+        <v>47.46602592</v>
       </c>
       <c r="C108" t="n">
-        <v>38.3233222138</v>
-      </c>
-      <c r="D108" t="n">
-        <v>34.220897922</v>
+        <v>28.4951429876714</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="s">
-        <v>220</v>
+      <c r="B109" t="n">
+        <v>45.914938</v>
       </c>
       <c r="C109" t="n">
-        <v>49.0275158865</v>
-      </c>
-      <c r="D109" t="n">
-        <v>45.7926728789</v>
+        <v>7.29308337021838</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="s">
-        <v>222</v>
+      <c r="B110" t="n">
+        <v>31.63431249</v>
       </c>
       <c r="C110" t="n">
-        <v>26.4038677433</v>
-      </c>
-      <c r="D110" t="n">
-        <v>24.1957836433</v>
+        <v>18.6659566767909</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="s">
-        <v>224</v>
+      <c r="B111" t="n">
+        <v>72.92566329</v>
       </c>
       <c r="C111" t="n">
-        <v>60.8680706851</v>
-      </c>
-      <c r="D111" t="n">
-        <v>61.8714911682</v>
+        <v>37.5649710335619</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="n">
-        <v>43.3292664452</v>
-      </c>
-      <c r="D112" t="n">
-        <v>39.283828266</v>
-      </c>
+      <c r="B112" t="n">
+        <v>51.91252918</v>
+      </c>
+      <c r="C112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="s">
-        <v>228</v>
+      <c r="B113" t="n">
+        <v>43.31755712</v>
       </c>
       <c r="C113" t="n">
-        <v>36.1553945438</v>
-      </c>
-      <c r="D113" t="n">
-        <v>32.6381419871</v>
+        <v>23.1503962113522</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
+++ b/user-data/uganda-primary-educ-funding/uganda-primary-educ-funding.xlsx
@@ -718,7 +718,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
